--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -17,33 +17,36 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$31</definedName>
+    <definedName name="base">'#system'!$C$2:$C$33</definedName>
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$91</definedName>
+    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$21</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$11</definedName>
+    <definedName name="json">'#system'!$K$2:$K$12</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$14</definedName>
+    <definedName name="number">'#system'!$M$2:$M$15</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$6</definedName>
-    <definedName name="ssh">'#system'!$Q$2:$Q$9</definedName>
-    <definedName name="target">'#system'!$A$2:$A$23</definedName>
-    <definedName name="web">'#system'!$S$2:$S$108</definedName>
-    <definedName name="webalert">'#system'!$T$2:$T$6</definedName>
-    <definedName name="webcookie">'#system'!$U$2:$U$8</definedName>
-    <definedName name="ws">'#system'!$V$2:$V$16</definedName>
-    <definedName name="xml">'#system'!$W$2:$W$11</definedName>
-    <definedName name="step">'#system'!$R$2:$R$4</definedName>
+    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
+    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
+    <definedName name="target">'#system'!$A$2:$A$26</definedName>
+    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
+    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
+    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
+    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
+    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -58,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4285" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7861" uniqueCount="483">
   <si>
     <t>jira</t>
   </si>
@@ -1423,6 +1426,90 @@
   </si>
   <si>
     <t>assertBetween(num,min,max)</t>
+  </si>
+  <si>
+    <t>sms</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>ws.async</t>
+  </si>
+  <si>
+    <t>clear(vars)</t>
+  </si>
+  <si>
+    <t>section(steps)</t>
+  </si>
+  <si>
+    <t>sendKeysToTextBox(name,text1,text2,text3,text4)</t>
+  </si>
+  <si>
+    <t>addOrReplace(json,jsonpath,input,var)</t>
+  </si>
+  <si>
+    <t>send(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,minNum,maxNum)</t>
+  </si>
+  <si>
+    <t>assertEqual(num1,num2)</t>
+  </si>
+  <si>
+    <t>decrement(var,amount)</t>
+  </si>
+  <si>
+    <t>saveResults(db,sqls,outputDir)</t>
+  </si>
+  <si>
+    <t>sendText(phones,text)</t>
+  </si>
+  <si>
+    <t>laser(repeats)</t>
+  </si>
+  <si>
+    <t>play(audio)</t>
+  </si>
+  <si>
+    <t>speak(text)</t>
+  </si>
+  <si>
+    <t>speakNoWait(text)</t>
+  </si>
+  <si>
+    <t>assertTextMatches(text,minMatch,scrollTo)</t>
+  </si>
+  <si>
+    <t>jsSelect(locator,text)</t>
+  </si>
+  <si>
+    <t>savePageAsFile(sessionIdName,url,file)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,file)</t>
+  </si>
+  <si>
+    <t>delete(url,body,output)</t>
+  </si>
+  <si>
+    <t>get(url,queryString,output)</t>
+  </si>
+  <si>
+    <t>head(url,output)</t>
+  </si>
+  <si>
+    <t>patch(url,body,output)</t>
+  </si>
+  <si>
+    <t>post(url,body,output)</t>
+  </si>
+  <si>
+    <t>put(url,body,output)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
   </si>
 </sst>
 </file>
@@ -1430,7 +1517,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="119" x14ac:knownFonts="1">
+  <fonts count="239" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2191,8 +2278,760 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="409">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3282,8 +4121,1232 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="183">
+  <borders count="407">
     <border>
       <left/>
       <right/>
@@ -5067,6 +7130,2262 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5074,7 +9393,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="265">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5491,40 +9810,400 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="174" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="174" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="109" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="180" borderId="174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="174" fillId="180" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="183" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="183" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="186" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="186" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="186" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="186" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="118" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="195" fontId="119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="198" fontId="121" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="201" fontId="122" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="123" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="124" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="202" fillId="207" fontId="126" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="210" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="213" fontId="128" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="213" fontId="129" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="133" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="222" fontId="134" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="225" fontId="136" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="228" fontId="137" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="138" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="139" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="230" fillId="234" fontId="141" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="237" fontId="142" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="240" fontId="143" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="240" fontId="144" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="146" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="147" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="148" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="249" fontId="149" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="150" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="252" fontId="151" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="255" fontId="152" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="153" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="154" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="261" fontId="156" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="264" fontId="157" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="267" fontId="158" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="267" fontId="159" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="161" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="162" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="163" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="276" fontId="164" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="165" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="279" fontId="166" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="282" fontId="167" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="168" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="169" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="286" fillId="288" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="291" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="294" fontId="173" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="294" fontId="174" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="176" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="177" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="303" fontId="179" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="180" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="306" fontId="181" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="309" fontId="182" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="183" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="184" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="314" fillId="315" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="318" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="321" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="321" fontId="189" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="190" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="191" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="192" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="193" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="330" fontId="194" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="195" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="333" fontId="196" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="336" fontId="197" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="198" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="199" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="200" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="342" fillId="342" fontId="201" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="345" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="348" fontId="203" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="348" fontId="204" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="205" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="206" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="207" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="208" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="357" fontId="209" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="360" fontId="211" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="363" fontId="212" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="213" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="214" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="215" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="370" fillId="369" fontId="216" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="372" fontId="217" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="375" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="375" fontId="219" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="221" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="222" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="223" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="384" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="387" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="390" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="396" borderId="398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="399" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="402" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="402" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5849,7 +10528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X108"/>
+  <dimension ref="A1:AA111"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5910,24 +10589,33 @@
         <v>442</v>
       </c>
       <c r="Q1" t="s">
+        <v>455</v>
+      </c>
+      <c r="R1" t="s">
+        <v>456</v>
+      </c>
+      <c r="S1" t="s">
         <v>364</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>438</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>57</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>58</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>59</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>60</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z1" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5963,13 +10651,13 @@
         <v>391</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>461</v>
       </c>
       <c r="L2" t="s">
-        <v>201</v>
+        <v>462</v>
       </c>
       <c r="M2" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="N2" t="s">
         <v>258</v>
@@ -5981,24 +10669,33 @@
         <v>443</v>
       </c>
       <c r="Q2" t="s">
+        <v>467</v>
+      </c>
+      <c r="R2" t="s">
+        <v>468</v>
+      </c>
+      <c r="S2" t="s">
         <v>388</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>439</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>100</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>175</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>180</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>187</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
+        <v>476</v>
+      </c>
+      <c r="Z2" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6034,10 +10731,10 @@
         <v>339</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s">
-        <v>320</v>
+        <v>464</v>
       </c>
       <c r="N3" t="s">
         <v>245</v>
@@ -6048,25 +10745,31 @@
       <c r="P3" t="s">
         <v>444</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
+        <v>469</v>
+      </c>
+      <c r="S3" t="s">
         <v>389</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>440</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>101</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>176</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
         <v>181</v>
       </c>
-      <c r="V3" t="s">
+      <c r="X3" t="s">
         <v>371</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Y3" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z3" t="s">
         <v>234</v>
       </c>
     </row>
@@ -6099,7 +10802,7 @@
         <v>340</v>
       </c>
       <c r="K4" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
@@ -6113,25 +10816,31 @@
       <c r="P4" t="s">
         <v>445</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
+        <v>470</v>
+      </c>
+      <c r="S4" t="s">
         <v>365</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>441</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
         <v>359</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>177</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
         <v>182</v>
       </c>
-      <c r="V4" t="s">
+      <c r="X4" t="s">
         <v>188</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Y4" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z4" t="s">
         <v>235</v>
       </c>
     </row>
@@ -6158,7 +10867,7 @@
         <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="M5" t="s">
         <v>32</v>
@@ -6172,22 +10881,28 @@
       <c r="P5" t="s">
         <v>446</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
+        <v>471</v>
+      </c>
+      <c r="S5" t="s">
         <v>366</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" t="s">
         <v>360</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>178</v>
       </c>
-      <c r="U5" t="s">
+      <c r="W5" t="s">
         <v>183</v>
       </c>
-      <c r="V5" t="s">
+      <c r="X5" t="s">
         <v>189</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Y5" t="s">
+        <v>478</v>
+      </c>
+      <c r="Z5" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6211,7 +10926,7 @@
         <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M6" t="s">
         <v>33</v>
@@ -6225,22 +10940,25 @@
       <c r="P6" t="s">
         <v>447</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>368</v>
       </c>
-      <c r="S6" t="s">
+      <c r="U6" t="s">
         <v>102</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
         <v>179</v>
       </c>
-      <c r="U6" t="s">
+      <c r="W6" t="s">
         <v>184</v>
       </c>
-      <c r="V6" t="s">
+      <c r="X6" t="s">
         <v>190</v>
       </c>
-      <c r="W6" t="s">
+      <c r="Y6" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z6" t="s">
         <v>237</v>
       </c>
     </row>
@@ -6264,7 +10982,7 @@
         <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M7" t="s">
         <v>35</v>
@@ -6272,22 +10990,28 @@
       <c r="N7" t="s">
         <v>249</v>
       </c>
+      <c r="O7" t="s">
+        <v>466</v>
+      </c>
       <c r="P7" t="s">
         <v>448</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>367</v>
       </c>
-      <c r="S7" t="s">
+      <c r="U7" t="s">
         <v>103</v>
       </c>
-      <c r="U7" t="s">
+      <c r="W7" t="s">
         <v>185</v>
       </c>
-      <c r="V7" t="s">
+      <c r="X7" t="s">
         <v>191</v>
       </c>
-      <c r="W7" t="s">
+      <c r="Y7" t="s">
+        <v>480</v>
+      </c>
+      <c r="Z7" t="s">
         <v>238</v>
       </c>
     </row>
@@ -6311,7 +11035,7 @@
         <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M8" t="s">
         <v>94</v>
@@ -6322,19 +11046,22 @@
       <c r="P8" t="s">
         <v>449</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="S8" t="s">
         <v>369</v>
       </c>
-      <c r="S8" t="s">
+      <c r="U8" t="s">
         <v>104</v>
       </c>
-      <c r="U8" t="s">
+      <c r="W8" t="s">
         <v>186</v>
       </c>
-      <c r="V8" t="s">
+      <c r="X8" t="s">
         <v>192</v>
       </c>
-      <c r="W8" t="s">
+      <c r="Y8" t="s">
+        <v>481</v>
+      </c>
+      <c r="Z8" t="s">
         <v>239</v>
       </c>
     </row>
@@ -6355,7 +11082,7 @@
         <v>397</v>
       </c>
       <c r="K9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M9" t="s">
         <v>95</v>
@@ -6366,16 +11093,16 @@
       <c r="P9" t="s">
         <v>450</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
         <v>370</v>
       </c>
-      <c r="S9" t="s">
+      <c r="U9" t="s">
         <v>214</v>
       </c>
-      <c r="V9" t="s">
+      <c r="X9" t="s">
         <v>193</v>
       </c>
-      <c r="W9" t="s">
+      <c r="Z9" t="s">
         <v>240</v>
       </c>
     </row>
@@ -6393,10 +11120,10 @@
         <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M10" t="s">
-        <v>96</v>
+        <v>465</v>
       </c>
       <c r="N10" t="s">
         <v>252</v>
@@ -6404,13 +11131,13 @@
       <c r="P10" t="s">
         <v>451</v>
       </c>
-      <c r="S10" t="s">
+      <c r="U10" t="s">
         <v>262</v>
       </c>
-      <c r="V10" t="s">
+      <c r="X10" t="s">
         <v>194</v>
       </c>
-      <c r="W10" t="s">
+      <c r="Z10" t="s">
         <v>241</v>
       </c>
     </row>
@@ -6428,21 +11155,21 @@
         <v>44</v>
       </c>
       <c r="K11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M11" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="N11" t="s">
         <v>253</v>
       </c>
-      <c r="S11" t="s">
+      <c r="U11" t="s">
         <v>263</v>
       </c>
-      <c r="V11" t="s">
+      <c r="X11" t="s">
         <v>264</v>
       </c>
-      <c r="W11" t="s">
+      <c r="Z11" t="s">
         <v>242</v>
       </c>
     </row>
@@ -6459,16 +11186,19 @@
       <c r="I12" t="s">
         <v>84</v>
       </c>
+      <c r="K12" t="s">
+        <v>45</v>
+      </c>
       <c r="M12" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="N12" t="s">
         <v>254</v>
       </c>
-      <c r="S12" t="s">
+      <c r="U12" t="s">
         <v>105</v>
       </c>
-      <c r="V12" t="s">
+      <c r="X12" t="s">
         <v>195</v>
       </c>
     </row>
@@ -6486,15 +11216,15 @@
         <v>85</v>
       </c>
       <c r="M13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N13" t="s">
         <v>259</v>
       </c>
-      <c r="S13" t="s">
+      <c r="U13" t="s">
         <v>331</v>
       </c>
-      <c r="V13" t="s">
+      <c r="X13" t="s">
         <v>196</v>
       </c>
     </row>
@@ -6512,15 +11242,15 @@
         <v>86</v>
       </c>
       <c r="M14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N14" t="s">
         <v>255</v>
       </c>
-      <c r="S14" t="s">
+      <c r="U14" t="s">
         <v>106</v>
       </c>
-      <c r="V14" t="s">
+      <c r="X14" t="s">
         <v>197</v>
       </c>
     </row>
@@ -6537,13 +11267,16 @@
       <c r="I15" t="s">
         <v>87</v>
       </c>
+      <c r="M15" t="s">
+        <v>99</v>
+      </c>
       <c r="N15" t="s">
         <v>256</v>
       </c>
-      <c r="S15" t="s">
+      <c r="U15" t="s">
         <v>107</v>
       </c>
-      <c r="V15" t="s">
+      <c r="X15" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6552,7 +11285,7 @@
         <v>442</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>458</v>
       </c>
       <c r="E16" t="s">
         <v>322</v>
@@ -6563,19 +11296,19 @@
       <c r="N16" t="s">
         <v>257</v>
       </c>
-      <c r="S16" t="s">
+      <c r="U16" t="s">
         <v>78</v>
       </c>
-      <c r="V16" t="s">
+      <c r="X16" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>364</v>
+        <v>455</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
         <v>92</v>
@@ -6583,16 +11316,16 @@
       <c r="I17" t="s">
         <v>46</v>
       </c>
-      <c r="S17" t="s">
+      <c r="U17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="C18" t="s">
-        <v>261</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
         <v>93</v>
@@ -6600,16 +11333,16 @@
       <c r="I18" t="s">
         <v>433</v>
       </c>
-      <c r="S18" t="s">
+      <c r="U18" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>364</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>261</v>
       </c>
       <c r="E19" t="s">
         <v>301</v>
@@ -6617,16 +11350,16 @@
       <c r="I19" t="s">
         <v>88</v>
       </c>
-      <c r="S19" t="s">
+      <c r="U19" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>438</v>
       </c>
       <c r="C20" t="s">
-        <v>326</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
         <v>302</v>
@@ -6634,16 +11367,16 @@
       <c r="I20" t="s">
         <v>47</v>
       </c>
-      <c r="S20" t="s">
+      <c r="U20" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>326</v>
       </c>
       <c r="E21" t="s">
         <v>303</v>
@@ -6651,139 +11384,154 @@
       <c r="I21" t="s">
         <v>48</v>
       </c>
-      <c r="S21" t="s">
+      <c r="U21" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>230</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
         <v>304</v>
       </c>
-      <c r="S22" t="s">
+      <c r="U22" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>232</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E23" t="s">
         <v>295</v>
       </c>
-      <c r="S23" t="s">
+      <c r="U23" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>231</v>
       </c>
       <c r="E24" t="s">
         <v>284</v>
       </c>
-      <c r="S24" t="s">
+      <c r="U24" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="s">
+        <v>457</v>
+      </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>459</v>
       </c>
       <c r="E25" t="s">
         <v>79</v>
       </c>
-      <c r="S25" t="s">
+      <c r="U25" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="s">
+        <v>232</v>
+      </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E26" t="s">
         <v>287</v>
       </c>
-      <c r="S26" t="s">
+      <c r="U26" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
         <v>271</v>
       </c>
-      <c r="S27" t="s">
+      <c r="U27" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E28" t="s">
         <v>288</v>
       </c>
-      <c r="S28" t="s">
+      <c r="U28" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E29" t="s">
         <v>289</v>
       </c>
-      <c r="S29" t="s">
+      <c r="U29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E30" t="s">
         <v>221</v>
       </c>
-      <c r="S30" t="s">
+      <c r="U30" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E31" t="s">
         <v>280</v>
       </c>
-      <c r="S31" t="s">
+      <c r="U31" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="32">
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
       <c r="E32" t="s">
         <v>290</v>
       </c>
-      <c r="S32" t="s">
+      <c r="U32" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="33">
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
       <c r="E33" t="s">
         <v>265</v>
       </c>
-      <c r="S33" t="s">
+      <c r="U33" t="s">
         <v>123</v>
       </c>
     </row>
@@ -6791,7 +11539,7 @@
       <c r="E34" t="s">
         <v>335</v>
       </c>
-      <c r="S34" t="s">
+      <c r="U34" t="s">
         <v>215</v>
       </c>
     </row>
@@ -6799,7 +11547,7 @@
       <c r="E35" t="s">
         <v>312</v>
       </c>
-      <c r="S35" t="s">
+      <c r="U35" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6807,7 +11555,7 @@
       <c r="E36" t="s">
         <v>266</v>
       </c>
-      <c r="S36" t="s">
+      <c r="U36" t="s">
         <v>343</v>
       </c>
     </row>
@@ -6815,524 +11563,542 @@
       <c r="E37" t="s">
         <v>313</v>
       </c>
-      <c r="S37" t="s">
-        <v>434</v>
+      <c r="U37" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
         <v>272</v>
       </c>
-      <c r="S38" t="s">
-        <v>125</v>
+      <c r="U38" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
         <v>81</v>
       </c>
-      <c r="S39" t="s">
-        <v>126</v>
+      <c r="U39" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
         <v>217</v>
       </c>
-      <c r="S40" t="s">
-        <v>127</v>
+      <c r="U40" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
         <v>294</v>
       </c>
-      <c r="S41" t="s">
-        <v>128</v>
+      <c r="U41" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
         <v>305</v>
       </c>
-      <c r="S42" t="s">
-        <v>129</v>
+      <c r="U42" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
         <v>306</v>
       </c>
-      <c r="S43" t="s">
-        <v>130</v>
+      <c r="U43" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
         <v>348</v>
       </c>
-      <c r="S44" t="s">
-        <v>218</v>
+      <c r="U44" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
         <v>347</v>
       </c>
-      <c r="S45" t="s">
-        <v>80</v>
+      <c r="U45" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
         <v>216</v>
       </c>
-      <c r="S46" t="s">
-        <v>131</v>
+      <c r="U46" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
         <v>325</v>
       </c>
-      <c r="S47" t="s">
-        <v>132</v>
+      <c r="U47" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
         <v>344</v>
       </c>
-      <c r="S48" t="s">
-        <v>133</v>
+      <c r="U48" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
         <v>375</v>
       </c>
-      <c r="S49" t="s">
-        <v>134</v>
+      <c r="U49" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
         <v>307</v>
       </c>
-      <c r="S50" t="s">
-        <v>351</v>
+      <c r="U50" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
         <v>361</v>
       </c>
-      <c r="S51" t="s">
-        <v>135</v>
+      <c r="U51" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
         <v>336</v>
       </c>
-      <c r="S52" t="s">
-        <v>136</v>
+      <c r="U52" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
         <v>273</v>
       </c>
-      <c r="S53" t="s">
-        <v>137</v>
+      <c r="U53" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
         <v>297</v>
       </c>
-      <c r="S54" t="s">
-        <v>138</v>
+      <c r="U54" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
         <v>298</v>
       </c>
-      <c r="S55" t="s">
-        <v>139</v>
+      <c r="U55" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
         <v>299</v>
       </c>
-      <c r="S56" t="s">
-        <v>140</v>
+      <c r="U56" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
         <v>308</v>
       </c>
-      <c r="S57" t="s">
-        <v>141</v>
+      <c r="U57" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
         <v>317</v>
       </c>
-      <c r="S58" t="s">
-        <v>219</v>
+      <c r="U58" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
         <v>342</v>
       </c>
-      <c r="S59" t="s">
-        <v>396</v>
+      <c r="U59" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
         <v>314</v>
       </c>
-      <c r="S60" t="s">
-        <v>142</v>
+      <c r="U60" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
         <v>315</v>
       </c>
-      <c r="S61" t="s">
-        <v>143</v>
+      <c r="U61" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
         <v>376</v>
       </c>
-      <c r="S62" t="s">
-        <v>144</v>
+      <c r="U62" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
         <v>377</v>
       </c>
-      <c r="S63" t="s">
-        <v>145</v>
+      <c r="U63" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
         <v>350</v>
       </c>
-      <c r="S64" t="s">
-        <v>202</v>
+      <c r="U64" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
         <v>318</v>
       </c>
-      <c r="S65" t="s">
-        <v>203</v>
+      <c r="U65" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
         <v>274</v>
       </c>
-      <c r="S66" t="s">
-        <v>146</v>
+      <c r="U66" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
         <v>358</v>
       </c>
-      <c r="S67" t="s">
-        <v>147</v>
+      <c r="U67" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
         <v>319</v>
       </c>
-      <c r="S68" t="s">
-        <v>148</v>
+      <c r="U68" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
         <v>452</v>
       </c>
-      <c r="S69" t="s">
-        <v>149</v>
+      <c r="U69" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
         <v>309</v>
       </c>
-      <c r="S70" t="s">
-        <v>150</v>
+      <c r="U70" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
         <v>453</v>
       </c>
-      <c r="S71" t="s">
-        <v>204</v>
+      <c r="U71" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
         <v>267</v>
       </c>
-      <c r="S72" t="s">
-        <v>205</v>
+      <c r="U72" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
         <v>349</v>
       </c>
-      <c r="S73" t="s">
-        <v>206</v>
+      <c r="U73" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
         <v>285</v>
       </c>
-      <c r="S74" t="s">
-        <v>207</v>
+      <c r="U74" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
         <v>291</v>
       </c>
-      <c r="S75" t="s">
-        <v>220</v>
+      <c r="U75" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
         <v>296</v>
       </c>
-      <c r="S76" t="s">
-        <v>151</v>
+      <c r="U76" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>337</v>
-      </c>
-      <c r="S77" t="s">
-        <v>208</v>
+        <v>460</v>
+      </c>
+      <c r="U77" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>275</v>
-      </c>
-      <c r="S78" t="s">
-        <v>152</v>
+        <v>337</v>
+      </c>
+      <c r="U78" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>286</v>
-      </c>
-      <c r="S79" t="s">
-        <v>209</v>
+        <v>275</v>
+      </c>
+      <c r="U79" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>292</v>
-      </c>
-      <c r="S80" t="s">
-        <v>210</v>
+        <v>286</v>
+      </c>
+      <c r="U80" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>281</v>
-      </c>
-      <c r="S81" t="s">
-        <v>211</v>
+        <v>292</v>
+      </c>
+      <c r="U81" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>276</v>
-      </c>
-      <c r="S82" t="s">
-        <v>212</v>
+        <v>281</v>
+      </c>
+      <c r="U82" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>293</v>
-      </c>
-      <c r="S83" t="s">
-        <v>228</v>
+        <v>276</v>
+      </c>
+      <c r="U83" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>277</v>
-      </c>
-      <c r="S84" t="s">
-        <v>213</v>
+        <v>293</v>
+      </c>
+      <c r="U84" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>278</v>
-      </c>
-      <c r="S85" t="s">
-        <v>153</v>
+        <v>277</v>
+      </c>
+      <c r="U85" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>310</v>
-      </c>
-      <c r="S86" t="s">
-        <v>390</v>
+        <v>278</v>
+      </c>
+      <c r="U86" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>316</v>
-      </c>
-      <c r="S87" t="s">
-        <v>154</v>
+        <v>310</v>
+      </c>
+      <c r="U87" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>300</v>
-      </c>
-      <c r="S88" t="s">
-        <v>155</v>
+        <v>316</v>
+      </c>
+      <c r="U88" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>345</v>
-      </c>
-      <c r="S89" t="s">
-        <v>156</v>
+        <v>300</v>
+      </c>
+      <c r="U89" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>282</v>
-      </c>
-      <c r="S90" t="s">
-        <v>157</v>
+        <v>345</v>
+      </c>
+      <c r="U90" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" t="s">
+        <v>282</v>
+      </c>
+      <c r="U91" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="E92" t="s">
         <v>283</v>
       </c>
-      <c r="S91" t="s">
+      <c r="U92" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="U93" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="U94" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="92">
-      <c r="S92" t="s">
+    <row r="95">
+      <c r="U95" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="93">
-      <c r="S93" t="s">
+    <row r="96">
+      <c r="U96" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="94">
-      <c r="S94" t="s">
+    <row r="97">
+      <c r="U97" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="95">
-      <c r="S95" t="s">
+    <row r="98">
+      <c r="U98" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="96">
-      <c r="S96" t="s">
+    <row r="99">
+      <c r="U99" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="97">
-      <c r="S97" t="s">
+    <row r="100">
+      <c r="U100" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="98">
-      <c r="S98" t="s">
+    <row r="101">
+      <c r="U101" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="99">
-      <c r="S99" t="s">
+    <row r="102">
+      <c r="U102" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="100">
-      <c r="S100" t="s">
+    <row r="103">
+      <c r="U103" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="101">
-      <c r="S101" t="s">
+    <row r="104">
+      <c r="U104" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="102">
-      <c r="S102" t="s">
+    <row r="105">
+      <c r="U105" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="103">
-      <c r="S103" t="s">
+    <row r="106">
+      <c r="U106" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="104">
-      <c r="S104" t="s">
+    <row r="107">
+      <c r="U107" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="105">
-      <c r="S105" t="s">
+    <row r="108">
+      <c r="U108" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="106">
-      <c r="S106" t="s">
+    <row r="109">
+      <c r="U109" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="107">
-      <c r="S107" t="s">
+    <row r="110">
+      <c r="U110" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="108">
-      <c r="S108" t="s">
+    <row r="111">
+      <c r="U111" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -37,7 +37,7 @@
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="web">'#system'!$U$2:$U$112</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7861" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8309" uniqueCount="484">
   <si>
     <t>jira</t>
   </si>
@@ -1510,6 +1510,9 @@
   </si>
   <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
 </sst>
 </file>
@@ -1517,7 +1520,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="239" x14ac:knownFonts="1">
+  <fonts count="254" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3030,8 +3033,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="409">
+  <fills count="436">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5345,8 +5442,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="407">
+  <borders count="435">
     <border>
       <left/>
       <right/>
@@ -9386,6 +9636,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9393,7 +9925,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="265">
+  <cellXfs count="280">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10161,49 +10693,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="223" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="384" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="384" fontId="224" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="225" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="387" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="387" fontId="226" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="390" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="390" fontId="227" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="228" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="229" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="396" borderId="398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="398" fillId="396" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="399" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="399" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="402" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="402" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="402" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="402" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="235" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="236" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="237" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="238" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="411" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="414" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="417" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="423" borderId="426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="426" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="429" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="429" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10528,7 +11105,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -11740,7 +12317,7 @@
         <v>342</v>
       </c>
       <c r="U59" t="s">
-        <v>219</v>
+        <v>483</v>
       </c>
     </row>
     <row r="60">
@@ -11748,7 +12325,7 @@
         <v>314</v>
       </c>
       <c r="U60" t="s">
-        <v>396</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61">
@@ -11756,7 +12333,7 @@
         <v>315</v>
       </c>
       <c r="U61" t="s">
-        <v>142</v>
+        <v>396</v>
       </c>
     </row>
     <row r="62">
@@ -11764,7 +12341,7 @@
         <v>376</v>
       </c>
       <c r="U62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63">
@@ -11772,7 +12349,7 @@
         <v>377</v>
       </c>
       <c r="U63" t="s">
-        <v>473</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64">
@@ -11780,7 +12357,7 @@
         <v>350</v>
       </c>
       <c r="U64" t="s">
-        <v>144</v>
+        <v>473</v>
       </c>
     </row>
     <row r="65">
@@ -11788,7 +12365,7 @@
         <v>318</v>
       </c>
       <c r="U65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66">
@@ -11796,7 +12373,7 @@
         <v>274</v>
       </c>
       <c r="U66" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67">
@@ -11804,7 +12381,7 @@
         <v>358</v>
       </c>
       <c r="U67" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68">
@@ -11812,7 +12389,7 @@
         <v>319</v>
       </c>
       <c r="U68" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69">
@@ -11820,7 +12397,7 @@
         <v>452</v>
       </c>
       <c r="U69" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70">
@@ -11828,7 +12405,7 @@
         <v>309</v>
       </c>
       <c r="U70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71">
@@ -11836,7 +12413,7 @@
         <v>453</v>
       </c>
       <c r="U71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72">
@@ -11844,7 +12421,7 @@
         <v>267</v>
       </c>
       <c r="U72" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73">
@@ -11852,7 +12429,7 @@
         <v>349</v>
       </c>
       <c r="U73" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74">
@@ -11860,7 +12437,7 @@
         <v>285</v>
       </c>
       <c r="U74" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="75">
@@ -11868,7 +12445,7 @@
         <v>291</v>
       </c>
       <c r="U75" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76">
@@ -11876,7 +12453,7 @@
         <v>296</v>
       </c>
       <c r="U76" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77">
@@ -11884,7 +12461,7 @@
         <v>460</v>
       </c>
       <c r="U77" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78">
@@ -11892,7 +12469,7 @@
         <v>337</v>
       </c>
       <c r="U78" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79">
@@ -11900,7 +12477,7 @@
         <v>275</v>
       </c>
       <c r="U79" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80">
@@ -11908,7 +12485,7 @@
         <v>286</v>
       </c>
       <c r="U80" t="s">
-        <v>474</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81">
@@ -11916,7 +12493,7 @@
         <v>292</v>
       </c>
       <c r="U81" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="82">
@@ -11924,7 +12501,7 @@
         <v>281</v>
       </c>
       <c r="U82" t="s">
-        <v>209</v>
+        <v>482</v>
       </c>
     </row>
     <row r="83">
@@ -11932,7 +12509,7 @@
         <v>276</v>
       </c>
       <c r="U83" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="84">
@@ -11940,7 +12517,7 @@
         <v>293</v>
       </c>
       <c r="U84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85">
@@ -11948,7 +12525,7 @@
         <v>277</v>
       </c>
       <c r="U85" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="86">
@@ -11956,7 +12533,7 @@
         <v>278</v>
       </c>
       <c r="U86" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87">
@@ -11964,7 +12541,7 @@
         <v>310</v>
       </c>
       <c r="U87" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="88">
@@ -11972,7 +12549,7 @@
         <v>316</v>
       </c>
       <c r="U88" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
     </row>
     <row r="89">
@@ -11980,7 +12557,7 @@
         <v>300</v>
       </c>
       <c r="U89" t="s">
-        <v>390</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90">
@@ -11988,7 +12565,7 @@
         <v>345</v>
       </c>
       <c r="U90" t="s">
-        <v>154</v>
+        <v>390</v>
       </c>
     </row>
     <row r="91">
@@ -11996,7 +12573,7 @@
         <v>282</v>
       </c>
       <c r="U91" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92">
@@ -12004,101 +12581,106 @@
         <v>283</v>
       </c>
       <c r="U92" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>171</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="U112" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -18,16 +18,16 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$4</definedName>
+    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$21</definedName>
+    <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$12</definedName>
+    <definedName name="json">'#system'!$K$2:$K$13</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -37,8 +37,8 @@
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$112</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8309" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8764" uniqueCount="492">
   <si>
     <t>jira</t>
   </si>
@@ -1513,6 +1513,30 @@
   </si>
   <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
+  </si>
+  <si>
+    <t>fromExcel(excel,worksheet,csvFile)</t>
+  </si>
+  <si>
+    <t>writeFileAsIs(file,content,append)</t>
+  </si>
+  <si>
+    <t>fromCsv(csv,header,jsonFile)</t>
+  </si>
+  <si>
+    <t>checkAll(locator)</t>
+  </si>
+  <si>
+    <t>focus(locator)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator)</t>
+  </si>
+  <si>
+    <t>replyCancel(text)</t>
+  </si>
+  <si>
+    <t>replyOK(text)</t>
   </si>
 </sst>
 </file>
@@ -1520,7 +1544,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="254" x14ac:knownFonts="1">
+  <fonts count="269" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3127,8 +3151,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="436">
+  <fills count="463">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5595,8 +5713,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="435">
+  <borders count="463">
     <border>
       <left/>
       <right/>
@@ -9918,6 +10189,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9925,7 +10478,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="280">
+  <cellXfs count="295">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10738,49 +11291,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="238" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="411" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="411" fontId="239" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="414" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="414" fontId="241" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="417" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="417" fontId="242" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="243" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="244" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="245" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="423" borderId="426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="426" fillId="423" fontId="246" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="426" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="426" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="429" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="429" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="429" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="429" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="250" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="251" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="252" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="253" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="438" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="441" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="444" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="450" borderId="454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="453" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="456" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="456" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="462" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11105,7 +11703,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -11431,6 +12029,9 @@
       <c r="C5" t="s">
         <v>229</v>
       </c>
+      <c r="D5" t="s">
+        <v>484</v>
+      </c>
       <c r="E5" t="s">
         <v>341</v>
       </c>
@@ -11524,7 +12125,7 @@
         <v>102</v>
       </c>
       <c r="V6" t="s">
-        <v>179</v>
+        <v>490</v>
       </c>
       <c r="W6" t="s">
         <v>184</v>
@@ -11579,6 +12180,9 @@
       <c r="U7" t="s">
         <v>103</v>
       </c>
+      <c r="V7" t="s">
+        <v>491</v>
+      </c>
       <c r="W7" t="s">
         <v>185</v>
       </c>
@@ -11629,6 +12233,9 @@
       <c r="U8" t="s">
         <v>104</v>
       </c>
+      <c r="V8" t="s">
+        <v>179</v>
+      </c>
       <c r="W8" t="s">
         <v>186</v>
       </c>
@@ -11697,7 +12304,7 @@
         <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>486</v>
       </c>
       <c r="M10" t="s">
         <v>465</v>
@@ -11732,7 +12339,7 @@
         <v>44</v>
       </c>
       <c r="K11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M11" t="s">
         <v>96</v>
@@ -11764,7 +12371,7 @@
         <v>84</v>
       </c>
       <c r="K12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M12" t="s">
         <v>43</v>
@@ -11792,6 +12399,9 @@
       <c r="I13" t="s">
         <v>85</v>
       </c>
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
       <c r="M13" t="s">
         <v>97</v>
       </c>
@@ -11942,7 +12552,7 @@
         <v>302</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
+        <v>485</v>
       </c>
       <c r="U20" t="s">
         <v>111</v>
@@ -11959,7 +12569,7 @@
         <v>303</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U21" t="s">
         <v>112</v>
@@ -11975,6 +12585,9 @@
       <c r="E22" t="s">
         <v>304</v>
       </c>
+      <c r="I22" t="s">
+        <v>48</v>
+      </c>
       <c r="U22" t="s">
         <v>113</v>
       </c>
@@ -12205,7 +12818,7 @@
         <v>347</v>
       </c>
       <c r="U45" t="s">
-        <v>218</v>
+        <v>487</v>
       </c>
     </row>
     <row r="46">
@@ -12213,7 +12826,7 @@
         <v>216</v>
       </c>
       <c r="U46" t="s">
-        <v>80</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47">
@@ -12221,7 +12834,7 @@
         <v>325</v>
       </c>
       <c r="U47" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48">
@@ -12229,7 +12842,7 @@
         <v>344</v>
       </c>
       <c r="U48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49">
@@ -12237,7 +12850,7 @@
         <v>375</v>
       </c>
       <c r="U49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50">
@@ -12245,7 +12858,7 @@
         <v>307</v>
       </c>
       <c r="U50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51">
@@ -12253,7 +12866,7 @@
         <v>361</v>
       </c>
       <c r="U51" t="s">
-        <v>351</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52">
@@ -12261,7 +12874,7 @@
         <v>336</v>
       </c>
       <c r="U52" t="s">
-        <v>135</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53">
@@ -12269,7 +12882,7 @@
         <v>273</v>
       </c>
       <c r="U53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54">
@@ -12277,7 +12890,7 @@
         <v>297</v>
       </c>
       <c r="U54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55">
@@ -12285,7 +12898,7 @@
         <v>298</v>
       </c>
       <c r="U55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56">
@@ -12293,7 +12906,7 @@
         <v>299</v>
       </c>
       <c r="U56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57">
@@ -12301,7 +12914,7 @@
         <v>308</v>
       </c>
       <c r="U57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58">
@@ -12309,7 +12922,7 @@
         <v>317</v>
       </c>
       <c r="U58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59">
@@ -12317,7 +12930,7 @@
         <v>342</v>
       </c>
       <c r="U59" t="s">
-        <v>483</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60">
@@ -12325,7 +12938,7 @@
         <v>314</v>
       </c>
       <c r="U60" t="s">
-        <v>219</v>
+        <v>483</v>
       </c>
     </row>
     <row r="61">
@@ -12333,7 +12946,7 @@
         <v>315</v>
       </c>
       <c r="U61" t="s">
-        <v>396</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62">
@@ -12341,7 +12954,7 @@
         <v>376</v>
       </c>
       <c r="U62" t="s">
-        <v>142</v>
+        <v>396</v>
       </c>
     </row>
     <row r="63">
@@ -12349,7 +12962,7 @@
         <v>377</v>
       </c>
       <c r="U63" t="s">
-        <v>143</v>
+        <v>488</v>
       </c>
     </row>
     <row r="64">
@@ -12357,7 +12970,7 @@
         <v>350</v>
       </c>
       <c r="U64" t="s">
-        <v>473</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65">
@@ -12365,7 +12978,7 @@
         <v>318</v>
       </c>
       <c r="U65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66">
@@ -12373,7 +12986,7 @@
         <v>274</v>
       </c>
       <c r="U66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67">
@@ -12381,7 +12994,7 @@
         <v>358</v>
       </c>
       <c r="U67" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68">
@@ -12389,7 +13002,7 @@
         <v>319</v>
       </c>
       <c r="U68" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69">
@@ -12397,7 +13010,7 @@
         <v>452</v>
       </c>
       <c r="U69" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70">
@@ -12405,7 +13018,7 @@
         <v>309</v>
       </c>
       <c r="U70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71">
@@ -12413,7 +13026,7 @@
         <v>453</v>
       </c>
       <c r="U71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72">
@@ -12421,7 +13034,7 @@
         <v>267</v>
       </c>
       <c r="U72" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73">
@@ -12429,7 +13042,7 @@
         <v>349</v>
       </c>
       <c r="U73" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74">
@@ -12437,7 +13050,7 @@
         <v>285</v>
       </c>
       <c r="U74" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75">
@@ -12445,7 +13058,7 @@
         <v>291</v>
       </c>
       <c r="U75" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="76">
@@ -12453,7 +13066,7 @@
         <v>296</v>
       </c>
       <c r="U76" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77">
@@ -12461,7 +13074,7 @@
         <v>460</v>
       </c>
       <c r="U77" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="78">
@@ -12469,7 +13082,7 @@
         <v>337</v>
       </c>
       <c r="U78" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="79">
@@ -12477,7 +13090,7 @@
         <v>275</v>
       </c>
       <c r="U79" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80">
@@ -12485,7 +13098,7 @@
         <v>286</v>
       </c>
       <c r="U80" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81">
@@ -12493,7 +13106,7 @@
         <v>292</v>
       </c>
       <c r="U81" t="s">
-        <v>474</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82">
@@ -12501,7 +13114,7 @@
         <v>281</v>
       </c>
       <c r="U82" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="83">
@@ -12509,7 +13122,7 @@
         <v>276</v>
       </c>
       <c r="U83" t="s">
-        <v>209</v>
+        <v>482</v>
       </c>
     </row>
     <row r="84">
@@ -12517,7 +13130,7 @@
         <v>293</v>
       </c>
       <c r="U84" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="85">
@@ -12525,7 +13138,7 @@
         <v>277</v>
       </c>
       <c r="U85" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86">
@@ -12533,7 +13146,7 @@
         <v>278</v>
       </c>
       <c r="U86" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87">
@@ -12541,7 +13154,7 @@
         <v>310</v>
       </c>
       <c r="U87" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88">
@@ -12549,7 +13162,7 @@
         <v>316</v>
       </c>
       <c r="U88" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="89">
@@ -12557,7 +13170,7 @@
         <v>300</v>
       </c>
       <c r="U89" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
     </row>
     <row r="90">
@@ -12565,7 +13178,7 @@
         <v>345</v>
       </c>
       <c r="U90" t="s">
-        <v>390</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91">
@@ -12573,7 +13186,7 @@
         <v>282</v>
       </c>
       <c r="U91" t="s">
-        <v>154</v>
+        <v>390</v>
       </c>
     </row>
     <row r="92">
@@ -12581,106 +13194,116 @@
         <v>283</v>
       </c>
       <c r="U92" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>168</v>
+        <v>489</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>49</v>
+        <v>169</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>172</v>
+        <v>49</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="U113" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="U114" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8764" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9219" uniqueCount="492">
   <si>
     <t>jira</t>
   </si>
@@ -1544,7 +1544,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="269" x14ac:knownFonts="1">
+  <fonts count="284" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3245,8 +3245,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="463">
+  <fills count="490">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5866,8 +5960,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="463">
+  <borders count="491">
     <border>
       <left/>
       <right/>
@@ -10471,6 +10718,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10478,7 +11007,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="295">
+  <cellXfs count="310">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11336,49 +11865,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="253" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="438" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="438" fontId="254" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="255" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="441" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="441" fontId="256" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="444" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="444" fontId="257" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="258" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="259" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="260" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="450" borderId="454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="454" fillId="450" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="453" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="453" fontId="262" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="456" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="456" fontId="263" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="456" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="456" fontId="264" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="462" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="267" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="268" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="465" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="468" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="471" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="477" borderId="482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="480" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="483" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="483" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -27,7 +27,7 @@
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$13</definedName>
+    <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9219" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9675" uniqueCount="492">
   <si>
     <t>jira</t>
   </si>
@@ -1544,7 +1544,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="284" x14ac:knownFonts="1">
+  <fonts count="299" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3339,8 +3339,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="490">
+  <fills count="517">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6113,8 +6207,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="491">
+  <borders count="519">
     <border>
       <left/>
       <right/>
@@ -11000,6 +11247,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11007,7 +11536,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="310">
+  <cellXfs count="325">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11910,49 +12439,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="268" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="465" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="465" fontId="269" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="270" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="271" fillId="468" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="468" fontId="271" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="272" fillId="471" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="471" fontId="272" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="273" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="274" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="274" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="275" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="276" fillId="477" borderId="482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="482" fillId="477" fontId="276" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="277" fillId="480" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="480" fontId="277" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="483" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="483" fontId="278" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="483" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="483" fontId="279" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="280" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="281" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="282" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="283" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="492" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="495" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="498" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="504" borderId="510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="507" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="510" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="510" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12734,7 +13308,7 @@
         <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>36</v>
+        <v>320</v>
       </c>
       <c r="M7" t="s">
         <v>35</v>
@@ -12790,7 +13364,7 @@
         <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M8" t="s">
         <v>94</v>
@@ -12840,7 +13414,7 @@
         <v>397</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M9" t="s">
         <v>95</v>
@@ -12878,7 +13452,7 @@
         <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>486</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
         <v>465</v>
@@ -12913,7 +13487,7 @@
         <v>44</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>486</v>
       </c>
       <c r="M11" t="s">
         <v>96</v>
@@ -12945,7 +13519,7 @@
         <v>84</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M12" t="s">
         <v>43</v>
@@ -12974,7 +13548,7 @@
         <v>85</v>
       </c>
       <c r="K13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M13" t="s">
         <v>97</v>
@@ -13001,6 +13575,9 @@
       </c>
       <c r="I14" t="s">
         <v>86</v>
+      </c>
+      <c r="K14" t="s">
+        <v>45</v>
       </c>
       <c r="M14" t="s">
         <v>98</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -22,7 +22,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$8</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9675" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11049" uniqueCount="495">
   <si>
     <t>jira</t>
   </si>
@@ -1537,6 +1537,15 @@
   </si>
   <si>
     <t>replyOK(text)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>json(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,output)</t>
   </si>
 </sst>
 </file>
@@ -1544,7 +1553,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="299" x14ac:knownFonts="1">
+  <fonts count="344" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3433,8 +3442,290 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="517">
+  <fills count="598">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6360,8 +6651,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="519">
+  <borders count="603">
     <border>
       <left/>
       <right/>
@@ -11529,6 +12279,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11536,7 +13132,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="325">
+  <cellXfs count="370">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12484,49 +14080,184 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="283" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="492" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="492" fontId="284" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="285" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="495" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="495" fontId="286" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="498" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="498" fontId="287" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="288" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="289" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="290" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="504" borderId="510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="510" fillId="504" fontId="291" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="507" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="507" fontId="292" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="510" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="510" fontId="293" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="510" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="510" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="295" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="296" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="297" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="298" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="519" fontId="299" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="300" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="522" fontId="301" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="525" fontId="302" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="303" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="304" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="305" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="538" fillId="531" fontId="306" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="534" fontId="307" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="537" fontId="308" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="537" fontId="309" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="310" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="543" fontId="311" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="312" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="313" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="546" fontId="314" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="315" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="549" fontId="316" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="552" fontId="317" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="318" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="319" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="320" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="566" fillId="558" fontId="321" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="561" fontId="322" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="564" fontId="323" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="564" fontId="324" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="567" fontId="325" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="570" fontId="326" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="567" fontId="327" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="328" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="573" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="576" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="579" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="585" borderId="594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="588" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="591" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="591" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13039,7 +14770,7 @@
         <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>333</v>
+        <v>494</v>
       </c>
       <c r="G3" t="s">
         <v>30</v>
@@ -13113,7 +14844,7 @@
         <v>394</v>
       </c>
       <c r="F4" t="s">
-        <v>334</v>
+        <v>493</v>
       </c>
       <c r="H4" t="s">
         <v>356</v>
@@ -13184,7 +14915,7 @@
         <v>341</v>
       </c>
       <c r="F5" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="H5" t="s">
         <v>353</v>
@@ -13246,7 +14977,7 @@
         <v>395</v>
       </c>
       <c r="F6" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="I6" t="s">
         <v>18</v>
@@ -13302,7 +15033,7 @@
         <v>373</v>
       </c>
       <c r="F7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I7" t="s">
         <v>83</v>
@@ -13358,7 +15089,7 @@
         <v>374</v>
       </c>
       <c r="F8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I8" t="s">
         <v>40</v>
@@ -13410,6 +15141,9 @@
       <c r="E9" t="s">
         <v>311</v>
       </c>
+      <c r="F9" t="s">
+        <v>329</v>
+      </c>
       <c r="I9" t="s">
         <v>397</v>
       </c>
@@ -13447,6 +15181,9 @@
       </c>
       <c r="E10" t="s">
         <v>357</v>
+      </c>
+      <c r="F10" t="s">
+        <v>330</v>
       </c>
       <c r="I10" t="s">
         <v>19</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -17,12 +17,12 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$33</definedName>
+    <definedName name="base">'#system'!$C$2:$C$34</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11049" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11973" uniqueCount="499">
   <si>
     <t>jira</t>
   </si>
@@ -1546,6 +1546,18 @@
   </si>
   <si>
     <t>csv(file,worksheet,range,output)</t>
+  </si>
+  <si>
+    <t>saveCount(text,regex,saveVar)</t>
+  </si>
+  <si>
+    <t>assertPassword(file)</t>
+  </si>
+  <si>
+    <t>clearPassword(file,password)</t>
+  </si>
+  <si>
+    <t>setPassword(file,password)</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1565,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="344" x14ac:knownFonts="1">
+  <fonts count="374" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3724,8 +3736,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="598">
+  <fills count="652">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7110,8 +7310,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="603">
+  <borders count="659">
     <border>
       <left/>
       <right/>
@@ -13125,6 +13631,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13132,7 +14202,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="370">
+  <cellXfs count="400">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14215,49 +15285,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="328" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="573" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="573" fontId="329" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="330" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="576" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="576" fontId="331" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="579" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="579" fontId="332" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="333" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="334" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="335" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="585" borderId="594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="594" fillId="585" fontId="336" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="588" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="588" fontId="337" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="591" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="591" fontId="338" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="591" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="591" fontId="339" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="340" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="597" fontId="341" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="342" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="343" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="600" fontId="344" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="345" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="603" fontId="346" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="606" fontId="347" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="348" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="349" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="350" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="622" fillId="612" fontId="351" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="615" fontId="352" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="618" fontId="353" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="618" fontId="354" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="621" fontId="355" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="624" fontId="356" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="621" fontId="357" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="358" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="627" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="630" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="633" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="639" borderId="650" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="642" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="645" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="645" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14690,7 +15850,7 @@
         <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>496</v>
       </c>
       <c r="G2" t="s">
         <v>82</v>
@@ -14770,7 +15930,7 @@
         <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>494</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
         <v>30</v>
@@ -14844,7 +16004,7 @@
         <v>394</v>
       </c>
       <c r="F4" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="H4" t="s">
         <v>356</v>
@@ -14915,7 +16075,7 @@
         <v>341</v>
       </c>
       <c r="F5" t="s">
-        <v>333</v>
+        <v>494</v>
       </c>
       <c r="H5" t="s">
         <v>353</v>
@@ -14977,7 +16137,7 @@
         <v>395</v>
       </c>
       <c r="F6" t="s">
-        <v>334</v>
+        <v>493</v>
       </c>
       <c r="I6" t="s">
         <v>18</v>
@@ -15033,7 +16193,7 @@
         <v>373</v>
       </c>
       <c r="F7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="I7" t="s">
         <v>83</v>
@@ -15089,7 +16249,7 @@
         <v>374</v>
       </c>
       <c r="F8" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="I8" t="s">
         <v>40</v>
@@ -15142,7 +16302,7 @@
         <v>311</v>
       </c>
       <c r="F9" t="s">
-        <v>329</v>
+        <v>498</v>
       </c>
       <c r="I9" t="s">
         <v>397</v>
@@ -15183,7 +16343,7 @@
         <v>357</v>
       </c>
       <c r="F10" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I10" t="s">
         <v>19</v>
@@ -15220,6 +16380,9 @@
       <c r="E11" t="s">
         <v>279</v>
       </c>
+      <c r="F11" t="s">
+        <v>328</v>
+      </c>
       <c r="I11" t="s">
         <v>44</v>
       </c>
@@ -15252,6 +16415,9 @@
       <c r="E12" t="s">
         <v>268</v>
       </c>
+      <c r="F12" t="s">
+        <v>329</v>
+      </c>
       <c r="I12" t="s">
         <v>84</v>
       </c>
@@ -15281,6 +16447,9 @@
       <c r="E13" t="s">
         <v>321</v>
       </c>
+      <c r="F13" t="s">
+        <v>330</v>
+      </c>
       <c r="I13" t="s">
         <v>85</v>
       </c>
@@ -15485,7 +16654,7 @@
         <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>230</v>
+        <v>495</v>
       </c>
       <c r="E23" t="s">
         <v>295</v>
@@ -15499,7 +16668,7 @@
         <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E24" t="s">
         <v>284</v>
@@ -15513,7 +16682,7 @@
         <v>457</v>
       </c>
       <c r="C25" t="s">
-        <v>459</v>
+        <v>231</v>
       </c>
       <c r="E25" t="s">
         <v>79</v>
@@ -15527,7 +16696,7 @@
         <v>232</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>459</v>
       </c>
       <c r="E26" t="s">
         <v>287</v>
@@ -15538,7 +16707,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
         <v>271</v>
@@ -15549,7 +16718,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
         <v>288</v>
@@ -15560,7 +16729,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
         <v>289</v>
@@ -15571,7 +16740,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E30" t="s">
         <v>221</v>
@@ -15582,7 +16751,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E31" t="s">
         <v>280</v>
@@ -15593,7 +16762,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E32" t="s">
         <v>290</v>
@@ -15604,7 +16773,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E33" t="s">
         <v>265</v>
@@ -15614,6 +16783,9 @@
       </c>
     </row>
     <row r="34">
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
       <c r="E34" t="s">
         <v>335</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -37,7 +37,7 @@
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="web">'#system'!$U$2:$U$115</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11973" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12899" uniqueCount="501">
   <si>
     <t>jira</t>
   </si>
@@ -1558,6 +1558,12 @@
   </si>
   <si>
     <t>setPassword(file,password)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headerCellsLoc,rowLocator,cellLocator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
   </si>
 </sst>
 </file>
@@ -1565,7 +1571,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="374" x14ac:knownFonts="1">
+  <fonts count="404" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3924,8 +3930,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="652">
+  <fills count="706">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7616,8 +7810,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="659">
+  <borders count="715">
     <border>
       <left/>
       <right/>
@@ -14195,6 +14695,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -14202,7 +15266,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="400">
+  <cellXfs count="430">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15375,49 +16439,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="358" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="627" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="627" fontId="359" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="360" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="361" fillId="630" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="630" fontId="361" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="362" fillId="633" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="633" fontId="362" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="363" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="364" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="365" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="366" fillId="639" borderId="650" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="650" fillId="639" fontId="366" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="367" fillId="642" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="642" fontId="367" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="368" fillId="645" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="645" fontId="368" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="369" fillId="645" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="645" fontId="369" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="370" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="648" fontId="370" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="371" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="651" fontId="371" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="648" fontId="372" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="373" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="654" fontId="374" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="375" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="657" fontId="376" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="660" fontId="377" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="378" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="379" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="380" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="678" fillId="666" fontId="381" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="682" fillId="669" fontId="382" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="672" fontId="383" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="672" fontId="384" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="675" fontId="385" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="678" fontId="386" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="675" fontId="387" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="388" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="681" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="684" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="687" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="693" borderId="706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="696" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="699" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="699" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="702" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="705" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="702" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15742,7 +16896,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -17134,7 +18288,7 @@
         <v>460</v>
       </c>
       <c r="U77" t="s">
-        <v>206</v>
+        <v>500</v>
       </c>
     </row>
     <row r="78">
@@ -17142,7 +18296,7 @@
         <v>337</v>
       </c>
       <c r="U78" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79">
@@ -17150,7 +18304,7 @@
         <v>275</v>
       </c>
       <c r="U79" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80">
@@ -17158,7 +18312,7 @@
         <v>286</v>
       </c>
       <c r="U80" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81">
@@ -17166,7 +18320,7 @@
         <v>292</v>
       </c>
       <c r="U81" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82">
@@ -17174,7 +18328,7 @@
         <v>281</v>
       </c>
       <c r="U82" t="s">
-        <v>474</v>
+        <v>208</v>
       </c>
     </row>
     <row r="83">
@@ -17182,7 +18336,7 @@
         <v>276</v>
       </c>
       <c r="U83" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="84">
@@ -17190,7 +18344,7 @@
         <v>293</v>
       </c>
       <c r="U84" t="s">
-        <v>209</v>
+        <v>482</v>
       </c>
     </row>
     <row r="85">
@@ -17198,7 +18352,7 @@
         <v>277</v>
       </c>
       <c r="U85" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="86">
@@ -17206,7 +18360,7 @@
         <v>278</v>
       </c>
       <c r="U86" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="87">
@@ -17214,7 +18368,7 @@
         <v>310</v>
       </c>
       <c r="U87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="88">
@@ -17222,7 +18376,7 @@
         <v>316</v>
       </c>
       <c r="U88" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="89">
@@ -17230,7 +18384,7 @@
         <v>300</v>
       </c>
       <c r="U89" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90">
@@ -17238,7 +18392,7 @@
         <v>345</v>
       </c>
       <c r="U90" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
     </row>
     <row r="91">
@@ -17246,7 +18400,7 @@
         <v>282</v>
       </c>
       <c r="U91" t="s">
-        <v>390</v>
+        <v>153</v>
       </c>
     </row>
     <row r="92">
@@ -17254,116 +18408,121 @@
         <v>283</v>
       </c>
       <c r="U92" t="s">
-        <v>154</v>
+        <v>390</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>489</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>167</v>
+        <v>489</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>171</v>
+        <v>49</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="U115" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -37,7 +37,7 @@
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$115</definedName>
+    <definedName name="web">'#system'!$U$2:$U$116</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12899" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13363" uniqueCount="502">
   <si>
     <t>jira</t>
   </si>
@@ -1564,6 +1564,9 @@
   </si>
   <si>
     <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
+  </si>
+  <si>
+    <t>openHttpBasic(url,username,password)</t>
   </si>
 </sst>
 </file>
@@ -1571,7 +1574,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="404" x14ac:knownFonts="1">
+  <fonts count="419" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4118,8 +4121,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="706">
+  <fills count="733">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8116,8 +8213,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="715">
+  <borders count="743">
     <border>
       <left/>
       <right/>
@@ -9767,6 +10017,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -15266,7 +15798,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="430">
+  <cellXfs count="445">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16529,49 +17061,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="388" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="681" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="694" fillId="681" fontId="389" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="390" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="684" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="684" fontId="391" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="687" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="687" fontId="392" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="393" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="394" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="394" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="395" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="396" fillId="693" borderId="706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="706" fillId="693" fontId="396" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="397" fillId="696" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="710" fillId="696" fontId="397" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="699" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="714" fillId="699" fontId="398" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="399" fillId="699" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="714" fillId="699" fontId="399" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="400" fillId="702" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="702" fontId="400" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="401" fillId="705" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="705" fontId="401" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="402" fillId="702" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="702" fontId="402" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="403" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="708" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="711" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="714" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="720" borderId="734" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="723" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="726" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="726" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="729" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="732" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="729" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16896,7 +17473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -18232,7 +18809,7 @@
         <v>309</v>
       </c>
       <c r="U70" t="s">
-        <v>146</v>
+        <v>501</v>
       </c>
     </row>
     <row r="71">
@@ -18240,7 +18817,7 @@
         <v>453</v>
       </c>
       <c r="U71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72">
@@ -18248,7 +18825,7 @@
         <v>267</v>
       </c>
       <c r="U72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73">
@@ -18256,7 +18833,7 @@
         <v>349</v>
       </c>
       <c r="U73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74">
@@ -18264,7 +18841,7 @@
         <v>285</v>
       </c>
       <c r="U74" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75">
@@ -18272,7 +18849,7 @@
         <v>291</v>
       </c>
       <c r="U75" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76">
@@ -18280,7 +18857,7 @@
         <v>296</v>
       </c>
       <c r="U76" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77">
@@ -18288,7 +18865,7 @@
         <v>460</v>
       </c>
       <c r="U77" t="s">
-        <v>500</v>
+        <v>205</v>
       </c>
     </row>
     <row r="78">
@@ -18296,7 +18873,7 @@
         <v>337</v>
       </c>
       <c r="U78" t="s">
-        <v>206</v>
+        <v>500</v>
       </c>
     </row>
     <row r="79">
@@ -18304,7 +18881,7 @@
         <v>275</v>
       </c>
       <c r="U79" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80">
@@ -18312,7 +18889,7 @@
         <v>286</v>
       </c>
       <c r="U80" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81">
@@ -18320,7 +18897,7 @@
         <v>292</v>
       </c>
       <c r="U81" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82">
@@ -18328,7 +18905,7 @@
         <v>281</v>
       </c>
       <c r="U82" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83">
@@ -18336,7 +18913,7 @@
         <v>276</v>
       </c>
       <c r="U83" t="s">
-        <v>474</v>
+        <v>208</v>
       </c>
     </row>
     <row r="84">
@@ -18344,7 +18921,7 @@
         <v>293</v>
       </c>
       <c r="U84" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="85">
@@ -18352,7 +18929,7 @@
         <v>277</v>
       </c>
       <c r="U85" t="s">
-        <v>209</v>
+        <v>482</v>
       </c>
     </row>
     <row r="86">
@@ -18360,7 +18937,7 @@
         <v>278</v>
       </c>
       <c r="U86" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="87">
@@ -18368,7 +18945,7 @@
         <v>310</v>
       </c>
       <c r="U87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="88">
@@ -18376,7 +18953,7 @@
         <v>316</v>
       </c>
       <c r="U88" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="89">
@@ -18384,7 +18961,7 @@
         <v>300</v>
       </c>
       <c r="U89" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="90">
@@ -18392,7 +18969,7 @@
         <v>345</v>
       </c>
       <c r="U90" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="91">
@@ -18400,7 +18977,7 @@
         <v>282</v>
       </c>
       <c r="U91" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
     </row>
     <row r="92">
@@ -18408,121 +18985,126 @@
         <v>283</v>
       </c>
       <c r="U92" t="s">
-        <v>390</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>154</v>
+        <v>390</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>489</v>
+        <v>166</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>167</v>
+        <v>489</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>171</v>
+        <v>49</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="U116" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -22,7 +22,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13363" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13828" uniqueCount="503">
   <si>
     <t>jira</t>
   </si>
@@ -1567,6 +1567,9 @@
   </si>
   <si>
     <t>openHttpBasic(url,username,password)</t>
+  </si>
+  <si>
+    <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
 </sst>
 </file>
@@ -1574,7 +1577,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="419" x14ac:knownFonts="1">
+  <fonts count="434" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4215,8 +4218,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="733">
+  <fills count="760">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8366,8 +8463,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="743">
+  <borders count="771">
     <border>
       <left/>
       <right/>
@@ -10017,6 +10267,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -15798,7 +16330,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="445">
+  <cellXfs count="460">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17106,49 +17638,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="403" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="708" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="708" fontId="404" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="405" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="711" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="726" fillId="711" fontId="406" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="407" fillId="714" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="714" fontId="407" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="408" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="409" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="409" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="410" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="411" fillId="720" borderId="734" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="734" fillId="720" fontId="411" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="412" fillId="723" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="723" fontId="412" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="413" fillId="726" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="742" fillId="726" fontId="413" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="414" fillId="726" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="742" fillId="726" fontId="414" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="415" fillId="729" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="729" fontId="415" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="416" fillId="732" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="732" fontId="416" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="417" fillId="729" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="729" fontId="417" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="418" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="418" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="735" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="738" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="741" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="744" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="747" borderId="762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="750" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="753" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="753" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="756" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="759" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="756" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17806,7 +18383,7 @@
         <v>341</v>
       </c>
       <c r="F5" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="H5" t="s">
         <v>353</v>
@@ -17868,7 +18445,7 @@
         <v>395</v>
       </c>
       <c r="F6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I6" t="s">
         <v>18</v>
@@ -17924,7 +18501,7 @@
         <v>373</v>
       </c>
       <c r="F7" t="s">
-        <v>333</v>
+        <v>493</v>
       </c>
       <c r="I7" t="s">
         <v>83</v>
@@ -17980,7 +18557,7 @@
         <v>374</v>
       </c>
       <c r="F8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I8" t="s">
         <v>40</v>
@@ -18033,7 +18610,7 @@
         <v>311</v>
       </c>
       <c r="F9" t="s">
-        <v>498</v>
+        <v>334</v>
       </c>
       <c r="I9" t="s">
         <v>397</v>
@@ -18074,7 +18651,7 @@
         <v>357</v>
       </c>
       <c r="F10" t="s">
-        <v>327</v>
+        <v>498</v>
       </c>
       <c r="I10" t="s">
         <v>19</v>
@@ -18112,7 +18689,7 @@
         <v>279</v>
       </c>
       <c r="F11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I11" t="s">
         <v>44</v>
@@ -18147,7 +18724,7 @@
         <v>268</v>
       </c>
       <c r="F12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I12" t="s">
         <v>84</v>
@@ -18179,7 +18756,7 @@
         <v>321</v>
       </c>
       <c r="F13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I13" t="s">
         <v>85</v>
@@ -18209,6 +18786,9 @@
       </c>
       <c r="E14" t="s">
         <v>269</v>
+      </c>
+      <c r="F14" t="s">
+        <v>330</v>
       </c>
       <c r="I14" t="s">
         <v>86</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -25,7 +25,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$22</definedName>
+    <definedName name="io">'#system'!$I$2:$I$23</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13828" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14294" uniqueCount="504">
   <si>
     <t>jira</t>
   </si>
@@ -1570,6 +1570,9 @@
   </si>
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
+  </si>
+  <si>
+    <t>rename(target,newName)</t>
   </si>
 </sst>
 </file>
@@ -1577,7 +1580,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="434" x14ac:knownFonts="1">
+  <fonts count="449" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4312,8 +4315,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="760">
+  <fills count="787">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8616,8 +8713,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="771">
+  <borders count="799">
     <border>
       <left/>
       <right/>
@@ -10267,6 +10517,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -16330,7 +16862,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="460">
+  <cellXfs count="475">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17683,49 +18215,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="418" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="419" fillId="735" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="750" fillId="735" fontId="419" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="420" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="420" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="421" fillId="738" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="738" fontId="421" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="422" fillId="741" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="741" fontId="422" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="423" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="424" fillId="744" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="424" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="425" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="426" fillId="747" borderId="762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="762" fillId="747" fontId="426" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="427" fillId="750" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="766" fillId="750" fontId="427" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="428" fillId="753" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="770" fillId="753" fontId="428" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="429" fillId="753" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="770" fillId="753" fontId="429" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="430" fillId="756" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="756" fontId="430" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="431" fillId="759" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="759" fontId="431" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="432" fillId="756" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="756" fontId="432" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="433" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="762" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="765" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="768" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="774" borderId="790" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="777" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="780" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="780" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="783" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="786" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="783" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18791,7 +19368,7 @@
         <v>330</v>
       </c>
       <c r="I14" t="s">
-        <v>86</v>
+        <v>503</v>
       </c>
       <c r="K14" t="s">
         <v>45</v>
@@ -18820,7 +19397,7 @@
         <v>270</v>
       </c>
       <c r="I15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M15" t="s">
         <v>99</v>
@@ -18846,7 +19423,7 @@
         <v>322</v>
       </c>
       <c r="I16" t="s">
-        <v>387</v>
+        <v>87</v>
       </c>
       <c r="N16" t="s">
         <v>257</v>
@@ -18869,7 +19446,7 @@
         <v>92</v>
       </c>
       <c r="I17" t="s">
-        <v>46</v>
+        <v>387</v>
       </c>
       <c r="U17" t="s">
         <v>108</v>
@@ -18886,7 +19463,7 @@
         <v>93</v>
       </c>
       <c r="I18" t="s">
-        <v>433</v>
+        <v>46</v>
       </c>
       <c r="U18" t="s">
         <v>109</v>
@@ -18903,7 +19480,7 @@
         <v>301</v>
       </c>
       <c r="I19" t="s">
-        <v>88</v>
+        <v>433</v>
       </c>
       <c r="U19" t="s">
         <v>110</v>
@@ -18920,7 +19497,7 @@
         <v>302</v>
       </c>
       <c r="I20" t="s">
-        <v>485</v>
+        <v>88</v>
       </c>
       <c r="U20" t="s">
         <v>111</v>
@@ -18937,7 +19514,7 @@
         <v>303</v>
       </c>
       <c r="I21" t="s">
-        <v>47</v>
+        <v>485</v>
       </c>
       <c r="U21" t="s">
         <v>112</v>
@@ -18954,7 +19531,7 @@
         <v>304</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U22" t="s">
         <v>113</v>
@@ -18969,6 +19546,9 @@
       </c>
       <c r="E23" t="s">
         <v>295</v>
+      </c>
+      <c r="I23" t="s">
+        <v>48</v>
       </c>
       <c r="U23" t="s">
         <v>114</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$34</definedName>
+    <definedName name="base">'#system'!$C$2:$C$36</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14294" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14762" uniqueCount="506">
   <si>
     <t>jira</t>
   </si>
@@ -1573,6 +1573,12 @@
   </si>
   <si>
     <t>rename(target,newName)</t>
+  </si>
+  <si>
+    <t>assertArrayContain(array,expected)</t>
+  </si>
+  <si>
+    <t>assertArrayNotContain(array,unexpected)</t>
   </si>
 </sst>
 </file>
@@ -1580,7 +1586,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="449" x14ac:knownFonts="1">
+  <fonts count="464" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4409,8 +4415,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="787">
+  <fills count="814">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8866,8 +8966,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="799">
+  <borders count="827">
     <border>
       <left/>
       <right/>
@@ -10517,6 +10770,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -16862,7 +17397,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="475">
+  <cellXfs count="490">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18260,49 +18795,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="433" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="434" fillId="762" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="778" fillId="762" fontId="434" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="435" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="436" fillId="765" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="782" fillId="765" fontId="436" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="437" fillId="768" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="768" fontId="437" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="438" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="438" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="439" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="439" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="440" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="441" fillId="774" borderId="790" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="790" fillId="774" fontId="441" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="442" fillId="777" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="794" fillId="777" fontId="442" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="443" fillId="780" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="798" fillId="780" fontId="443" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="444" fillId="780" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="798" fillId="780" fontId="444" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="445" fillId="783" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="783" fontId="445" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="446" fillId="786" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="786" fontId="446" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="447" fillId="783" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="783" fontId="447" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="448" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="789" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="792" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="795" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="801" borderId="818" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="804" borderId="822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="807" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="807" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="810" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="461" fillId="813" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="810" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18806,7 +19386,7 @@
         <v>380</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>504</v>
       </c>
       <c r="D3" t="s">
         <v>372</v>
@@ -18880,7 +19460,7 @@
         <v>381</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>76</v>
@@ -18951,7 +19531,7 @@
         <v>382</v>
       </c>
       <c r="C5" t="s">
-        <v>229</v>
+        <v>505</v>
       </c>
       <c r="D5" t="s">
         <v>484</v>
@@ -19016,7 +19596,7 @@
         <v>383</v>
       </c>
       <c r="C6" t="s">
-        <v>323</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
         <v>395</v>
@@ -19072,7 +19652,7 @@
         <v>384</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>229</v>
       </c>
       <c r="E7" t="s">
         <v>373</v>
@@ -19128,7 +19708,7 @@
         <v>385</v>
       </c>
       <c r="C8" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E8" t="s">
         <v>374</v>
@@ -19181,7 +19761,7 @@
         <v>386</v>
       </c>
       <c r="C9" t="s">
-        <v>260</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
         <v>311</v>
@@ -19222,7 +19802,7 @@
         <v>338</v>
       </c>
       <c r="C10" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E10" t="s">
         <v>357</v>
@@ -19260,7 +19840,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>346</v>
+        <v>260</v>
       </c>
       <c r="E11" t="s">
         <v>279</v>
@@ -19295,7 +19875,7 @@
         <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>324</v>
       </c>
       <c r="E12" t="s">
         <v>268</v>
@@ -19327,7 +19907,7 @@
         <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>346</v>
       </c>
       <c r="E13" t="s">
         <v>321</v>
@@ -19359,7 +19939,7 @@
         <v>244</v>
       </c>
       <c r="C14" t="s">
-        <v>392</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
         <v>269</v>
@@ -19391,7 +19971,7 @@
         <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>393</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
         <v>270</v>
@@ -19417,7 +19997,7 @@
         <v>442</v>
       </c>
       <c r="C16" t="s">
-        <v>458</v>
+        <v>392</v>
       </c>
       <c r="E16" t="s">
         <v>322</v>
@@ -19440,7 +20020,7 @@
         <v>455</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>393</v>
       </c>
       <c r="E17" t="s">
         <v>92</v>
@@ -19457,7 +20037,7 @@
         <v>456</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>458</v>
       </c>
       <c r="E18" t="s">
         <v>93</v>
@@ -19474,7 +20054,7 @@
         <v>364</v>
       </c>
       <c r="C19" t="s">
-        <v>261</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
         <v>301</v>
@@ -19491,7 +20071,7 @@
         <v>438</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
         <v>302</v>
@@ -19508,7 +20088,7 @@
         <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>326</v>
+        <v>261</v>
       </c>
       <c r="E21" t="s">
         <v>303</v>
@@ -19525,7 +20105,7 @@
         <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
         <v>304</v>
@@ -19542,7 +20122,7 @@
         <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>495</v>
+        <v>326</v>
       </c>
       <c r="E23" t="s">
         <v>295</v>
@@ -19559,7 +20139,7 @@
         <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>230</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
         <v>284</v>
@@ -19573,7 +20153,7 @@
         <v>457</v>
       </c>
       <c r="C25" t="s">
-        <v>231</v>
+        <v>495</v>
       </c>
       <c r="E25" t="s">
         <v>79</v>
@@ -19587,7 +20167,7 @@
         <v>232</v>
       </c>
       <c r="C26" t="s">
-        <v>459</v>
+        <v>230</v>
       </c>
       <c r="E26" t="s">
         <v>287</v>
@@ -19598,7 +20178,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>67</v>
+        <v>231</v>
       </c>
       <c r="E27" t="s">
         <v>271</v>
@@ -19609,7 +20189,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>68</v>
+        <v>459</v>
       </c>
       <c r="E28" t="s">
         <v>288</v>
@@ -19620,7 +20200,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
         <v>289</v>
@@ -19631,7 +20211,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
         <v>221</v>
@@ -19642,7 +20222,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
         <v>280</v>
@@ -19653,7 +20233,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
         <v>290</v>
@@ -19664,7 +20244,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
         <v>265</v>
@@ -19675,7 +20255,7 @@
     </row>
     <row r="34">
       <c r="C34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E34" t="s">
         <v>335</v>
@@ -19685,6 +20265,9 @@
       </c>
     </row>
     <row r="35">
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
       <c r="E35" t="s">
         <v>312</v>
       </c>
@@ -19693,6 +20276,9 @@
       </c>
     </row>
     <row r="36">
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
       <c r="E36" t="s">
         <v>266</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -37,7 +37,7 @@
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14762" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15231" uniqueCount="507">
   <si>
     <t>jira</t>
   </si>
@@ -1579,6 +1579,9 @@
   </si>
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
+  </si>
+  <si>
+    <t>deselect(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1586,7 +1589,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="464" x14ac:knownFonts="1">
+  <fonts count="479" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4509,8 +4512,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="814">
+  <fills count="841">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9119,8 +9216,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="827">
+  <borders count="855">
     <border>
       <left/>
       <right/>
@@ -10770,6 +11020,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -17397,7 +17929,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="490">
+  <cellXfs count="505">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18840,49 +19372,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="448" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="449" fillId="789" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="806" fillId="789" fontId="449" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="450" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="451" fillId="792" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="810" fillId="792" fontId="451" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="452" fillId="795" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="795" fontId="452" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="453" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="453" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="454" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="454" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="455" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="455" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="456" fillId="801" borderId="818" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="818" fillId="801" fontId="456" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="457" fillId="804" borderId="822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="822" fillId="804" fontId="457" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="458" fillId="807" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="826" fillId="807" fontId="458" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="459" fillId="807" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="826" fillId="807" fontId="459" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="460" fillId="810" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="810" fontId="460" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="461" fillId="813" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="813" fontId="461" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="462" fillId="810" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="810" fontId="462" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="463" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="816" borderId="834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="819" borderId="838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="467" fillId="822" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="828" borderId="846" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="831" borderId="850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="834" borderId="854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="834" borderId="854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="837" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="840" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="837" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -19207,7 +19784,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -20419,7 +20996,7 @@
         <v>273</v>
       </c>
       <c r="U53" t="s">
-        <v>135</v>
+        <v>506</v>
       </c>
     </row>
     <row r="54">
@@ -20427,7 +21004,7 @@
         <v>297</v>
       </c>
       <c r="U54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55">
@@ -20435,7 +21012,7 @@
         <v>298</v>
       </c>
       <c r="U55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56">
@@ -20443,7 +21020,7 @@
         <v>299</v>
       </c>
       <c r="U56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57">
@@ -20451,7 +21028,7 @@
         <v>308</v>
       </c>
       <c r="U57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58">
@@ -20459,7 +21036,7 @@
         <v>317</v>
       </c>
       <c r="U58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59">
@@ -20467,7 +21044,7 @@
         <v>342</v>
       </c>
       <c r="U59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60">
@@ -20475,7 +21052,7 @@
         <v>314</v>
       </c>
       <c r="U60" t="s">
-        <v>483</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61">
@@ -20483,7 +21060,7 @@
         <v>315</v>
       </c>
       <c r="U61" t="s">
-        <v>219</v>
+        <v>483</v>
       </c>
     </row>
     <row r="62">
@@ -20491,7 +21068,7 @@
         <v>376</v>
       </c>
       <c r="U62" t="s">
-        <v>396</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63">
@@ -20499,7 +21076,7 @@
         <v>377</v>
       </c>
       <c r="U63" t="s">
-        <v>488</v>
+        <v>396</v>
       </c>
     </row>
     <row r="64">
@@ -20507,7 +21084,7 @@
         <v>350</v>
       </c>
       <c r="U64" t="s">
-        <v>142</v>
+        <v>488</v>
       </c>
     </row>
     <row r="65">
@@ -20515,7 +21092,7 @@
         <v>318</v>
       </c>
       <c r="U65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66">
@@ -20523,7 +21100,7 @@
         <v>274</v>
       </c>
       <c r="U66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67">
@@ -20531,7 +21108,7 @@
         <v>358</v>
       </c>
       <c r="U67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68">
@@ -20539,7 +21116,7 @@
         <v>319</v>
       </c>
       <c r="U68" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69">
@@ -20547,7 +21124,7 @@
         <v>452</v>
       </c>
       <c r="U69" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70">
@@ -20555,7 +21132,7 @@
         <v>309</v>
       </c>
       <c r="U70" t="s">
-        <v>501</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71">
@@ -20563,7 +21140,7 @@
         <v>453</v>
       </c>
       <c r="U71" t="s">
-        <v>146</v>
+        <v>501</v>
       </c>
     </row>
     <row r="72">
@@ -20571,7 +21148,7 @@
         <v>267</v>
       </c>
       <c r="U72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73">
@@ -20579,7 +21156,7 @@
         <v>349</v>
       </c>
       <c r="U73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74">
@@ -20587,7 +21164,7 @@
         <v>285</v>
       </c>
       <c r="U74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75">
@@ -20595,7 +21172,7 @@
         <v>291</v>
       </c>
       <c r="U75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76">
@@ -20603,7 +21180,7 @@
         <v>296</v>
       </c>
       <c r="U76" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77">
@@ -20611,7 +21188,7 @@
         <v>460</v>
       </c>
       <c r="U77" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78">
@@ -20619,7 +21196,7 @@
         <v>337</v>
       </c>
       <c r="U78" t="s">
-        <v>500</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79">
@@ -20627,7 +21204,7 @@
         <v>275</v>
       </c>
       <c r="U79" t="s">
-        <v>206</v>
+        <v>500</v>
       </c>
     </row>
     <row r="80">
@@ -20635,7 +21212,7 @@
         <v>286</v>
       </c>
       <c r="U80" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="81">
@@ -20643,7 +21220,7 @@
         <v>292</v>
       </c>
       <c r="U81" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82">
@@ -20651,7 +21228,7 @@
         <v>281</v>
       </c>
       <c r="U82" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83">
@@ -20659,7 +21236,7 @@
         <v>276</v>
       </c>
       <c r="U83" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84">
@@ -20667,7 +21244,7 @@
         <v>293</v>
       </c>
       <c r="U84" t="s">
-        <v>474</v>
+        <v>208</v>
       </c>
     </row>
     <row r="85">
@@ -20675,7 +21252,7 @@
         <v>277</v>
       </c>
       <c r="U85" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="86">
@@ -20683,7 +21260,7 @@
         <v>278</v>
       </c>
       <c r="U86" t="s">
-        <v>209</v>
+        <v>482</v>
       </c>
     </row>
     <row r="87">
@@ -20691,7 +21268,7 @@
         <v>310</v>
       </c>
       <c r="U87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="88">
@@ -20699,7 +21276,7 @@
         <v>316</v>
       </c>
       <c r="U88" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="89">
@@ -20707,7 +21284,7 @@
         <v>300</v>
       </c>
       <c r="U89" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90">
@@ -20715,7 +21292,7 @@
         <v>345</v>
       </c>
       <c r="U90" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="91">
@@ -20723,7 +21300,7 @@
         <v>282</v>
       </c>
       <c r="U91" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="92">
@@ -20731,126 +21308,131 @@
         <v>283</v>
       </c>
       <c r="U92" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>390</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>154</v>
+        <v>390</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>489</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>167</v>
+        <v>489</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>171</v>
+        <v>49</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="116">
       <c r="U116" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="U117" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15231" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15700" uniqueCount="507">
   <si>
     <t>jira</t>
   </si>
@@ -1589,7 +1589,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="479" x14ac:knownFonts="1">
+  <fonts count="494" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4606,8 +4606,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="841">
+  <fills count="868">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9369,8 +9463,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="855">
+  <borders count="883">
     <border>
       <left/>
       <right/>
@@ -11020,6 +11267,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -17929,7 +18458,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="505">
+  <cellXfs count="520">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -19417,49 +19946,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="463" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="464" fillId="816" borderId="834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="834" fillId="816" fontId="464" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="465" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="466" fillId="819" borderId="838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="838" fillId="819" fontId="466" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="467" fillId="822" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="822" fontId="467" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="468" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="468" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="469" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="469" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="470" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="471" fillId="828" borderId="846" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="472" fillId="831" borderId="850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="473" fillId="834" borderId="854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="474" fillId="834" borderId="854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="475" fillId="837" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="476" fillId="840" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="477" fillId="837" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="470" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="846" fillId="828" fontId="471" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="850" fillId="831" fontId="472" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="854" fillId="834" fontId="473" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="854" fillId="834" fontId="474" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="837" fontId="475" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="840" fontId="476" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="837" fontId="477" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="478" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="843" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="846" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="849" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="855" borderId="874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="858" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="861" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="861" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="864" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="867" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="864" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -17,36 +17,37 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$36</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
+    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
-    <definedName name="external">'#system'!$G$2:$G$3</definedName>
-    <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
-    <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$14</definedName>
-    <definedName name="mail">'#system'!$L$2:$L$2</definedName>
+    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
+    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
+    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
+    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$15</definedName>
-    <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
-    <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$117</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
-    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
-    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
-    <definedName name="step">'#system'!$T$2:$T$4</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="number">'#system'!$N$2:$N$15</definedName>
+    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
+    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
+    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
+    <definedName name="target">'#system'!$A$2:$A$27</definedName>
+    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
+    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
+    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="step">'#system'!$U$2:$U$4</definedName>
+    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
+    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
+    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
+    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15700" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16175" uniqueCount="512">
   <si>
     <t>jira</t>
   </si>
@@ -1582,6 +1583,21 @@
   </si>
   <si>
     <t>deselect(locator,text)</t>
+  </si>
+  <si>
+    <t>aws.ses</t>
+  </si>
+  <si>
+    <t>sendMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendTextMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
   </si>
 </sst>
 </file>
@@ -1589,7 +1605,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="494" x14ac:knownFonts="1">
+  <fonts count="510" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4700,8 +4716,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="868">
+  <fills count="895">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9616,8 +9733,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="883">
+  <borders count="911">
     <border>
       <left/>
       <right/>
@@ -11267,6 +11537,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -18458,7 +19010,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="520">
+  <cellXfs count="536">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -19991,49 +20543,97 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="478" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="479" fillId="843" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="862" fillId="843" fontId="479" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="480" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="481" fillId="846" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="866" fillId="846" fontId="481" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="482" fillId="849" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="849" fontId="482" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="483" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="483" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="484" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="852" fontId="484" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="485" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="486" fillId="855" borderId="874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="487" fillId="858" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="488" fillId="861" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="489" fillId="861" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="490" fillId="864" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="491" fillId="867" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="492" fillId="864" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="493" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="485" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="874" fillId="855" fontId="486" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="878" fillId="858" fontId="487" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="882" fillId="861" fontId="488" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="882" fillId="861" fontId="489" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="864" fontId="490" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="867" fontId="491" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="864" fontId="492" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="493" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="870" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="873" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="876" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="879" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="882" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="885" borderId="902" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="888" borderId="906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="891" borderId="910" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="891" borderId="910" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="894" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20358,7 +20958,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AB117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -20377,75 +20977,78 @@
         <v>378</v>
       </c>
       <c r="C1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>352</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>338</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>200</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>55</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>244</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>56</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>442</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>455</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>456</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>364</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>438</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>57</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>58</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>59</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>60</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>457</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>232</v>
       </c>
     </row>
@@ -20457,1556 +21060,1571 @@
         <v>379</v>
       </c>
       <c r="C2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2" t="s">
         <v>61</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>75</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>77</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>496</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>82</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>354</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>320</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>391</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>461</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>462</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>463</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>258</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>222</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>443</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>467</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>468</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>388</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>439</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>100</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>175</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>180</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>187</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>476</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>507</v>
       </c>
       <c r="B3" t="s">
         <v>380</v>
       </c>
       <c r="C3" t="s">
+        <v>509</v>
+      </c>
+      <c r="D3" t="s">
         <v>504</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>372</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>91</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>52</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>30</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>355</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>346</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>339</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>89</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>464</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>245</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>223</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>444</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>469</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>389</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>440</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>101</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>176</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>181</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>371</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>188</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>381</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>76</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>394</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>497</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>356</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>243</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>340</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>27</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>28</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>246</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>224</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>445</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>470</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>365</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>441</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>359</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>177</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>182</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>188</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>477</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
         <v>382</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>505</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>484</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>341</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>502</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>353</v>
       </c>
-      <c r="I5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
+        <v>510</v>
+      </c>
+      <c r="L5" t="s">
         <v>90</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>32</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>247</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>225</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>446</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>471</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>366</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>360</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>178</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>183</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>189</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>478</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>383</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>395</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>494</v>
       </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
         <v>31</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>33</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>248</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>399</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>447</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>368</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>102</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>490</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>184</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>190</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>479</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>384</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>229</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>373</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>493</v>
       </c>
-      <c r="I7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
         <v>320</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>35</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>249</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>466</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>448</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>367</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>103</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>491</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>185</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>191</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>480</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>352</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>385</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>323</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>374</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>333</v>
       </c>
-      <c r="I8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" t="s">
         <v>36</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>94</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>250</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>449</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>369</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>104</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>179</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>186</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>192</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>481</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>352</v>
       </c>
       <c r="B9" t="s">
         <v>386</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>311</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>334</v>
       </c>
-      <c r="I9" t="s">
-        <v>397</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" t="s">
         <v>37</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>95</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>251</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>450</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>370</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>214</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>193</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>338</v>
-      </c>
-      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
         <v>320</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>357</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>498</v>
       </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" t="s">
+        <v>397</v>
+      </c>
+      <c r="L10" t="s">
         <v>38</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>465</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>252</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>451</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>262</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>194</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
+        <v>338</v>
+      </c>
+      <c r="D11" t="s">
         <v>260</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>279</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>327</v>
       </c>
-      <c r="I11" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" t="s">
         <v>486</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>96</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>253</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>263</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>264</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>324</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>268</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>328</v>
       </c>
-      <c r="I12" t="s">
-        <v>84</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" t="s">
         <v>41</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>43</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>254</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>105</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" t="s">
         <v>346</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>321</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>329</v>
       </c>
-      <c r="I13" t="s">
-        <v>85</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" t="s">
         <v>42</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>97</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>259</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>331</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>244</v>
-      </c>
-      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
         <v>39</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>269</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>330</v>
       </c>
-      <c r="I14" t="s">
-        <v>503</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="J14" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" t="s">
         <v>45</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>98</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>255</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>106</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" t="s">
+        <v>244</v>
+      </c>
+      <c r="D15" t="s">
         <v>62</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>270</v>
       </c>
-      <c r="I15" t="s">
-        <v>86</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="J15" t="s">
+        <v>503</v>
+      </c>
+      <c r="N15" t="s">
         <v>99</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>256</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>107</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>442</v>
-      </c>
-      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
         <v>392</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>322</v>
       </c>
-      <c r="I16" t="s">
-        <v>87</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="J16" t="s">
+        <v>86</v>
+      </c>
+      <c r="O16" t="s">
         <v>257</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>78</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>455</v>
-      </c>
-      <c r="C17" t="s">
+        <v>442</v>
+      </c>
+      <c r="D17" t="s">
         <v>393</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>92</v>
       </c>
-      <c r="I17" t="s">
-        <v>387</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="J17" t="s">
+        <v>87</v>
+      </c>
+      <c r="V17" t="s">
         <v>108</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>456</v>
-      </c>
-      <c r="C18" t="s">
+        <v>455</v>
+      </c>
+      <c r="D18" t="s">
         <v>458</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>93</v>
       </c>
-      <c r="I18" t="s">
-        <v>46</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="J18" t="s">
+        <v>387</v>
+      </c>
+      <c r="V18" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>364</v>
-      </c>
-      <c r="C19" t="s">
+        <v>456</v>
+      </c>
+      <c r="D19" t="s">
         <v>63</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>301</v>
       </c>
-      <c r="I19" t="s">
-        <v>433</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+      <c r="V19" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>438</v>
-      </c>
-      <c r="C20" t="s">
+        <v>364</v>
+      </c>
+      <c r="D20" t="s">
         <v>64</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>302</v>
       </c>
-      <c r="I20" t="s">
-        <v>88</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="J20" t="s">
+        <v>433</v>
+      </c>
+      <c r="V20" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s">
+        <v>438</v>
+      </c>
+      <c r="D21" t="s">
         <v>261</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>303</v>
       </c>
-      <c r="I21" t="s">
-        <v>485</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="J21" t="s">
+        <v>88</v>
+      </c>
+      <c r="V21" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
         <v>65</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>304</v>
       </c>
-      <c r="I22" t="s">
-        <v>47</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="J22" t="s">
+        <v>485</v>
+      </c>
+      <c r="V22" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
         <v>326</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>295</v>
       </c>
-      <c r="I23" t="s">
-        <v>48</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+      <c r="V23" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
         <v>66</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>284</v>
       </c>
-      <c r="U24" t="s">
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+      <c r="V24" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>457</v>
-      </c>
-      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
         <v>495</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>79</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>457</v>
+      </c>
+      <c r="D26" t="s">
+        <v>230</v>
+      </c>
+      <c r="F26" t="s">
+        <v>287</v>
+      </c>
+      <c r="V26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>232</v>
       </c>
-      <c r="C26" t="s">
-        <v>230</v>
-      </c>
-      <c r="E26" t="s">
-        <v>287</v>
-      </c>
-      <c r="U26" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>231</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>271</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>459</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>288</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>67</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>289</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>68</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>221</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>69</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>280</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>70</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>290</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>71</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>265</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>72</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>335</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>73</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>312</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>74</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>266</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>313</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>272</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>81</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>217</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="41">
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>294</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>305</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>306</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>348</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>347</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>216</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>325</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="48">
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>344</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="49">
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>375</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>307</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>361</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="52">
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>336</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="53">
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>273</v>
       </c>
-      <c r="U53" t="s">
+      <c r="V53" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="54">
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>297</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="55">
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>298</v>
       </c>
-      <c r="U55" t="s">
+      <c r="V55" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="56">
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>299</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="57">
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>308</v>
       </c>
-      <c r="U57" t="s">
+      <c r="V57" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="58">
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>317</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="59">
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>342</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="60">
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>314</v>
       </c>
-      <c r="U60" t="s">
+      <c r="V60" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="61">
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>315</v>
       </c>
-      <c r="U61" t="s">
+      <c r="V61" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="62">
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>376</v>
       </c>
-      <c r="U62" t="s">
+      <c r="V62" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="63">
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>377</v>
       </c>
-      <c r="U63" t="s">
+      <c r="V63" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="64">
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>350</v>
       </c>
-      <c r="U64" t="s">
+      <c r="V64" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="65">
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>318</v>
       </c>
-      <c r="U65" t="s">
+      <c r="V65" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="66">
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>274</v>
       </c>
-      <c r="U66" t="s">
+      <c r="V66" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="67">
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>358</v>
       </c>
-      <c r="U67" t="s">
+      <c r="V67" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="68">
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>319</v>
       </c>
-      <c r="U68" t="s">
+      <c r="V68" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="69">
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>452</v>
       </c>
-      <c r="U69" t="s">
+      <c r="V69" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="70">
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>309</v>
       </c>
-      <c r="U70" t="s">
+      <c r="V70" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="71">
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>453</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="72">
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>267</v>
       </c>
-      <c r="U72" t="s">
+      <c r="V72" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="73">
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>349</v>
       </c>
-      <c r="U73" t="s">
+      <c r="V73" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="74">
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>285</v>
       </c>
-      <c r="U74" t="s">
+      <c r="V74" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="75">
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>291</v>
       </c>
-      <c r="U75" t="s">
+      <c r="V75" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="76">
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>296</v>
       </c>
-      <c r="U76" t="s">
+      <c r="V76" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="77">
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>460</v>
       </c>
-      <c r="U77" t="s">
+      <c r="V77" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="78">
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>337</v>
       </c>
-      <c r="U78" t="s">
+      <c r="V78" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="79">
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>275</v>
       </c>
-      <c r="U79" t="s">
+      <c r="V79" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="80">
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>286</v>
       </c>
-      <c r="U80" t="s">
+      <c r="V80" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="81">
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>292</v>
       </c>
-      <c r="U81" t="s">
+      <c r="V81" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="82">
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>281</v>
       </c>
-      <c r="U82" t="s">
+      <c r="V82" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="83">
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>276</v>
       </c>
-      <c r="U83" t="s">
+      <c r="V83" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="84">
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>293</v>
       </c>
-      <c r="U84" t="s">
+      <c r="V84" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="85">
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>277</v>
       </c>
-      <c r="U85" t="s">
+      <c r="V85" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="86">
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>278</v>
       </c>
-      <c r="U86" t="s">
+      <c r="V86" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="87">
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>310</v>
       </c>
-      <c r="U87" t="s">
+      <c r="V87" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="88">
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>316</v>
       </c>
-      <c r="U88" t="s">
+      <c r="V88" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="89">
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>300</v>
       </c>
-      <c r="U89" t="s">
+      <c r="V89" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="90">
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>345</v>
       </c>
-      <c r="U90" t="s">
+      <c r="V90" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="91">
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>282</v>
       </c>
-      <c r="U91" t="s">
+      <c r="V91" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="92">
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>283</v>
       </c>
-      <c r="U92" t="s">
+      <c r="V92" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="93">
-      <c r="U93" t="s">
+      <c r="V93" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="94">
-      <c r="U94" t="s">
+      <c r="V94" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="95">
-      <c r="U95" t="s">
+      <c r="V95" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="96">
-      <c r="U96" t="s">
+      <c r="V96" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="97">
-      <c r="U97" t="s">
+      <c r="V97" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="98">
-      <c r="U98" t="s">
+      <c r="V98" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="99">
-      <c r="U99" t="s">
+      <c r="V99" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="100">
-      <c r="U100" t="s">
+      <c r="V100" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="101">
-      <c r="U101" t="s">
+      <c r="V101" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="102">
-      <c r="U102" t="s">
+      <c r="V102" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="103">
-      <c r="U103" t="s">
+      <c r="V103" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="104">
-      <c r="U104" t="s">
+      <c r="V104" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="105">
-      <c r="U105" t="s">
+      <c r="V105" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="106">
-      <c r="U106" t="s">
+      <c r="V106" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="107">
-      <c r="U107" t="s">
+      <c r="V107" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="108">
-      <c r="U108" t="s">
+      <c r="V108" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="109">
-      <c r="U109" t="s">
+      <c r="V109" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="110">
-      <c r="U110" t="s">
+      <c r="V110" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="111">
-      <c r="U111" t="s">
+      <c r="V111" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="112">
-      <c r="U112" t="s">
+      <c r="V112" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="113">
-      <c r="U113" t="s">
+      <c r="V113" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="114">
-      <c r="U114" t="s">
+      <c r="V114" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="115">
-      <c r="U115" t="s">
+      <c r="V115" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="116">
-      <c r="U116" t="s">
+      <c r="V116" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="117">
-      <c r="U117" t="s">
+      <c r="V117" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -37,7 +37,7 @@
     <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="web">'#system'!$V$2:$V$118</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16175" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16651" uniqueCount="514">
   <si>
     <t>jira</t>
   </si>
@@ -1598,6 +1598,12 @@
   </si>
   <si>
     <t>upload(url,body,fileParams,var)</t>
+  </si>
+  <si>
+    <t>sendHtmlMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>clickWithKeys(locator,keys)</t>
   </si>
 </sst>
 </file>
@@ -1605,7 +1611,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="510" x14ac:knownFonts="1">
+  <fonts count="526" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4817,8 +4823,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="895">
+  <fills count="922">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9886,8 +9993,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="911">
+  <borders count="939">
     <border>
       <left/>
       <right/>
@@ -11537,6 +11797,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -19010,7 +19552,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="536">
+  <cellXfs count="552">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20588,52 +21130,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="493" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="494" fillId="870" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="495" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="890" fillId="870" fontId="494" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="495" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="496" fillId="873" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="894" fillId="873" fontId="496" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="497" fillId="876" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="876" fontId="497" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="498" fillId="879" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="879" fontId="498" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="499" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="499" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="500" fillId="882" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="882" fontId="500" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="501" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="502" fillId="885" borderId="902" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="503" fillId="888" borderId="906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="504" fillId="891" borderId="910" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="505" fillId="891" borderId="910" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="506" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="507" fillId="894" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="508" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="509" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="501" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="902" fillId="885" fontId="502" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="906" fillId="888" fontId="503" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="910" fillId="891" fontId="504" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="910" fillId="891" fontId="505" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="879" fontId="506" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="894" fontId="507" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="879" fontId="508" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="509" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="897" borderId="918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="900" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="903" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="906" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="912" borderId="930" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="915" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="918" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="918" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="921" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20958,7 +21548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -21060,7 +21650,7 @@
         <v>379</v>
       </c>
       <c r="C2" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="D2" t="s">
         <v>61</v>
@@ -22172,7 +22762,7 @@
         <v>361</v>
       </c>
       <c r="V51" t="s">
-        <v>134</v>
+        <v>513</v>
       </c>
     </row>
     <row r="52">
@@ -22180,7 +22770,7 @@
         <v>336</v>
       </c>
       <c r="V52" t="s">
-        <v>351</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53">
@@ -22188,7 +22778,7 @@
         <v>273</v>
       </c>
       <c r="V53" t="s">
-        <v>506</v>
+        <v>351</v>
       </c>
     </row>
     <row r="54">
@@ -22196,7 +22786,7 @@
         <v>297</v>
       </c>
       <c r="V54" t="s">
-        <v>135</v>
+        <v>506</v>
       </c>
     </row>
     <row r="55">
@@ -22204,7 +22794,7 @@
         <v>298</v>
       </c>
       <c r="V55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56">
@@ -22212,7 +22802,7 @@
         <v>299</v>
       </c>
       <c r="V56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57">
@@ -22220,7 +22810,7 @@
         <v>308</v>
       </c>
       <c r="V57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58">
@@ -22228,7 +22818,7 @@
         <v>317</v>
       </c>
       <c r="V58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59">
@@ -22236,7 +22826,7 @@
         <v>342</v>
       </c>
       <c r="V59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60">
@@ -22244,7 +22834,7 @@
         <v>314</v>
       </c>
       <c r="V60" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61">
@@ -22252,7 +22842,7 @@
         <v>315</v>
       </c>
       <c r="V61" t="s">
-        <v>483</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62">
@@ -22260,7 +22850,7 @@
         <v>376</v>
       </c>
       <c r="V62" t="s">
-        <v>219</v>
+        <v>483</v>
       </c>
     </row>
     <row r="63">
@@ -22268,7 +22858,7 @@
         <v>377</v>
       </c>
       <c r="V63" t="s">
-        <v>396</v>
+        <v>219</v>
       </c>
     </row>
     <row r="64">
@@ -22276,7 +22866,7 @@
         <v>350</v>
       </c>
       <c r="V64" t="s">
-        <v>488</v>
+        <v>396</v>
       </c>
     </row>
     <row r="65">
@@ -22284,7 +22874,7 @@
         <v>318</v>
       </c>
       <c r="V65" t="s">
-        <v>142</v>
+        <v>488</v>
       </c>
     </row>
     <row r="66">
@@ -22292,7 +22882,7 @@
         <v>274</v>
       </c>
       <c r="V66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67">
@@ -22300,7 +22890,7 @@
         <v>358</v>
       </c>
       <c r="V67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68">
@@ -22308,7 +22898,7 @@
         <v>319</v>
       </c>
       <c r="V68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69">
@@ -22316,7 +22906,7 @@
         <v>452</v>
       </c>
       <c r="V69" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70">
@@ -22324,7 +22914,7 @@
         <v>309</v>
       </c>
       <c r="V70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71">
@@ -22332,7 +22922,7 @@
         <v>453</v>
       </c>
       <c r="V71" t="s">
-        <v>501</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72">
@@ -22340,7 +22930,7 @@
         <v>267</v>
       </c>
       <c r="V72" t="s">
-        <v>146</v>
+        <v>501</v>
       </c>
     </row>
     <row r="73">
@@ -22348,7 +22938,7 @@
         <v>349</v>
       </c>
       <c r="V73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74">
@@ -22356,7 +22946,7 @@
         <v>285</v>
       </c>
       <c r="V74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75">
@@ -22364,7 +22954,7 @@
         <v>291</v>
       </c>
       <c r="V75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76">
@@ -22372,7 +22962,7 @@
         <v>296</v>
       </c>
       <c r="V76" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77">
@@ -22380,7 +22970,7 @@
         <v>460</v>
       </c>
       <c r="V77" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78">
@@ -22388,7 +22978,7 @@
         <v>337</v>
       </c>
       <c r="V78" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79">
@@ -22396,7 +22986,7 @@
         <v>275</v>
       </c>
       <c r="V79" t="s">
-        <v>500</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80">
@@ -22404,7 +22994,7 @@
         <v>286</v>
       </c>
       <c r="V80" t="s">
-        <v>206</v>
+        <v>500</v>
       </c>
     </row>
     <row r="81">
@@ -22412,7 +23002,7 @@
         <v>292</v>
       </c>
       <c r="V81" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="82">
@@ -22420,7 +23010,7 @@
         <v>281</v>
       </c>
       <c r="V82" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83">
@@ -22428,7 +23018,7 @@
         <v>276</v>
       </c>
       <c r="V83" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
     </row>
     <row r="84">
@@ -22436,7 +23026,7 @@
         <v>293</v>
       </c>
       <c r="V84" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85">
@@ -22444,7 +23034,7 @@
         <v>277</v>
       </c>
       <c r="V85" t="s">
-        <v>474</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86">
@@ -22452,7 +23042,7 @@
         <v>278</v>
       </c>
       <c r="V86" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="87">
@@ -22460,7 +23050,7 @@
         <v>310</v>
       </c>
       <c r="V87" t="s">
-        <v>209</v>
+        <v>482</v>
       </c>
     </row>
     <row r="88">
@@ -22468,7 +23058,7 @@
         <v>316</v>
       </c>
       <c r="V88" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89">
@@ -22476,7 +23066,7 @@
         <v>300</v>
       </c>
       <c r="V89" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="90">
@@ -22484,7 +23074,7 @@
         <v>345</v>
       </c>
       <c r="V90" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="91">
@@ -22492,7 +23082,7 @@
         <v>282</v>
       </c>
       <c r="V91" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="92">
@@ -22500,131 +23090,136 @@
         <v>283</v>
       </c>
       <c r="V92" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>390</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>154</v>
+        <v>390</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>489</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>167</v>
+        <v>489</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>171</v>
+        <v>49</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="V118" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -24,7 +24,7 @@
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
-    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$24</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16651" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18083" uniqueCount="517">
   <si>
     <t>jira</t>
   </si>
@@ -1604,6 +1604,15 @@
   </si>
   <si>
     <t>clickWithKeys(locator,keys)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>saveDiff(baseline,actual,saveTo)</t>
+  </si>
+  <si>
+    <t>colorbit(source,bit,saveTo)</t>
   </si>
 </sst>
 </file>
@@ -1611,7 +1620,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="526" x14ac:knownFonts="1">
+  <fonts count="574" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4924,8 +4933,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="922">
+  <fills count="1003">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10146,8 +10458,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="939">
+  <borders count="1023">
     <border>
       <left/>
       <right/>
@@ -11797,6 +12568,852 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -19552,7 +21169,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="552">
+  <cellXfs count="600">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -21178,52 +22795,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="509" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="510" fillId="897" borderId="918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="511" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="918" fillId="897" fontId="510" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="511" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="512" fillId="900" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="922" fillId="900" fontId="512" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="513" fillId="903" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="903" fontId="513" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="514" fillId="906" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="906" fontId="514" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="515" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="515" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="516" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="909" fontId="516" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="517" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="518" fillId="912" borderId="930" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="519" fillId="915" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="520" fillId="918" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="521" fillId="918" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="522" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="523" fillId="921" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="524" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="525" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="517" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="930" fillId="912" fontId="518" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="934" fillId="915" fontId="519" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="938" fillId="918" fontId="520" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="938" fillId="918" fontId="521" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="906" fontId="522" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="921" fontId="523" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="906" fontId="524" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="525" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="946" fillId="924" fontId="526" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="527" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="950" fillId="927" fontId="528" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="954" fillId="930" fontId="529" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="954" fillId="933" fontId="530" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="531" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="936" fontId="532" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="533" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="958" fillId="939" fontId="534" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="962" fillId="942" fontId="535" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="966" fillId="945" fontId="536" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="966" fillId="945" fontId="537" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="933" fontId="538" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="948" fontId="539" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="933" fontId="540" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="541" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="974" fillId="951" fontId="542" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="543" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="978" fillId="954" fontId="544" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="982" fillId="957" fontId="545" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="982" fillId="960" fontId="546" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="547" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="963" fontId="548" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="549" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="986" fillId="966" fontId="550" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="990" fillId="969" fontId="551" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="994" fillId="972" fontId="552" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="994" fillId="972" fontId="553" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="960" fontId="554" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="975" fontId="555" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="960" fontId="556" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="557" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="558" fillId="978" borderId="1002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="559" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="981" borderId="1006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="561" fillId="984" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="987" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="563" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="564" fillId="990" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="565" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="566" fillId="993" borderId="1014" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="567" fillId="996" borderId="1018" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="568" fillId="999" borderId="1022" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="569" fillId="999" borderId="1022" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="570" fillId="987" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="571" fillId="1002" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="572" fillId="987" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="573" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -21668,7 +23429,7 @@
         <v>82</v>
       </c>
       <c r="I2" t="s">
-        <v>354</v>
+        <v>516</v>
       </c>
       <c r="J2" t="s">
         <v>320</v>
@@ -21751,7 +23512,7 @@
         <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J3" t="s">
         <v>346</v>
@@ -21822,7 +23583,7 @@
         <v>497</v>
       </c>
       <c r="I4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J4" t="s">
         <v>243</v>
@@ -21893,7 +23654,7 @@
         <v>502</v>
       </c>
       <c r="I5" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="J5" t="s">
         <v>510</v>
@@ -21953,6 +23714,9 @@
       </c>
       <c r="G6" t="s">
         <v>494</v>
+      </c>
+      <c r="I6" t="s">
+        <v>353</v>
       </c>
       <c r="J6" t="s">
         <v>75</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -25,7 +25,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -37,7 +37,7 @@
     <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="web">'#system'!$V$2:$V$119</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18083" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19522" uniqueCount="521">
   <si>
     <t>jira</t>
   </si>
@@ -1613,6 +1613,18 @@
   </si>
   <si>
     <t>colorbit(source,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>openIgnoreTimeout(url)</t>
+  </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
   </si>
 </sst>
 </file>
@@ -1620,7 +1632,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="574" x14ac:knownFonts="1">
+  <fonts count="622" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5236,8 +5248,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1003">
+  <fills count="1084">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10917,8 +11232,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1023">
+  <borders count="1107">
     <border>
       <left/>
       <right/>
@@ -12568,6 +13342,852 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -21169,7 +22789,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="600">
+  <cellXfs count="648">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22939,52 +24559,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="557" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="558" fillId="978" borderId="1002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="559" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1002" fillId="978" fontId="558" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="559" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="560" fillId="981" borderId="1006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1006" fillId="981" fontId="560" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="561" fillId="984" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1010" fillId="984" fontId="561" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="562" fillId="987" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1010" fillId="987" fontId="562" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="563" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="563" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="564" fillId="990" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="990" fontId="564" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="565" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="566" fillId="993" borderId="1014" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="567" fillId="996" borderId="1018" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="568" fillId="999" borderId="1022" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="569" fillId="999" borderId="1022" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="570" fillId="987" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="571" fillId="1002" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="572" fillId="987" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="573" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="565" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1014" fillId="993" fontId="566" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1018" fillId="996" fontId="567" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1022" fillId="999" fontId="568" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1022" fillId="999" fontId="569" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="987" fontId="570" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1002" fontId="571" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="987" fontId="572" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="573" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1030" fillId="1005" fontId="574" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="575" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1034" fillId="1008" fontId="576" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1038" fillId="1011" fontId="577" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1038" fillId="1014" fontId="578" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="579" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1017" fontId="580" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="581" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1042" fillId="1020" fontId="582" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1046" fillId="1023" fontId="583" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1050" fillId="1026" fontId="584" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1050" fillId="1026" fontId="585" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1014" fontId="586" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1029" fontId="587" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1014" fontId="588" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="589" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1058" fillId="1032" fontId="590" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="591" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1062" fillId="1035" fontId="592" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1066" fillId="1038" fontId="593" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1066" fillId="1041" fontId="594" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="595" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1044" fontId="596" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="597" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1070" fillId="1047" fontId="598" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1074" fillId="1050" fontId="599" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1078" fillId="1053" fontId="600" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1078" fillId="1053" fontId="601" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1041" fontId="602" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1056" fontId="603" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1041" fontId="604" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="605" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="606" fillId="1059" borderId="1086" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="607" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="608" fillId="1062" borderId="1090" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="609" fillId="1065" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="610" fillId="1068" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="611" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="612" fillId="1071" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="613" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="614" fillId="1074" borderId="1098" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="615" fillId="1077" borderId="1102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="616" fillId="1080" borderId="1106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="617" fillId="1080" borderId="1106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="618" fillId="1068" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="1083" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="620" fillId="1068" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="621" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -23309,7 +25073,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -24177,7 +25941,7 @@
         <v>301</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>520</v>
       </c>
       <c r="V19" t="s">
         <v>110</v>
@@ -24194,7 +25958,7 @@
         <v>302</v>
       </c>
       <c r="J20" t="s">
-        <v>433</v>
+        <v>46</v>
       </c>
       <c r="V20" t="s">
         <v>111</v>
@@ -24211,7 +25975,7 @@
         <v>303</v>
       </c>
       <c r="J21" t="s">
-        <v>88</v>
+        <v>433</v>
       </c>
       <c r="V21" t="s">
         <v>112</v>
@@ -24228,7 +25992,7 @@
         <v>304</v>
       </c>
       <c r="J22" t="s">
-        <v>485</v>
+        <v>88</v>
       </c>
       <c r="V22" t="s">
         <v>113</v>
@@ -24245,7 +26009,7 @@
         <v>295</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>485</v>
       </c>
       <c r="V23" t="s">
         <v>114</v>
@@ -24262,7 +26026,7 @@
         <v>284</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V24" t="s">
         <v>115</v>
@@ -24278,6 +26042,9 @@
       <c r="F25" t="s">
         <v>79</v>
       </c>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
       <c r="V25" t="s">
         <v>116</v>
       </c>
@@ -24312,7 +26079,7 @@
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>459</v>
+        <v>518</v>
       </c>
       <c r="F28" t="s">
         <v>288</v>
@@ -24323,7 +26090,7 @@
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>67</v>
+        <v>519</v>
       </c>
       <c r="F29" t="s">
         <v>289</v>
@@ -24334,7 +26101,7 @@
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>68</v>
+        <v>459</v>
       </c>
       <c r="F30" t="s">
         <v>221</v>
@@ -24345,7 +26112,7 @@
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F31" t="s">
         <v>280</v>
@@ -24356,7 +26123,7 @@
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F32" t="s">
         <v>290</v>
@@ -24367,7 +26134,7 @@
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F33" t="s">
         <v>265</v>
@@ -24378,7 +26145,7 @@
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F34" t="s">
         <v>335</v>
@@ -24389,7 +26156,7 @@
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F35" t="s">
         <v>312</v>
@@ -24400,7 +26167,7 @@
     </row>
     <row r="36">
       <c r="D36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F36" t="s">
         <v>266</v>
@@ -24410,6 +26177,9 @@
       </c>
     </row>
     <row r="37">
+      <c r="D37" t="s">
+        <v>73</v>
+      </c>
       <c r="F37" t="s">
         <v>313</v>
       </c>
@@ -24418,6 +26188,9 @@
       </c>
     </row>
     <row r="38">
+      <c r="D38" t="s">
+        <v>74</v>
+      </c>
       <c r="F38" t="s">
         <v>272</v>
       </c>
@@ -24702,7 +26475,7 @@
         <v>349</v>
       </c>
       <c r="V73" t="s">
-        <v>146</v>
+        <v>517</v>
       </c>
     </row>
     <row r="74">
@@ -24710,7 +26483,7 @@
         <v>285</v>
       </c>
       <c r="V74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75">
@@ -24718,7 +26491,7 @@
         <v>291</v>
       </c>
       <c r="V75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76">
@@ -24726,7 +26499,7 @@
         <v>296</v>
       </c>
       <c r="V76" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77">
@@ -24734,7 +26507,7 @@
         <v>460</v>
       </c>
       <c r="V77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78">
@@ -24742,7 +26515,7 @@
         <v>337</v>
       </c>
       <c r="V78" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79">
@@ -24750,7 +26523,7 @@
         <v>275</v>
       </c>
       <c r="V79" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80">
@@ -24758,7 +26531,7 @@
         <v>286</v>
       </c>
       <c r="V80" t="s">
-        <v>500</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81">
@@ -24766,7 +26539,7 @@
         <v>292</v>
       </c>
       <c r="V81" t="s">
-        <v>206</v>
+        <v>500</v>
       </c>
     </row>
     <row r="82">
@@ -24774,7 +26547,7 @@
         <v>281</v>
       </c>
       <c r="V82" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="83">
@@ -24782,7 +26555,7 @@
         <v>276</v>
       </c>
       <c r="V83" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84">
@@ -24790,7 +26563,7 @@
         <v>293</v>
       </c>
       <c r="V84" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
     </row>
     <row r="85">
@@ -24798,7 +26571,7 @@
         <v>277</v>
       </c>
       <c r="V85" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
     </row>
     <row r="86">
@@ -24806,7 +26579,7 @@
         <v>278</v>
       </c>
       <c r="V86" t="s">
-        <v>474</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87">
@@ -24814,7 +26587,7 @@
         <v>310</v>
       </c>
       <c r="V87" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="88">
@@ -24822,7 +26595,7 @@
         <v>316</v>
       </c>
       <c r="V88" t="s">
-        <v>209</v>
+        <v>482</v>
       </c>
     </row>
     <row r="89">
@@ -24830,7 +26603,7 @@
         <v>300</v>
       </c>
       <c r="V89" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90">
@@ -24838,7 +26611,7 @@
         <v>345</v>
       </c>
       <c r="V90" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="91">
@@ -24846,7 +26619,7 @@
         <v>282</v>
       </c>
       <c r="V91" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92">
@@ -24854,136 +26627,141 @@
         <v>283</v>
       </c>
       <c r="V92" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>390</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>154</v>
+        <v>390</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>489</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>167</v>
+        <v>489</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>171</v>
+        <v>49</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="V119" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -27,7 +27,7 @@
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="json">'#system'!$L$2:$L$16</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19522" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20005" uniqueCount="523">
   <si>
     <t>jira</t>
   </si>
@@ -1625,6 +1625,12 @@
   </si>
   <si>
     <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
+  <si>
+    <t>beautify(json,var)</t>
+  </si>
+  <si>
+    <t>minify(json,var)</t>
   </si>
 </sst>
 </file>
@@ -1632,7 +1638,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="622" x14ac:knownFonts="1">
+  <fonts count="638" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5551,8 +5557,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1084">
+  <fills count="1111">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11691,8 +11798,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1107">
+  <borders count="1135">
     <border>
       <left/>
       <right/>
@@ -13342,6 +13602,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -22789,7 +23331,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="648">
+  <cellXfs count="664">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -24703,52 +25245,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="605" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="606" fillId="1059" borderId="1086" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="607" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1086" fillId="1059" fontId="606" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="607" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="608" fillId="1062" borderId="1090" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1090" fillId="1062" fontId="608" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="609" fillId="1065" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1094" fillId="1065" fontId="609" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="610" fillId="1068" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1094" fillId="1068" fontId="610" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="611" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="611" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="612" fillId="1071" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1071" fontId="612" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="613" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="614" fillId="1074" borderId="1098" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="615" fillId="1077" borderId="1102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="616" fillId="1080" borderId="1106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="617" fillId="1080" borderId="1106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="618" fillId="1068" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="619" fillId="1083" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="620" fillId="1068" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="621" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="613" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1098" fillId="1074" fontId="614" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1102" fillId="1077" fontId="615" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1106" fillId="1080" fontId="616" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1106" fillId="1080" fontId="617" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1068" fontId="618" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1083" fontId="619" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1068" fontId="620" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="621" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="622" fillId="1086" borderId="1114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="623" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="624" fillId="1089" borderId="1118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="625" fillId="1092" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="626" fillId="1095" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="627" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="628" fillId="1098" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="629" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="630" fillId="1101" borderId="1126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="631" fillId="1104" borderId="1130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="632" fillId="1107" borderId="1134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="633" fillId="1107" borderId="1134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="634" fillId="1095" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="635" fillId="1110" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="636" fillId="1095" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="637" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -25730,7 +26320,7 @@
         <v>19</v>
       </c>
       <c r="L11" t="s">
-        <v>486</v>
+        <v>521</v>
       </c>
       <c r="N11" t="s">
         <v>96</v>
@@ -25765,7 +26355,7 @@
         <v>44</v>
       </c>
       <c r="L12" t="s">
-        <v>41</v>
+        <v>486</v>
       </c>
       <c r="N12" t="s">
         <v>43</v>
@@ -25797,7 +26387,7 @@
         <v>84</v>
       </c>
       <c r="L13" t="s">
-        <v>42</v>
+        <v>522</v>
       </c>
       <c r="N13" t="s">
         <v>97</v>
@@ -25829,7 +26419,7 @@
         <v>85</v>
       </c>
       <c r="L14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N14" t="s">
         <v>98</v>
@@ -25857,6 +26447,9 @@
       <c r="J15" t="s">
         <v>503</v>
       </c>
+      <c r="L15" t="s">
+        <v>42</v>
+      </c>
       <c r="N15" t="s">
         <v>99</v>
       </c>
@@ -25882,6 +26475,9 @@
       </c>
       <c r="J16" t="s">
         <v>86</v>
+      </c>
+      <c r="L16" t="s">
+        <v>45</v>
       </c>
       <c r="O16" t="s">
         <v>257</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -37,11 +37,11 @@
     <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
+    <definedName name="web">'#system'!$V$2:$V$120</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
     <definedName name="sms">'#system'!$R$2:$R$2</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20005" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20491" uniqueCount="526">
   <si>
     <t>jira</t>
   </si>
@@ -1631,6 +1631,15 @@
   </si>
   <si>
     <t>minify(json,var)</t>
+  </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +1647,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="638" x14ac:knownFonts="1">
+  <fonts count="654" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5658,8 +5667,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1111">
+  <fills count="1138">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11951,8 +12061,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1135">
+  <borders count="1163">
     <border>
       <left/>
       <right/>
@@ -13602,6 +13865,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -23331,7 +23876,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="664">
+  <cellXfs count="680">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -25293,52 +25838,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="621" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="622" fillId="1086" borderId="1114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="623" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1114" fillId="1086" fontId="622" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="623" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="624" fillId="1089" borderId="1118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1118" fillId="1089" fontId="624" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="625" fillId="1092" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1122" fillId="1092" fontId="625" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="626" fillId="1095" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1122" fillId="1095" fontId="626" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="627" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="627" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="628" fillId="1098" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1098" fontId="628" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="629" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="630" fillId="1101" borderId="1126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="631" fillId="1104" borderId="1130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="632" fillId="1107" borderId="1134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="633" fillId="1107" borderId="1134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="634" fillId="1095" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="635" fillId="1110" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="636" fillId="1095" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="637" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="629" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1126" fillId="1101" fontId="630" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1130" fillId="1104" fontId="631" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1134" fillId="1107" fontId="632" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1134" fillId="1107" fontId="633" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1095" fontId="634" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1110" fontId="635" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1095" fontId="636" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="637" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="638" fillId="1113" borderId="1142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="639" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="640" fillId="1116" borderId="1146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="641" fillId="1119" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="642" fillId="1122" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="643" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="644" fillId="1125" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="645" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="646" fillId="1128" borderId="1154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="647" fillId="1131" borderId="1158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="648" fillId="1134" borderId="1162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="649" fillId="1134" borderId="1162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="650" fillId="1122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="651" fillId="1137" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="652" fillId="1122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="653" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -25663,7 +26256,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AB120"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -26262,7 +26855,7 @@
         <v>193</v>
       </c>
       <c r="AA9" t="s">
-        <v>240</v>
+        <v>524</v>
       </c>
     </row>
     <row r="10">
@@ -26300,7 +26893,7 @@
         <v>194</v>
       </c>
       <c r="AA10" t="s">
-        <v>241</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11">
@@ -26335,7 +26928,7 @@
         <v>264</v>
       </c>
       <c r="AA11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12">
@@ -26369,6 +26962,9 @@
       <c r="Y12" t="s">
         <v>195</v>
       </c>
+      <c r="AA12" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -26401,6 +26997,9 @@
       <c r="Y13" t="s">
         <v>196</v>
       </c>
+      <c r="AA13" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -26991,7 +27590,7 @@
         <v>377</v>
       </c>
       <c r="V63" t="s">
-        <v>219</v>
+        <v>523</v>
       </c>
     </row>
     <row r="64">
@@ -26999,7 +27598,7 @@
         <v>350</v>
       </c>
       <c r="V64" t="s">
-        <v>396</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65">
@@ -27007,7 +27606,7 @@
         <v>318</v>
       </c>
       <c r="V65" t="s">
-        <v>488</v>
+        <v>396</v>
       </c>
     </row>
     <row r="66">
@@ -27015,7 +27614,7 @@
         <v>274</v>
       </c>
       <c r="V66" t="s">
-        <v>142</v>
+        <v>488</v>
       </c>
     </row>
     <row r="67">
@@ -27023,7 +27622,7 @@
         <v>358</v>
       </c>
       <c r="V67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68">
@@ -27031,7 +27630,7 @@
         <v>319</v>
       </c>
       <c r="V68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69">
@@ -27039,7 +27638,7 @@
         <v>452</v>
       </c>
       <c r="V69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70">
@@ -27047,7 +27646,7 @@
         <v>309</v>
       </c>
       <c r="V70" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71">
@@ -27055,7 +27654,7 @@
         <v>453</v>
       </c>
       <c r="V71" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72">
@@ -27063,7 +27662,7 @@
         <v>267</v>
       </c>
       <c r="V72" t="s">
-        <v>501</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73">
@@ -27071,7 +27670,7 @@
         <v>349</v>
       </c>
       <c r="V73" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
     </row>
     <row r="74">
@@ -27079,7 +27678,7 @@
         <v>285</v>
       </c>
       <c r="V74" t="s">
-        <v>146</v>
+        <v>517</v>
       </c>
     </row>
     <row r="75">
@@ -27087,7 +27686,7 @@
         <v>291</v>
       </c>
       <c r="V75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76">
@@ -27095,7 +27694,7 @@
         <v>296</v>
       </c>
       <c r="V76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77">
@@ -27103,7 +27702,7 @@
         <v>460</v>
       </c>
       <c r="V77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78">
@@ -27111,7 +27710,7 @@
         <v>337</v>
       </c>
       <c r="V78" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79">
@@ -27119,7 +27718,7 @@
         <v>275</v>
       </c>
       <c r="V79" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80">
@@ -27127,7 +27726,7 @@
         <v>286</v>
       </c>
       <c r="V80" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81">
@@ -27135,7 +27734,7 @@
         <v>292</v>
       </c>
       <c r="V81" t="s">
-        <v>500</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82">
@@ -27143,7 +27742,7 @@
         <v>281</v>
       </c>
       <c r="V82" t="s">
-        <v>206</v>
+        <v>500</v>
       </c>
     </row>
     <row r="83">
@@ -27151,7 +27750,7 @@
         <v>276</v>
       </c>
       <c r="V83" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="84">
@@ -27159,7 +27758,7 @@
         <v>293</v>
       </c>
       <c r="V84" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85">
@@ -27167,7 +27766,7 @@
         <v>277</v>
       </c>
       <c r="V85" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86">
@@ -27175,7 +27774,7 @@
         <v>278</v>
       </c>
       <c r="V86" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87">
@@ -27183,7 +27782,7 @@
         <v>310</v>
       </c>
       <c r="V87" t="s">
-        <v>474</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88">
@@ -27191,7 +27790,7 @@
         <v>316</v>
       </c>
       <c r="V88" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="89">
@@ -27199,7 +27798,7 @@
         <v>300</v>
       </c>
       <c r="V89" t="s">
-        <v>209</v>
+        <v>482</v>
       </c>
     </row>
     <row r="90">
@@ -27207,7 +27806,7 @@
         <v>345</v>
       </c>
       <c r="V90" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91">
@@ -27215,7 +27814,7 @@
         <v>282</v>
       </c>
       <c r="V91" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="92">
@@ -27223,141 +27822,146 @@
         <v>283</v>
       </c>
       <c r="V92" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>390</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>154</v>
+        <v>390</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>489</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>167</v>
+        <v>489</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>171</v>
+        <v>49</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="119">
       <c r="V119" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="V120" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -23,31 +23,32 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$120</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20491" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20985" uniqueCount="535">
   <si>
     <t>jira</t>
   </si>
@@ -1640,6 +1641,33 @@
   </si>
   <si>
     <t>minify(xml,var)</t>
+  </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
   </si>
 </sst>
 </file>
@@ -1647,7 +1675,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="654" x14ac:knownFonts="1">
+  <fonts count="670" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5768,8 +5796,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1138">
+  <fills count="1165">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12214,8 +12343,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1163">
+  <borders count="1191">
     <border>
       <left/>
       <right/>
@@ -13865,6 +14147,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -23876,7 +24440,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="680">
+  <cellXfs count="696">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -25886,52 +26450,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="637" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="638" fillId="1113" borderId="1142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="639" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1142" fillId="1113" fontId="638" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="639" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="640" fillId="1116" borderId="1146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1146" fillId="1116" fontId="640" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="641" fillId="1119" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1150" fillId="1119" fontId="641" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="642" fillId="1122" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1150" fillId="1122" fontId="642" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="643" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="643" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="644" fillId="1125" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1125" fontId="644" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="645" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="646" fillId="1128" borderId="1154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="647" fillId="1131" borderId="1158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="648" fillId="1134" borderId="1162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="649" fillId="1134" borderId="1162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="650" fillId="1122" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="651" fillId="1137" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="652" fillId="1122" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="653" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="645" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1154" fillId="1128" fontId="646" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1158" fillId="1131" fontId="647" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1162" fillId="1134" fontId="648" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1162" fillId="1134" fontId="649" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1122" fontId="650" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1137" fontId="651" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1122" fontId="652" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="653" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="654" fillId="1140" borderId="1170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="655" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="656" fillId="1143" borderId="1174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="657" fillId="1146" borderId="1178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="658" fillId="1149" borderId="1178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="659" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="660" fillId="1152" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="661" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="662" fillId="1155" borderId="1182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="663" fillId="1158" borderId="1186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="664" fillId="1161" borderId="1190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="665" fillId="1161" borderId="1190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="666" fillId="1149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="667" fillId="1164" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="668" fillId="1149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="669" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -26256,7 +26868,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB120"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -26305,48 +26917,51 @@
         <v>26</v>
       </c>
       <c r="M1" t="s">
+        <v>526</v>
+      </c>
+      <c r="N1" t="s">
         <v>200</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>55</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>244</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>442</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>455</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>456</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>364</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>438</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>57</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>58</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>59</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>60</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>457</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>232</v>
       </c>
     </row>
@@ -26388,48 +27003,51 @@
         <v>461</v>
       </c>
       <c r="M2" t="s">
+        <v>529</v>
+      </c>
+      <c r="N2" t="s">
         <v>462</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>463</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>258</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>222</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>443</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>467</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>468</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>388</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>439</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>100</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>175</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>180</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>187</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>476</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>233</v>
       </c>
     </row>
@@ -26456,7 +27074,7 @@
         <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>527</v>
       </c>
       <c r="I3" t="s">
         <v>354</v>
@@ -26470,43 +27088,46 @@
       <c r="L3" t="s">
         <v>89</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>530</v>
+      </c>
+      <c r="O3" t="s">
         <v>464</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>245</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>223</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>444</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>469</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>389</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>440</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>101</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>176</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>181</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>371</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>188</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>234</v>
       </c>
     </row>
@@ -26529,6 +27150,9 @@
       <c r="G4" t="s">
         <v>497</v>
       </c>
+      <c r="H4" t="s">
+        <v>528</v>
+      </c>
       <c r="I4" t="s">
         <v>355</v>
       </c>
@@ -26541,43 +27165,46 @@
       <c r="L4" t="s">
         <v>27</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>531</v>
+      </c>
+      <c r="O4" t="s">
         <v>28</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>246</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>224</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>445</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>470</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>365</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>441</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>359</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>177</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>182</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>188</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>477</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>235</v>
       </c>
     </row>
@@ -26609,40 +27236,40 @@
       <c r="L5" t="s">
         <v>90</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>32</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>247</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>225</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>446</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>471</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>366</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>360</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>178</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>183</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>189</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>478</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>236</v>
       </c>
     </row>
@@ -26671,37 +27298,37 @@
       <c r="L6" t="s">
         <v>31</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>33</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>248</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>399</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>447</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>368</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>102</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>490</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>184</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>190</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>479</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>237</v>
       </c>
     </row>
@@ -26727,37 +27354,37 @@
       <c r="L7" t="s">
         <v>320</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>35</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>249</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>466</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>448</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>367</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>103</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>491</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>185</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>191</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>480</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>238</v>
       </c>
     </row>
@@ -26783,34 +27410,34 @@
       <c r="L8" t="s">
         <v>36</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>94</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>250</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>449</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>369</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>104</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>179</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>186</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>192</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>481</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>239</v>
       </c>
     </row>
@@ -26836,25 +27463,25 @@
       <c r="L9" t="s">
         <v>37</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>95</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>251</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>450</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>370</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>214</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>193</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>524</v>
       </c>
     </row>
@@ -26877,22 +27504,22 @@
       <c r="L10" t="s">
         <v>38</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>465</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>252</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>451</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>262</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>194</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>525</v>
       </c>
     </row>
@@ -26915,19 +27542,19 @@
       <c r="L11" t="s">
         <v>521</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>96</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>253</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>263</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>264</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>240</v>
       </c>
     </row>
@@ -26950,25 +27577,25 @@
       <c r="L12" t="s">
         <v>486</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>43</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>254</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>105</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>195</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>200</v>
+        <v>526</v>
       </c>
       <c r="D13" t="s">
         <v>346</v>
@@ -26985,25 +27612,25 @@
       <c r="L13" t="s">
         <v>522</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>97</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>259</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>331</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>196</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="D14" t="s">
         <v>39</v>
@@ -27020,22 +27647,22 @@
       <c r="L14" t="s">
         <v>41</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>98</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>255</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>106</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>244</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
         <v>62</v>
@@ -27049,22 +27676,22 @@
       <c r="L15" t="s">
         <v>42</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>99</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>256</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>107</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>244</v>
       </c>
       <c r="D16" t="s">
         <v>392</v>
@@ -27078,19 +27705,19 @@
       <c r="L16" t="s">
         <v>45</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>257</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>78</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>442</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
         <v>393</v>
@@ -27101,16 +27728,16 @@
       <c r="J17" t="s">
         <v>87</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>108</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="D18" t="s">
         <v>458</v>
@@ -27121,13 +27748,13 @@
       <c r="J18" t="s">
         <v>387</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D19" t="s">
         <v>63</v>
@@ -27138,13 +27765,13 @@
       <c r="J19" t="s">
         <v>520</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>364</v>
+        <v>456</v>
       </c>
       <c r="D20" t="s">
         <v>64</v>
@@ -27155,13 +27782,13 @@
       <c r="J20" t="s">
         <v>46</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>438</v>
+        <v>364</v>
       </c>
       <c r="D21" t="s">
         <v>261</v>
@@ -27172,13 +27799,13 @@
       <c r="J21" t="s">
         <v>433</v>
       </c>
-      <c r="V21" t="s">
-        <v>112</v>
+      <c r="W21" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>438</v>
       </c>
       <c r="D22" t="s">
         <v>65</v>
@@ -27189,13 +27816,13 @@
       <c r="J22" t="s">
         <v>88</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
         <v>326</v>
@@ -27206,13 +27833,13 @@
       <c r="J23" t="s">
         <v>485</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
         <v>66</v>
@@ -27223,13 +27850,13 @@
       <c r="J24" t="s">
         <v>47</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
         <v>495</v>
@@ -27240,13 +27867,13 @@
       <c r="J25" t="s">
         <v>48</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>457</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
         <v>230</v>
@@ -27254,13 +27881,13 @@
       <c r="F26" t="s">
         <v>287</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>232</v>
+        <v>457</v>
       </c>
       <c r="D27" t="s">
         <v>231</v>
@@ -27268,18 +27895,21 @@
       <c r="F27" t="s">
         <v>271</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>232</v>
+      </c>
       <c r="D28" t="s">
         <v>518</v>
       </c>
       <c r="F28" t="s">
         <v>288</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>118</v>
       </c>
     </row>
@@ -27290,7 +27920,7 @@
       <c r="F29" t="s">
         <v>289</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>119</v>
       </c>
     </row>
@@ -27301,7 +27931,7 @@
       <c r="F30" t="s">
         <v>221</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>120</v>
       </c>
     </row>
@@ -27312,7 +27942,7 @@
       <c r="F31" t="s">
         <v>280</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>121</v>
       </c>
     </row>
@@ -27323,7 +27953,7 @@
       <c r="F32" t="s">
         <v>290</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>122</v>
       </c>
     </row>
@@ -27334,7 +27964,7 @@
       <c r="F33" t="s">
         <v>265</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>123</v>
       </c>
     </row>
@@ -27345,7 +27975,7 @@
       <c r="F34" t="s">
         <v>335</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>215</v>
       </c>
     </row>
@@ -27356,7 +27986,7 @@
       <c r="F35" t="s">
         <v>312</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>124</v>
       </c>
     </row>
@@ -27367,7 +27997,7 @@
       <c r="F36" t="s">
         <v>266</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>343</v>
       </c>
     </row>
@@ -27378,7 +28008,7 @@
       <c r="F37" t="s">
         <v>313</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>472</v>
       </c>
     </row>
@@ -27389,7 +28019,7 @@
       <c r="F38" t="s">
         <v>272</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>434</v>
       </c>
     </row>
@@ -27397,7 +28027,7 @@
       <c r="F39" t="s">
         <v>81</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>125</v>
       </c>
     </row>
@@ -27405,7 +28035,7 @@
       <c r="F40" t="s">
         <v>217</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>126</v>
       </c>
     </row>
@@ -27413,7 +28043,7 @@
       <c r="F41" t="s">
         <v>294</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>127</v>
       </c>
     </row>
@@ -27421,7 +28051,7 @@
       <c r="F42" t="s">
         <v>305</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>128</v>
       </c>
     </row>
@@ -27429,7 +28059,7 @@
       <c r="F43" t="s">
         <v>306</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>129</v>
       </c>
     </row>
@@ -27437,7 +28067,7 @@
       <c r="F44" t="s">
         <v>348</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>130</v>
       </c>
     </row>
@@ -27445,7 +28075,7 @@
       <c r="F45" t="s">
         <v>347</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>487</v>
       </c>
     </row>
@@ -27453,7 +28083,7 @@
       <c r="F46" t="s">
         <v>216</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>218</v>
       </c>
     </row>
@@ -27461,7 +28091,7 @@
       <c r="F47" t="s">
         <v>325</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>80</v>
       </c>
     </row>
@@ -27469,7 +28099,7 @@
       <c r="F48" t="s">
         <v>344</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>131</v>
       </c>
     </row>
@@ -27477,7 +28107,7 @@
       <c r="F49" t="s">
         <v>375</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>132</v>
       </c>
     </row>
@@ -27485,7 +28115,7 @@
       <c r="F50" t="s">
         <v>307</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>133</v>
       </c>
     </row>
@@ -27493,475 +28123,485 @@
       <c r="F51" t="s">
         <v>361</v>
       </c>
-      <c r="V51" t="s">
-        <v>513</v>
+      <c r="W51" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>336</v>
       </c>
-      <c r="V52" t="s">
-        <v>134</v>
+      <c r="W52" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>273</v>
       </c>
-      <c r="V53" t="s">
-        <v>351</v>
+      <c r="W53" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>297</v>
       </c>
-      <c r="V54" t="s">
-        <v>506</v>
+      <c r="W54" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>298</v>
       </c>
-      <c r="V55" t="s">
-        <v>135</v>
+      <c r="W55" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>299</v>
       </c>
-      <c r="V56" t="s">
-        <v>136</v>
+      <c r="W56" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>308</v>
       </c>
-      <c r="V57" t="s">
-        <v>137</v>
+      <c r="W57" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>317</v>
       </c>
-      <c r="V58" t="s">
-        <v>138</v>
+      <c r="W58" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>342</v>
       </c>
-      <c r="V59" t="s">
-        <v>139</v>
+      <c r="W59" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>314</v>
       </c>
-      <c r="V60" t="s">
-        <v>140</v>
+      <c r="W60" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>315</v>
       </c>
-      <c r="V61" t="s">
-        <v>141</v>
+      <c r="W61" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>376</v>
       </c>
-      <c r="V62" t="s">
-        <v>483</v>
+      <c r="W62" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>377</v>
       </c>
-      <c r="V63" t="s">
-        <v>523</v>
+      <c r="W63" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>350</v>
       </c>
-      <c r="V64" t="s">
-        <v>219</v>
+      <c r="W64" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>318</v>
       </c>
-      <c r="V65" t="s">
-        <v>396</v>
+      <c r="W65" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>274</v>
       </c>
-      <c r="V66" t="s">
-        <v>488</v>
+      <c r="W66" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>358</v>
       </c>
-      <c r="V67" t="s">
-        <v>142</v>
+      <c r="W67" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>319</v>
       </c>
-      <c r="V68" t="s">
-        <v>143</v>
+      <c r="W68" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>452</v>
       </c>
-      <c r="V69" t="s">
-        <v>144</v>
+      <c r="W69" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>309</v>
       </c>
-      <c r="V70" t="s">
-        <v>145</v>
+      <c r="W70" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>453</v>
       </c>
-      <c r="V71" t="s">
-        <v>202</v>
+      <c r="W71" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>267</v>
       </c>
-      <c r="V72" t="s">
-        <v>203</v>
+      <c r="W72" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>349</v>
       </c>
-      <c r="V73" t="s">
-        <v>501</v>
+      <c r="W73" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>285</v>
       </c>
-      <c r="V74" t="s">
-        <v>517</v>
+      <c r="W74" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>291</v>
       </c>
-      <c r="V75" t="s">
-        <v>146</v>
+      <c r="W75" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>296</v>
       </c>
-      <c r="V76" t="s">
-        <v>147</v>
+      <c r="W76" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>460</v>
       </c>
-      <c r="V77" t="s">
-        <v>148</v>
+      <c r="W77" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>337</v>
       </c>
-      <c r="V78" t="s">
-        <v>149</v>
+      <c r="W78" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>275</v>
       </c>
-      <c r="V79" t="s">
-        <v>150</v>
+      <c r="W79" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>286</v>
       </c>
-      <c r="V80" t="s">
-        <v>204</v>
+      <c r="W80" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>292</v>
       </c>
-      <c r="V81" t="s">
-        <v>205</v>
+      <c r="W81" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>281</v>
       </c>
-      <c r="V82" t="s">
-        <v>500</v>
+      <c r="W82" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>276</v>
       </c>
-      <c r="V83" t="s">
-        <v>206</v>
+      <c r="W83" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>293</v>
       </c>
-      <c r="V84" t="s">
-        <v>207</v>
+      <c r="W84" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>277</v>
       </c>
-      <c r="V85" t="s">
-        <v>220</v>
+      <c r="W85" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>278</v>
       </c>
-      <c r="V86" t="s">
-        <v>151</v>
+      <c r="W86" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>310</v>
       </c>
-      <c r="V87" t="s">
-        <v>208</v>
+      <c r="W87" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>316</v>
       </c>
-      <c r="V88" t="s">
-        <v>474</v>
+      <c r="W88" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>300</v>
       </c>
-      <c r="V89" t="s">
-        <v>482</v>
+      <c r="W89" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>345</v>
       </c>
-      <c r="V90" t="s">
-        <v>209</v>
+      <c r="W90" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>282</v>
       </c>
-      <c r="V91" t="s">
-        <v>210</v>
+      <c r="W91" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>283</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="W94" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="95">
+      <c r="W95" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="119">
-      <c r="V119" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="120">
-      <c r="V120" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20985" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21479" uniqueCount="535">
   <si>
     <t>jira</t>
   </si>
@@ -1675,7 +1675,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="670" x14ac:knownFonts="1">
+  <fonts count="686" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5897,8 +5897,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1165">
+  <fills count="1192">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12496,8 +12597,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1191">
+  <borders count="1219">
     <border>
       <left/>
       <right/>
@@ -14147,6 +14401,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -24440,7 +24976,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="696">
+  <cellXfs count="712">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -26498,52 +27034,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="653" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="654" fillId="1140" borderId="1170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="655" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1170" fillId="1140" fontId="654" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="655" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="656" fillId="1143" borderId="1174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1174" fillId="1143" fontId="656" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="657" fillId="1146" borderId="1178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1178" fillId="1146" fontId="657" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="658" fillId="1149" borderId="1178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1178" fillId="1149" fontId="658" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="659" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="659" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="660" fillId="1152" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1152" fontId="660" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="661" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="662" fillId="1155" borderId="1182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="663" fillId="1158" borderId="1186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="664" fillId="1161" borderId="1190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="665" fillId="1161" borderId="1190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="666" fillId="1149" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="667" fillId="1164" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="668" fillId="1149" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="669" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="661" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1182" fillId="1155" fontId="662" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1186" fillId="1158" fontId="663" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1190" fillId="1161" fontId="664" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1190" fillId="1161" fontId="665" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1149" fontId="666" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1164" fontId="667" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1149" fontId="668" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="669" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="670" fillId="1167" borderId="1198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="671" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="672" fillId="1170" borderId="1202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="673" fillId="1173" borderId="1206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="674" fillId="1176" borderId="1206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="675" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="676" fillId="1179" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="677" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="678" fillId="1182" borderId="1210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="679" fillId="1185" borderId="1214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="680" fillId="1188" borderId="1218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="681" fillId="1188" borderId="1218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="682" fillId="1176" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="683" fillId="1191" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="684" fillId="1176" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="685" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -17,38 +17,39 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21479" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22484" uniqueCount="545">
   <si>
     <t>jira</t>
   </si>
@@ -1668,6 +1669,36 @@
   </si>
   <si>
     <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1675,7 +1706,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="686" x14ac:knownFonts="1">
+  <fonts count="718" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5998,8 +6029,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1192">
+  <fills count="1246">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12750,8 +12983,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1219">
+  <borders count="1275">
     <border>
       <left/>
       <right/>
@@ -14401,6 +14940,570 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -24976,7 +26079,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="712">
+  <cellXfs count="744">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -27082,52 +28185,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="669" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="670" fillId="1167" borderId="1198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="671" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1198" fillId="1167" fontId="670" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="671" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="672" fillId="1170" borderId="1202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1202" fillId="1170" fontId="672" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="673" fillId="1173" borderId="1206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1206" fillId="1173" fontId="673" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="674" fillId="1176" borderId="1206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1206" fillId="1176" fontId="674" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="675" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="675" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="676" fillId="1179" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1179" fontId="676" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="677" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="678" fillId="1182" borderId="1210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="679" fillId="1185" borderId="1214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="680" fillId="1188" borderId="1218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="681" fillId="1188" borderId="1218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="682" fillId="1176" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="683" fillId="1191" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="684" fillId="1176" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="685" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="677" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1210" fillId="1182" fontId="678" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1214" fillId="1185" fontId="679" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1218" fillId="1188" fontId="680" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1218" fillId="1188" fontId="681" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1176" fontId="682" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1191" fontId="683" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1176" fontId="684" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="685" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1226" fillId="1194" fontId="686" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="687" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1230" fillId="1197" fontId="688" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1234" fillId="1200" fontId="689" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1234" fillId="1203" fontId="690" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="691" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1206" fontId="692" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="693" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1238" fillId="1209" fontId="694" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1242" fillId="1212" fontId="695" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1246" fillId="1215" fontId="696" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1246" fillId="1215" fontId="697" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1203" fontId="698" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1218" fontId="699" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1203" fontId="700" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="701" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="702" fillId="1221" borderId="1254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="703" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="704" fillId="1224" borderId="1258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="705" fillId="1227" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="706" fillId="1230" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="707" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="708" fillId="1233" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="709" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="710" fillId="1236" borderId="1266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="711" fillId="1239" borderId="1270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="712" fillId="1242" borderId="1274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="713" fillId="1242" borderId="1274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="714" fillId="1230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="715" fillId="1245" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="716" fillId="1230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="717" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -27452,7 +28651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -27474,78 +28673,81 @@
         <v>507</v>
       </c>
       <c r="D1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>352</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>338</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>526</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>200</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>55</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>244</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>56</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>442</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>455</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>456</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>364</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>438</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>57</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>59</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>60</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>457</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>232</v>
       </c>
     </row>
@@ -27560,79 +28762,82 @@
         <v>512</v>
       </c>
       <c r="D2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E2" t="s">
         <v>61</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>75</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>77</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>496</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>82</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>516</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>320</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>391</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>461</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>529</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>462</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>463</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>258</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>222</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>443</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>467</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>468</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>388</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>439</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>100</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>175</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>180</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>187</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>476</v>
       </c>
-      <c r="AB2" t="s">
-        <v>233</v>
+      <c r="AC2" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="3">
@@ -27646,1546 +28851,1573 @@
         <v>509</v>
       </c>
       <c r="D3" t="s">
+        <v>537</v>
+      </c>
+      <c r="E3" t="s">
         <v>504</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>372</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>91</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>52</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>527</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>354</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>346</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>339</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>89</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>530</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>464</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>245</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>223</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>444</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>469</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>389</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>440</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>101</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>176</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>181</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>371</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>188</v>
       </c>
-      <c r="AB3" t="s">
-        <v>234</v>
+      <c r="AC3" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>535</v>
       </c>
       <c r="B4" t="s">
         <v>381</v>
       </c>
       <c r="D4" t="s">
+        <v>538</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>76</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>394</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>497</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>528</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>355</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>243</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>340</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>27</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>531</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>28</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>246</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>224</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>445</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>470</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>365</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>441</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>359</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>177</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>182</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>188</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>477</v>
       </c>
-      <c r="AB4" t="s">
-        <v>235</v>
+      <c r="AC4" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>382</v>
       </c>
       <c r="D5" t="s">
+        <v>539</v>
+      </c>
+      <c r="E5" t="s">
         <v>505</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>484</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>341</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>502</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>356</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>510</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>90</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>32</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>247</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>225</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>446</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>471</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>366</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>360</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>178</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>183</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>189</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>478</v>
       </c>
-      <c r="AB5" t="s">
-        <v>236</v>
+      <c r="AC5" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
         <v>383</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>395</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>494</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>353</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>75</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>31</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>33</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>248</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>399</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>447</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>368</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>102</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>490</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>184</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>190</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>479</v>
       </c>
-      <c r="AB6" t="s">
-        <v>237</v>
+      <c r="AC6" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>384</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>229</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>373</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>493</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>18</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>320</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>35</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>249</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>466</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>448</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>367</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>103</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>491</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>185</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>191</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>480</v>
       </c>
-      <c r="AB7" t="s">
-        <v>238</v>
+      <c r="AC7" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>385</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>323</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>374</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>333</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>83</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>36</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>94</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>250</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>449</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>369</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>104</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>179</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>186</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>192</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>481</v>
       </c>
-      <c r="AB8" t="s">
-        <v>239</v>
+      <c r="AC8" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>352</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>386</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>311</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>334</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>40</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>37</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>95</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>251</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>450</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>370</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>214</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>193</v>
       </c>
-      <c r="AB9" t="s">
-        <v>524</v>
+      <c r="AC9" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
+        <v>352</v>
+      </c>
+      <c r="E10" t="s">
         <v>320</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>357</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>498</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>397</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>38</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>465</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>252</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>451</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>262</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>194</v>
       </c>
-      <c r="AB10" t="s">
-        <v>525</v>
+      <c r="AC10" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>338</v>
-      </c>
-      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
         <v>260</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>279</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>327</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>19</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>521</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>96</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>253</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>263</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>264</v>
       </c>
-      <c r="AB11" t="s">
-        <v>240</v>
+      <c r="AC11" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
+        <v>338</v>
+      </c>
+      <c r="E12" t="s">
         <v>324</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>268</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>328</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>44</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>486</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>43</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>254</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>105</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>195</v>
       </c>
-      <c r="AB12" t="s">
-        <v>241</v>
+      <c r="AC12" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>526</v>
-      </c>
-      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
         <v>346</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>321</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>329</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>84</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>522</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>97</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>259</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>331</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>196</v>
       </c>
-      <c r="AB13" t="s">
-        <v>242</v>
+      <c r="AC13" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>200</v>
-      </c>
-      <c r="D14" t="s">
+        <v>526</v>
+      </c>
+      <c r="E14" t="s">
         <v>39</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>269</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>330</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>85</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>41</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>98</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>255</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>106</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>197</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E15" t="s">
         <v>62</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>270</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>503</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>42</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>99</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>256</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>107</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>198</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>244</v>
-      </c>
-      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
         <v>392</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>322</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>86</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>45</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>257</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>78</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>199</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" t="s">
+        <v>244</v>
+      </c>
+      <c r="E17" t="s">
         <v>393</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>92</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>87</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>108</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>511</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>442</v>
-      </c>
-      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
         <v>458</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>93</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>387</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>109</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>455</v>
-      </c>
-      <c r="D19" t="s">
+        <v>442</v>
+      </c>
+      <c r="E19" t="s">
         <v>63</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>301</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>520</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>456</v>
-      </c>
-      <c r="D20" t="s">
+        <v>455</v>
+      </c>
+      <c r="E20" t="s">
         <v>64</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>302</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>46</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>364</v>
-      </c>
-      <c r="D21" t="s">
+        <v>456</v>
+      </c>
+      <c r="E21" t="s">
         <v>261</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>303</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>433</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>438</v>
-      </c>
-      <c r="D22" t="s">
+        <v>364</v>
+      </c>
+      <c r="E22" t="s">
         <v>65</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>304</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>88</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" t="s">
+        <v>438</v>
+      </c>
+      <c r="E23" t="s">
         <v>326</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>295</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>485</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" t="s">
         <v>66</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>284</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>47</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" t="s">
         <v>495</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>79</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>48</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" t="s">
         <v>230</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>287</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>457</v>
-      </c>
-      <c r="D27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" t="s">
         <v>231</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>271</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>457</v>
+      </c>
+      <c r="E28" t="s">
+        <v>518</v>
+      </c>
+      <c r="G28" t="s">
+        <v>288</v>
+      </c>
+      <c r="X28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>232</v>
       </c>
-      <c r="D28" t="s">
-        <v>518</v>
-      </c>
-      <c r="F28" t="s">
-        <v>288</v>
-      </c>
-      <c r="W28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>519</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>289</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>459</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>221</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>67</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>280</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>68</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>290</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>69</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>265</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>70</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>335</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>71</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>312</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>72</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>266</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>73</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>313</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="38">
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>74</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>272</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>81</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>217</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>294</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>305</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>306</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>348</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>347</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>216</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>325</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>344</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>375</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>307</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>361</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>336</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X52" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>273</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>297</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>298</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>299</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>308</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X57" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>317</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>342</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X59" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>314</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X60" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>315</v>
       </c>
-      <c r="W61" t="s">
+      <c r="X61" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>376</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>377</v>
       </c>
-      <c r="W63" t="s">
+      <c r="X63" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="64">
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>350</v>
       </c>
-      <c r="W64" t="s">
+      <c r="X64" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>318</v>
       </c>
-      <c r="W65" t="s">
+      <c r="X65" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>274</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X66" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>358</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X67" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>319</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X68" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>452</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X69" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>309</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X70" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>453</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>267</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X72" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>349</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>285</v>
       </c>
-      <c r="W74" t="s">
+      <c r="X74" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>291</v>
       </c>
-      <c r="W75" t="s">
+      <c r="X75" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>296</v>
       </c>
-      <c r="W76" t="s">
+      <c r="X76" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="77">
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>460</v>
       </c>
-      <c r="W77" t="s">
+      <c r="X77" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>337</v>
       </c>
-      <c r="W78" t="s">
+      <c r="X78" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="79">
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>275</v>
       </c>
-      <c r="W79" t="s">
+      <c r="X79" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>286</v>
       </c>
-      <c r="W80" t="s">
+      <c r="X80" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>292</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X81" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="82">
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>281</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X82" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="83">
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>276</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X83" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="84">
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>293</v>
       </c>
-      <c r="W84" t="s">
+      <c r="X84" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="85">
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>277</v>
       </c>
-      <c r="W85" t="s">
+      <c r="X85" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>278</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X86" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="87">
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>310</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>316</v>
       </c>
-      <c r="W88" t="s">
+      <c r="X88" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>300</v>
       </c>
-      <c r="W89" t="s">
+      <c r="X89" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="90">
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>345</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X90" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="91">
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>282</v>
       </c>
-      <c r="W91" t="s">
+      <c r="X91" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="92">
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>283</v>
       </c>
-      <c r="W92" t="s">
+      <c r="X92" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="93">
-      <c r="W93" t="s">
+      <c r="X93" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="94">
-      <c r="W94" t="s">
+      <c r="X94" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="95">
-      <c r="W95" t="s">
+      <c r="X95" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="96">
-      <c r="W96" t="s">
+      <c r="X96" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="97">
-      <c r="W97" t="s">
+      <c r="X97" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="98">
-      <c r="W98" t="s">
+      <c r="X98" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="99">
-      <c r="W99" t="s">
+      <c r="X99" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="100">
-      <c r="W100" t="s">
+      <c r="X100" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="101">
-      <c r="W101" t="s">
+      <c r="X101" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="102">
-      <c r="W102" t="s">
+      <c r="X102" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="103">
-      <c r="W103" t="s">
+      <c r="X103" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="104">
-      <c r="W104" t="s">
+      <c r="X104" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="105">
-      <c r="W105" t="s">
+      <c r="X105" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="106">
-      <c r="W106" t="s">
+      <c r="X106" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="107">
-      <c r="W107" t="s">
+      <c r="X107" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="108">
-      <c r="W108" t="s">
+      <c r="X108" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="109">
-      <c r="W109" t="s">
+      <c r="X109" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="110">
-      <c r="W110" t="s">
+      <c r="X110" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="111">
-      <c r="W111" t="s">
+      <c r="X111" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="112">
-      <c r="W112" t="s">
+      <c r="X112" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="113">
-      <c r="W113" t="s">
+      <c r="X113" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="114">
-      <c r="W114" t="s">
+      <c r="X114" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="115">
-      <c r="W115" t="s">
+      <c r="X115" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="116">
-      <c r="W116" t="s">
+      <c r="X116" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="117">
-      <c r="W117" t="s">
+      <c r="X117" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="118">
-      <c r="W118" t="s">
+      <c r="X118" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="119">
-      <c r="W119" t="s">
+      <c r="X119" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="120">
-      <c r="W120" t="s">
+      <c r="X120" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="121">
-      <c r="W121" t="s">
+      <c r="X121" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="122">
-      <c r="W122" t="s">
+      <c r="X122" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -37,11 +37,11 @@
     <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="web">'#system'!$X$2:$X$123</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="redis">'#system'!$S$2:$S$10</definedName>
     <definedName name="sms">'#system'!$T$2:$T$2</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22484" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22993" uniqueCount="549">
   <si>
     <t>jira</t>
   </si>
@@ -1699,6 +1699,18 @@
   </si>
   <si>
     <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1706,7 +1718,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="718" x14ac:knownFonts="1">
+  <fonts count="734" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6231,8 +6243,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1246">
+  <fills count="1273">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13289,8 +13402,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1275">
+  <borders count="1303">
     <border>
       <left/>
       <right/>
@@ -14940,6 +15206,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -26079,7 +26627,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="744">
+  <cellXfs count="760">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -28281,52 +28829,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="701" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="702" fillId="1221" borderId="1254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="703" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1254" fillId="1221" fontId="702" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="703" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="704" fillId="1224" borderId="1258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1258" fillId="1224" fontId="704" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="705" fillId="1227" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1262" fillId="1227" fontId="705" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="706" fillId="1230" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1262" fillId="1230" fontId="706" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="707" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="707" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="708" fillId="1233" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1233" fontId="708" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="709" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="710" fillId="1236" borderId="1266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="711" fillId="1239" borderId="1270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="712" fillId="1242" borderId="1274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="713" fillId="1242" borderId="1274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="714" fillId="1230" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="715" fillId="1245" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="716" fillId="1230" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="717" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="709" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1266" fillId="1236" fontId="710" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1270" fillId="1239" fontId="711" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1274" fillId="1242" fontId="712" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1274" fillId="1242" fontId="713" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1230" fontId="714" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1245" fontId="715" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1230" fontId="716" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="717" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="718" fillId="1248" borderId="1282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="719" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="720" fillId="1251" borderId="1286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="721" fillId="1254" borderId="1290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="722" fillId="1257" borderId="1290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="723" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="724" fillId="1260" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="725" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="726" fillId="1263" borderId="1294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="727" fillId="1266" borderId="1298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="728" fillId="1269" borderId="1302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="729" fillId="1269" borderId="1302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="730" fillId="1257" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="731" fillId="1272" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="732" fillId="1257" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="733" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -28651,7 +29247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD122"/>
+  <dimension ref="A1:AD123"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -29423,7 +30019,7 @@
         <v>196</v>
       </c>
       <c r="AC13" t="s">
-        <v>525</v>
+        <v>546</v>
       </c>
     </row>
     <row r="14">
@@ -29458,7 +30054,7 @@
         <v>197</v>
       </c>
       <c r="AC14" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="15">
@@ -29490,7 +30086,7 @@
         <v>198</v>
       </c>
       <c r="AC15" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
     </row>
     <row r="16">
@@ -29519,7 +30115,7 @@
         <v>199</v>
       </c>
       <c r="AC16" t="s">
-        <v>240</v>
+        <v>543</v>
       </c>
     </row>
     <row r="17">
@@ -29542,7 +30138,7 @@
         <v>511</v>
       </c>
       <c r="AC17" t="s">
-        <v>241</v>
+        <v>544</v>
       </c>
     </row>
     <row r="18">
@@ -29562,7 +30158,7 @@
         <v>109</v>
       </c>
       <c r="AC18" t="s">
-        <v>242</v>
+        <v>548</v>
       </c>
     </row>
     <row r="19">
@@ -29581,6 +30177,9 @@
       <c r="X19" t="s">
         <v>110</v>
       </c>
+      <c r="AC19" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -29598,6 +30197,9 @@
       <c r="X20" t="s">
         <v>111</v>
       </c>
+      <c r="AC20" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -29615,6 +30217,9 @@
       <c r="X21" t="s">
         <v>532</v>
       </c>
+      <c r="AC21" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -30164,7 +30769,7 @@
         <v>275</v>
       </c>
       <c r="X79" t="s">
-        <v>149</v>
+        <v>545</v>
       </c>
     </row>
     <row r="80">
@@ -30172,7 +30777,7 @@
         <v>286</v>
       </c>
       <c r="X80" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81">
@@ -30180,7 +30785,7 @@
         <v>292</v>
       </c>
       <c r="X81" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82">
@@ -30188,7 +30793,7 @@
         <v>281</v>
       </c>
       <c r="X82" t="s">
-        <v>534</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83">
@@ -30196,7 +30801,7 @@
         <v>276</v>
       </c>
       <c r="X83" t="s">
-        <v>205</v>
+        <v>534</v>
       </c>
     </row>
     <row r="84">
@@ -30204,7 +30809,7 @@
         <v>293</v>
       </c>
       <c r="X84" t="s">
-        <v>500</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85">
@@ -30212,7 +30817,7 @@
         <v>277</v>
       </c>
       <c r="X85" t="s">
-        <v>206</v>
+        <v>500</v>
       </c>
     </row>
     <row r="86">
@@ -30220,7 +30825,7 @@
         <v>278</v>
       </c>
       <c r="X86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87">
@@ -30228,7 +30833,7 @@
         <v>310</v>
       </c>
       <c r="X87" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88">
@@ -30236,7 +30841,7 @@
         <v>316</v>
       </c>
       <c r="X88" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
     </row>
     <row r="89">
@@ -30244,7 +30849,7 @@
         <v>300</v>
       </c>
       <c r="X89" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90">
@@ -30252,7 +30857,7 @@
         <v>345</v>
       </c>
       <c r="X90" t="s">
-        <v>474</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91">
@@ -30260,7 +30865,7 @@
         <v>282</v>
       </c>
       <c r="X91" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="92">
@@ -30268,156 +30873,161 @@
         <v>283</v>
       </c>
       <c r="X92" t="s">
-        <v>209</v>
+        <v>482</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>390</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>154</v>
+        <v>390</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>489</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>167</v>
+        <v>489</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>171</v>
+        <v>49</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="X123" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -32,12 +32,12 @@
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
     <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
     <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$123</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22993" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24014" uniqueCount="552">
   <si>
     <t>jira</t>
   </si>
@@ -1711,6 +1711,15 @@
   </si>
   <si>
     <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
   </si>
 </sst>
 </file>
@@ -1718,7 +1727,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="734" x14ac:knownFonts="1">
+  <fonts count="766" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6344,8 +6353,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1273">
+  <fills count="1327">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13555,8 +13766,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1303">
+  <borders count="1359">
     <border>
       <left/>
       <right/>
@@ -15206,6 +15723,570 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -26627,7 +27708,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="760">
+  <cellXfs count="792">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -28877,52 +29958,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="717" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="718" fillId="1248" borderId="1282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="719" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1282" fillId="1248" fontId="718" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="719" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="720" fillId="1251" borderId="1286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1286" fillId="1251" fontId="720" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="721" fillId="1254" borderId="1290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1290" fillId="1254" fontId="721" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="722" fillId="1257" borderId="1290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1290" fillId="1257" fontId="722" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="723" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="723" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="724" fillId="1260" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1260" fontId="724" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="725" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="726" fillId="1263" borderId="1294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="727" fillId="1266" borderId="1298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="728" fillId="1269" borderId="1302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="729" fillId="1269" borderId="1302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="730" fillId="1257" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="731" fillId="1272" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="732" fillId="1257" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="733" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="725" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1294" fillId="1263" fontId="726" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1298" fillId="1266" fontId="727" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1302" fillId="1269" fontId="728" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1302" fillId="1269" fontId="729" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1257" fontId="730" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1272" fontId="731" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1257" fontId="732" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="733" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1310" fillId="1275" fontId="734" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="735" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1314" fillId="1278" fontId="736" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1318" fillId="1281" fontId="737" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1318" fillId="1284" fontId="738" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="739" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1287" fontId="740" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="741" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1322" fillId="1290" fontId="742" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1326" fillId="1293" fontId="743" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1330" fillId="1296" fontId="744" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1330" fillId="1296" fontId="745" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1284" fontId="746" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1299" fontId="747" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1284" fontId="748" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="749" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="750" fillId="1302" borderId="1338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="751" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="752" fillId="1305" borderId="1342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="753" fillId="1308" borderId="1346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="754" fillId="1311" borderId="1346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="755" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="756" fillId="1314" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="757" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="758" fillId="1317" borderId="1350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="759" fillId="1320" borderId="1354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="760" fillId="1323" borderId="1358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="761" fillId="1323" borderId="1358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="762" fillId="1311" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="763" fillId="1326" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="764" fillId="1311" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="765" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -29247,7 +30424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD123"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -30074,7 +31251,7 @@
         <v>42</v>
       </c>
       <c r="P15" t="s">
-        <v>99</v>
+        <v>549</v>
       </c>
       <c r="Q15" t="s">
         <v>256</v>
@@ -30105,6 +31282,9 @@
       <c r="M16" t="s">
         <v>45</v>
       </c>
+      <c r="P16" t="s">
+        <v>550</v>
+      </c>
       <c r="Q16" t="s">
         <v>257</v>
       </c>
@@ -30132,7 +31312,7 @@
         <v>87</v>
       </c>
       <c r="X17" t="s">
-        <v>108</v>
+        <v>551</v>
       </c>
       <c r="AA17" t="s">
         <v>511</v>
@@ -30155,7 +31335,7 @@
         <v>387</v>
       </c>
       <c r="X18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC18" t="s">
         <v>548</v>
@@ -30175,7 +31355,7 @@
         <v>520</v>
       </c>
       <c r="X19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AC19" t="s">
         <v>240</v>
@@ -30195,7 +31375,7 @@
         <v>46</v>
       </c>
       <c r="X20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AC20" t="s">
         <v>241</v>
@@ -30215,7 +31395,7 @@
         <v>433</v>
       </c>
       <c r="X21" t="s">
-        <v>532</v>
+        <v>111</v>
       </c>
       <c r="AC21" t="s">
         <v>242</v>
@@ -30235,7 +31415,7 @@
         <v>88</v>
       </c>
       <c r="X22" t="s">
-        <v>113</v>
+        <v>532</v>
       </c>
     </row>
     <row r="23">
@@ -30252,7 +31432,7 @@
         <v>485</v>
       </c>
       <c r="X23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
@@ -30269,7 +31449,7 @@
         <v>47</v>
       </c>
       <c r="X24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25">
@@ -30286,7 +31466,7 @@
         <v>48</v>
       </c>
       <c r="X25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26">
@@ -30300,7 +31480,7 @@
         <v>287</v>
       </c>
       <c r="X26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27">
@@ -30314,7 +31494,7 @@
         <v>271</v>
       </c>
       <c r="X27" t="s">
-        <v>332</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28">
@@ -30328,7 +31508,7 @@
         <v>288</v>
       </c>
       <c r="X28" t="s">
-        <v>118</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29">
@@ -30342,7 +31522,7 @@
         <v>289</v>
       </c>
       <c r="X29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30">
@@ -30353,7 +31533,7 @@
         <v>221</v>
       </c>
       <c r="X30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31">
@@ -30364,7 +31544,7 @@
         <v>280</v>
       </c>
       <c r="X31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
@@ -30375,7 +31555,7 @@
         <v>290</v>
       </c>
       <c r="X32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33">
@@ -30386,7 +31566,7 @@
         <v>265</v>
       </c>
       <c r="X33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34">
@@ -30397,7 +31577,7 @@
         <v>335</v>
       </c>
       <c r="X34" t="s">
-        <v>215</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35">
@@ -30408,7 +31588,7 @@
         <v>312</v>
       </c>
       <c r="X35" t="s">
-        <v>124</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36">
@@ -30419,7 +31599,7 @@
         <v>266</v>
       </c>
       <c r="X36" t="s">
-        <v>343</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
@@ -30430,7 +31610,7 @@
         <v>313</v>
       </c>
       <c r="X37" t="s">
-        <v>472</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38">
@@ -30441,7 +31621,7 @@
         <v>272</v>
       </c>
       <c r="X38" t="s">
-        <v>434</v>
+        <v>472</v>
       </c>
     </row>
     <row r="39">
@@ -30449,7 +31629,7 @@
         <v>81</v>
       </c>
       <c r="X39" t="s">
-        <v>125</v>
+        <v>434</v>
       </c>
     </row>
     <row r="40">
@@ -30457,7 +31637,7 @@
         <v>217</v>
       </c>
       <c r="X40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41">
@@ -30465,7 +31645,7 @@
         <v>294</v>
       </c>
       <c r="X41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42">
@@ -30473,7 +31653,7 @@
         <v>305</v>
       </c>
       <c r="X42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43">
@@ -30481,7 +31661,7 @@
         <v>306</v>
       </c>
       <c r="X43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44">
@@ -30489,7 +31669,7 @@
         <v>348</v>
       </c>
       <c r="X44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45">
@@ -30497,7 +31677,7 @@
         <v>347</v>
       </c>
       <c r="X45" t="s">
-        <v>487</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46">
@@ -30505,7 +31685,7 @@
         <v>216</v>
       </c>
       <c r="X46" t="s">
-        <v>218</v>
+        <v>487</v>
       </c>
     </row>
     <row r="47">
@@ -30513,7 +31693,7 @@
         <v>325</v>
       </c>
       <c r="X47" t="s">
-        <v>80</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48">
@@ -30521,7 +31701,7 @@
         <v>344</v>
       </c>
       <c r="X48" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49">
@@ -30529,7 +31709,7 @@
         <v>375</v>
       </c>
       <c r="X49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50">
@@ -30537,7 +31717,7 @@
         <v>307</v>
       </c>
       <c r="X50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51">
@@ -30545,7 +31725,7 @@
         <v>361</v>
       </c>
       <c r="X51" t="s">
-        <v>533</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52">
@@ -30553,7 +31733,7 @@
         <v>336</v>
       </c>
       <c r="X52" t="s">
-        <v>513</v>
+        <v>533</v>
       </c>
     </row>
     <row r="53">
@@ -30561,7 +31741,7 @@
         <v>273</v>
       </c>
       <c r="X53" t="s">
-        <v>134</v>
+        <v>513</v>
       </c>
     </row>
     <row r="54">
@@ -30569,7 +31749,7 @@
         <v>297</v>
       </c>
       <c r="X54" t="s">
-        <v>351</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55">
@@ -30577,7 +31757,7 @@
         <v>298</v>
       </c>
       <c r="X55" t="s">
-        <v>506</v>
+        <v>351</v>
       </c>
     </row>
     <row r="56">
@@ -30585,7 +31765,7 @@
         <v>299</v>
       </c>
       <c r="X56" t="s">
-        <v>135</v>
+        <v>506</v>
       </c>
     </row>
     <row r="57">
@@ -30593,7 +31773,7 @@
         <v>308</v>
       </c>
       <c r="X57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58">
@@ -30601,7 +31781,7 @@
         <v>317</v>
       </c>
       <c r="X58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59">
@@ -30609,7 +31789,7 @@
         <v>342</v>
       </c>
       <c r="X59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60">
@@ -30617,7 +31797,7 @@
         <v>314</v>
       </c>
       <c r="X60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61">
@@ -30625,7 +31805,7 @@
         <v>315</v>
       </c>
       <c r="X61" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62">
@@ -30633,7 +31813,7 @@
         <v>376</v>
       </c>
       <c r="X62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63">
@@ -30641,7 +31821,7 @@
         <v>377</v>
       </c>
       <c r="X63" t="s">
-        <v>483</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64">
@@ -30649,7 +31829,7 @@
         <v>350</v>
       </c>
       <c r="X64" t="s">
-        <v>523</v>
+        <v>483</v>
       </c>
     </row>
     <row r="65">
@@ -30657,7 +31837,7 @@
         <v>318</v>
       </c>
       <c r="X65" t="s">
-        <v>219</v>
+        <v>523</v>
       </c>
     </row>
     <row r="66">
@@ -30665,7 +31845,7 @@
         <v>274</v>
       </c>
       <c r="X66" t="s">
-        <v>396</v>
+        <v>219</v>
       </c>
     </row>
     <row r="67">
@@ -30673,7 +31853,7 @@
         <v>358</v>
       </c>
       <c r="X67" t="s">
-        <v>488</v>
+        <v>396</v>
       </c>
     </row>
     <row r="68">
@@ -30681,7 +31861,7 @@
         <v>319</v>
       </c>
       <c r="X68" t="s">
-        <v>142</v>
+        <v>488</v>
       </c>
     </row>
     <row r="69">
@@ -30689,7 +31869,7 @@
         <v>452</v>
       </c>
       <c r="X69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70">
@@ -30697,7 +31877,7 @@
         <v>309</v>
       </c>
       <c r="X70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71">
@@ -30705,7 +31885,7 @@
         <v>453</v>
       </c>
       <c r="X71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72">
@@ -30713,7 +31893,7 @@
         <v>267</v>
       </c>
       <c r="X72" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73">
@@ -30721,7 +31901,7 @@
         <v>349</v>
       </c>
       <c r="X73" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74">
@@ -30729,7 +31909,7 @@
         <v>285</v>
       </c>
       <c r="X74" t="s">
-        <v>501</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75">
@@ -30737,7 +31917,7 @@
         <v>291</v>
       </c>
       <c r="X75" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
     </row>
     <row r="76">
@@ -30745,7 +31925,7 @@
         <v>296</v>
       </c>
       <c r="X76" t="s">
-        <v>146</v>
+        <v>517</v>
       </c>
     </row>
     <row r="77">
@@ -30753,7 +31933,7 @@
         <v>460</v>
       </c>
       <c r="X77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78">
@@ -30761,7 +31941,7 @@
         <v>337</v>
       </c>
       <c r="X78" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79">
@@ -30769,7 +31949,7 @@
         <v>275</v>
       </c>
       <c r="X79" t="s">
-        <v>545</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80">
@@ -30777,7 +31957,7 @@
         <v>286</v>
       </c>
       <c r="X80" t="s">
-        <v>149</v>
+        <v>545</v>
       </c>
     </row>
     <row r="81">
@@ -30785,7 +31965,7 @@
         <v>292</v>
       </c>
       <c r="X81" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82">
@@ -30793,7 +31973,7 @@
         <v>281</v>
       </c>
       <c r="X82" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83">
@@ -30801,7 +31981,7 @@
         <v>276</v>
       </c>
       <c r="X83" t="s">
-        <v>534</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84">
@@ -30809,7 +31989,7 @@
         <v>293</v>
       </c>
       <c r="X84" t="s">
-        <v>205</v>
+        <v>534</v>
       </c>
     </row>
     <row r="85">
@@ -30817,7 +31997,7 @@
         <v>277</v>
       </c>
       <c r="X85" t="s">
-        <v>500</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86">
@@ -30825,7 +32005,7 @@
         <v>278</v>
       </c>
       <c r="X86" t="s">
-        <v>206</v>
+        <v>500</v>
       </c>
     </row>
     <row r="87">
@@ -30833,7 +32013,7 @@
         <v>310</v>
       </c>
       <c r="X87" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88">
@@ -30841,7 +32021,7 @@
         <v>316</v>
       </c>
       <c r="X88" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89">
@@ -30849,7 +32029,7 @@
         <v>300</v>
       </c>
       <c r="X89" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
     </row>
     <row r="90">
@@ -30857,7 +32037,7 @@
         <v>345</v>
       </c>
       <c r="X90" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91">
@@ -30865,7 +32045,7 @@
         <v>282</v>
       </c>
       <c r="X91" t="s">
-        <v>474</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92">
@@ -30873,161 +32053,166 @@
         <v>283</v>
       </c>
       <c r="X92" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>209</v>
+        <v>482</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>390</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>154</v>
+        <v>390</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>489</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>167</v>
+        <v>489</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>171</v>
+        <v>49</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="X124" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -18,14 +18,14 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$O$2:$O$2</definedName>
@@ -37,7 +37,7 @@
     <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24014" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24530" uniqueCount="557">
   <si>
     <t>jira</t>
   </si>
@@ -1720,6 +1720,21 @@
   </si>
   <si>
     <t>assertElementsPresent(prefix)</t>
+  </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>saveValues(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1742,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="766" x14ac:knownFonts="1">
+  <fonts count="782" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6555,8 +6570,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1327">
+  <fills count="1354">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14072,8 +14188,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1359">
+  <borders count="1387">
     <border>
       <left/>
       <right/>
@@ -15723,6 +15992,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -27708,7 +28259,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="792">
+  <cellXfs count="808">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -30054,52 +30605,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="749" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="750" fillId="1302" borderId="1338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="751" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1338" fillId="1302" fontId="750" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="751" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="752" fillId="1305" borderId="1342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1342" fillId="1305" fontId="752" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="753" fillId="1308" borderId="1346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1346" fillId="1308" fontId="753" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="754" fillId="1311" borderId="1346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1346" fillId="1311" fontId="754" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="755" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="755" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="756" fillId="1314" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1314" fontId="756" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="757" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="758" fillId="1317" borderId="1350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="759" fillId="1320" borderId="1354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="760" fillId="1323" borderId="1358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="761" fillId="1323" borderId="1358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="762" fillId="1311" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="763" fillId="1326" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="764" fillId="1311" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="765" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="757" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1350" fillId="1317" fontId="758" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1354" fillId="1320" fontId="759" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1358" fillId="1323" fontId="760" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1358" fillId="1323" fontId="761" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1311" fontId="762" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1326" fontId="763" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1311" fontId="764" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="765" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="766" fillId="1329" borderId="1366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="767" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="768" fillId="1332" borderId="1370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="769" fillId="1335" borderId="1374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="770" fillId="1338" borderId="1374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="771" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="772" fillId="1341" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="773" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="774" fillId="1344" borderId="1378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="775" fillId="1347" borderId="1382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="776" fillId="1350" borderId="1386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="777" fillId="1350" borderId="1386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="778" fillId="1338" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="779" fillId="1353" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="780" fillId="1338" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="781" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -30424,7 +31023,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -30854,6 +31453,9 @@
       <c r="E6" t="s">
         <v>29</v>
       </c>
+      <c r="F6" t="s">
+        <v>552</v>
+      </c>
       <c r="G6" t="s">
         <v>395</v>
       </c>
@@ -30976,7 +31578,7 @@
         <v>333</v>
       </c>
       <c r="K8" t="s">
-        <v>83</v>
+        <v>553</v>
       </c>
       <c r="M8" t="s">
         <v>36</v>
@@ -31029,7 +31631,7 @@
         <v>334</v>
       </c>
       <c r="K9" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="M9" t="s">
         <v>37</v>
@@ -31070,7 +31672,7 @@
         <v>498</v>
       </c>
       <c r="K10" t="s">
-        <v>397</v>
+        <v>40</v>
       </c>
       <c r="M10" t="s">
         <v>38</v>
@@ -31108,7 +31710,7 @@
         <v>327</v>
       </c>
       <c r="K11" t="s">
-        <v>19</v>
+        <v>554</v>
       </c>
       <c r="M11" t="s">
         <v>521</v>
@@ -31143,7 +31745,7 @@
         <v>328</v>
       </c>
       <c r="K12" t="s">
-        <v>44</v>
+        <v>397</v>
       </c>
       <c r="M12" t="s">
         <v>486</v>
@@ -31178,7 +31780,7 @@
         <v>329</v>
       </c>
       <c r="K13" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="M13" t="s">
         <v>522</v>
@@ -31213,7 +31815,7 @@
         <v>330</v>
       </c>
       <c r="K14" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="M14" t="s">
         <v>41</v>
@@ -31245,7 +31847,7 @@
         <v>270</v>
       </c>
       <c r="K15" t="s">
-        <v>503</v>
+        <v>555</v>
       </c>
       <c r="M15" t="s">
         <v>42</v>
@@ -31277,7 +31879,7 @@
         <v>322</v>
       </c>
       <c r="K16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M16" t="s">
         <v>45</v>
@@ -31309,7 +31911,7 @@
         <v>92</v>
       </c>
       <c r="K17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="X17" t="s">
         <v>551</v>
@@ -31332,7 +31934,7 @@
         <v>93</v>
       </c>
       <c r="K18" t="s">
-        <v>387</v>
+        <v>503</v>
       </c>
       <c r="X18" t="s">
         <v>108</v>
@@ -31352,7 +31954,7 @@
         <v>301</v>
       </c>
       <c r="K19" t="s">
-        <v>520</v>
+        <v>86</v>
       </c>
       <c r="X19" t="s">
         <v>109</v>
@@ -31372,7 +31974,7 @@
         <v>302</v>
       </c>
       <c r="K20" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="X20" t="s">
         <v>110</v>
@@ -31392,7 +31994,7 @@
         <v>303</v>
       </c>
       <c r="K21" t="s">
-        <v>433</v>
+        <v>387</v>
       </c>
       <c r="X21" t="s">
         <v>111</v>
@@ -31412,7 +32014,7 @@
         <v>304</v>
       </c>
       <c r="K22" t="s">
-        <v>88</v>
+        <v>520</v>
       </c>
       <c r="X22" t="s">
         <v>532</v>
@@ -31429,7 +32031,7 @@
         <v>295</v>
       </c>
       <c r="K23" t="s">
-        <v>485</v>
+        <v>46</v>
       </c>
       <c r="X23" t="s">
         <v>113</v>
@@ -31446,7 +32048,7 @@
         <v>284</v>
       </c>
       <c r="K24" t="s">
-        <v>47</v>
+        <v>433</v>
       </c>
       <c r="X24" t="s">
         <v>114</v>
@@ -31463,7 +32065,7 @@
         <v>79</v>
       </c>
       <c r="K25" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="X25" t="s">
         <v>115</v>
@@ -31479,6 +32081,9 @@
       <c r="G26" t="s">
         <v>287</v>
       </c>
+      <c r="K26" t="s">
+        <v>485</v>
+      </c>
       <c r="X26" t="s">
         <v>116</v>
       </c>
@@ -31493,6 +32098,9 @@
       <c r="G27" t="s">
         <v>271</v>
       </c>
+      <c r="K27" t="s">
+        <v>47</v>
+      </c>
       <c r="X27" t="s">
         <v>117</v>
       </c>
@@ -31507,6 +32115,9 @@
       <c r="G28" t="s">
         <v>288</v>
       </c>
+      <c r="K28" t="s">
+        <v>48</v>
+      </c>
       <c r="X28" t="s">
         <v>332</v>
       </c>
@@ -32093,126 +32704,131 @@
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>153</v>
+        <v>556</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>390</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>154</v>
+        <v>390</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>489</v>
+        <v>166</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>167</v>
+        <v>489</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>171</v>
+        <v>49</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="X125" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -21,7 +21,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24530" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25048" uniqueCount="559">
   <si>
     <t>jira</t>
   </si>
@@ -1735,6 +1735,12 @@
   </si>
   <si>
     <t>saveValues(var,locator)</t>
+  </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1742,7 +1748,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="782" x14ac:knownFonts="1">
+  <fonts count="798" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6671,8 +6677,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1354">
+  <fills count="1381">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14341,8 +14448,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1387">
+  <borders count="1415">
     <border>
       <left/>
       <right/>
@@ -15992,6 +16252,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -28259,7 +28801,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="808">
+  <cellXfs count="824">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -30653,52 +31195,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="765" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="766" fillId="1329" borderId="1366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="767" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1366" fillId="1329" fontId="766" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="767" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="768" fillId="1332" borderId="1370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1370" fillId="1332" fontId="768" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="769" fillId="1335" borderId="1374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1374" fillId="1335" fontId="769" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="770" fillId="1338" borderId="1374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1374" fillId="1338" fontId="770" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="771" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="771" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="772" fillId="1341" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1341" fontId="772" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="773" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="774" fillId="1344" borderId="1378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="775" fillId="1347" borderId="1382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="776" fillId="1350" borderId="1386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="777" fillId="1350" borderId="1386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="778" fillId="1338" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="779" fillId="1353" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="780" fillId="1338" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="781" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="773" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1378" fillId="1344" fontId="774" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1382" fillId="1347" fontId="775" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1386" fillId="1350" fontId="776" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1386" fillId="1350" fontId="777" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1338" fontId="778" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1353" fontId="779" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1338" fontId="780" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="781" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="782" fillId="1356" borderId="1394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="783" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="784" fillId="1359" borderId="1398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="785" fillId="1362" borderId="1402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="786" fillId="1365" borderId="1402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="787" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="788" fillId="1368" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="789" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="790" fillId="1371" borderId="1406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="791" fillId="1374" borderId="1410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="792" fillId="1377" borderId="1414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="793" fillId="1377" borderId="1414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="794" fillId="1365" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="795" fillId="1380" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="796" fillId="1365" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="797" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -32174,7 +32764,7 @@
         <v>69</v>
       </c>
       <c r="G33" t="s">
-        <v>265</v>
+        <v>557</v>
       </c>
       <c r="X33" t="s">
         <v>122</v>
@@ -32185,7 +32775,7 @@
         <v>70</v>
       </c>
       <c r="G34" t="s">
-        <v>335</v>
+        <v>265</v>
       </c>
       <c r="X34" t="s">
         <v>123</v>
@@ -32196,7 +32786,7 @@
         <v>71</v>
       </c>
       <c r="G35" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="X35" t="s">
         <v>215</v>
@@ -32207,7 +32797,7 @@
         <v>72</v>
       </c>
       <c r="G36" t="s">
-        <v>266</v>
+        <v>312</v>
       </c>
       <c r="X36" t="s">
         <v>124</v>
@@ -32218,7 +32808,7 @@
         <v>73</v>
       </c>
       <c r="G37" t="s">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="X37" t="s">
         <v>343</v>
@@ -32229,7 +32819,7 @@
         <v>74</v>
       </c>
       <c r="G38" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="X38" t="s">
         <v>472</v>
@@ -32237,7 +32827,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>81</v>
+        <v>272</v>
       </c>
       <c r="X39" t="s">
         <v>434</v>
@@ -32245,7 +32835,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="X40" t="s">
         <v>125</v>
@@ -32253,7 +32843,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>294</v>
+        <v>217</v>
       </c>
       <c r="X41" t="s">
         <v>126</v>
@@ -32261,7 +32851,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="X42" t="s">
         <v>127</v>
@@ -32269,7 +32859,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="X43" t="s">
         <v>128</v>
@@ -32277,7 +32867,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>348</v>
+        <v>306</v>
       </c>
       <c r="X44" t="s">
         <v>129</v>
@@ -32285,7 +32875,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="X45" t="s">
         <v>130</v>
@@ -32293,7 +32883,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>216</v>
+        <v>347</v>
       </c>
       <c r="X46" t="s">
         <v>487</v>
@@ -32301,7 +32891,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>325</v>
+        <v>216</v>
       </c>
       <c r="X47" t="s">
         <v>218</v>
@@ -32309,7 +32899,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="X48" t="s">
         <v>80</v>
@@ -32317,7 +32907,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="X49" t="s">
         <v>131</v>
@@ -32325,7 +32915,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>307</v>
+        <v>375</v>
       </c>
       <c r="X50" t="s">
         <v>132</v>
@@ -32333,7 +32923,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="X51" t="s">
         <v>133</v>
@@ -32341,7 +32931,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="X52" t="s">
         <v>533</v>
@@ -32349,7 +32939,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>273</v>
+        <v>336</v>
       </c>
       <c r="X53" t="s">
         <v>513</v>
@@ -32357,7 +32947,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="X54" t="s">
         <v>134</v>
@@ -32365,7 +32955,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="X55" t="s">
         <v>351</v>
@@ -32373,7 +32963,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="X56" t="s">
         <v>506</v>
@@ -32381,7 +32971,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="X57" t="s">
         <v>135</v>
@@ -32389,7 +32979,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="X58" t="s">
         <v>136</v>
@@ -32397,7 +32987,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="X59" t="s">
         <v>137</v>
@@ -32405,7 +32995,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="X60" t="s">
         <v>138</v>
@@ -32413,7 +33003,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="X61" t="s">
         <v>139</v>
@@ -32421,7 +33011,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>376</v>
+        <v>315</v>
       </c>
       <c r="X62" t="s">
         <v>140</v>
@@ -32429,7 +33019,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="X63" t="s">
         <v>141</v>
@@ -32437,7 +33027,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="X64" t="s">
         <v>483</v>
@@ -32445,7 +33035,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="X65" t="s">
         <v>523</v>
@@ -32453,7 +33043,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>274</v>
+        <v>318</v>
       </c>
       <c r="X66" t="s">
         <v>219</v>
@@ -32461,7 +33051,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>358</v>
+        <v>274</v>
       </c>
       <c r="X67" t="s">
         <v>396</v>
@@ -32469,7 +33059,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="X68" t="s">
         <v>488</v>
@@ -32477,7 +33067,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>452</v>
+        <v>319</v>
       </c>
       <c r="X69" t="s">
         <v>142</v>
@@ -32485,7 +33075,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>309</v>
+        <v>452</v>
       </c>
       <c r="X70" t="s">
         <v>143</v>
@@ -32493,7 +33083,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>453</v>
+        <v>309</v>
       </c>
       <c r="X71" t="s">
         <v>144</v>
@@ -32501,7 +33091,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>267</v>
+        <v>453</v>
       </c>
       <c r="X72" t="s">
         <v>145</v>
@@ -32509,7 +33099,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>349</v>
+        <v>267</v>
       </c>
       <c r="X73" t="s">
         <v>202</v>
@@ -32517,7 +33107,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>285</v>
+        <v>558</v>
       </c>
       <c r="X74" t="s">
         <v>203</v>
@@ -32525,7 +33115,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>291</v>
+        <v>349</v>
       </c>
       <c r="X75" t="s">
         <v>501</v>
@@ -32533,7 +33123,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="X76" t="s">
         <v>517</v>
@@ -32541,7 +33131,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>460</v>
+        <v>291</v>
       </c>
       <c r="X77" t="s">
         <v>146</v>
@@ -32549,7 +33139,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>337</v>
+        <v>296</v>
       </c>
       <c r="X78" t="s">
         <v>147</v>
@@ -32557,7 +33147,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>275</v>
+        <v>460</v>
       </c>
       <c r="X79" t="s">
         <v>148</v>
@@ -32565,7 +33155,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>286</v>
+        <v>337</v>
       </c>
       <c r="X80" t="s">
         <v>545</v>
@@ -32573,7 +33163,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="X81" t="s">
         <v>149</v>
@@ -32581,7 +33171,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="X82" t="s">
         <v>150</v>
@@ -32589,7 +33179,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="X83" t="s">
         <v>204</v>
@@ -32597,7 +33187,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="X84" t="s">
         <v>534</v>
@@ -32605,7 +33195,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="X85" t="s">
         <v>205</v>
@@ -32613,7 +33203,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="X86" t="s">
         <v>500</v>
@@ -32621,7 +33211,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="X87" t="s">
         <v>206</v>
@@ -32629,7 +33219,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="X88" t="s">
         <v>207</v>
@@ -32637,7 +33227,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="X89" t="s">
         <v>220</v>
@@ -32645,7 +33235,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="X90" t="s">
         <v>151</v>
@@ -32653,7 +33243,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="X91" t="s">
         <v>208</v>
@@ -32661,18 +33251,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>283</v>
+        <v>345</v>
       </c>
       <c r="X92" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>282</v>
+      </c>
       <c r="X93" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>283</v>
+      </c>
       <c r="X94" t="s">
         <v>209</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -37,7 +37,7 @@
     <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25048" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25568" uniqueCount="561">
   <si>
     <t>jira</t>
   </si>
@@ -1741,6 +1741,12 @@
   </si>
   <si>
     <t>saveTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
   </si>
 </sst>
 </file>
@@ -1748,7 +1754,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="798" x14ac:knownFonts="1">
+  <fonts count="814" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6778,8 +6784,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1381">
+  <fills count="1411">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14601,8 +14708,178 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1415">
+  <borders count="1443">
     <border>
       <left/>
       <right/>
@@ -16252,6 +16529,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -28801,7 +29360,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="824">
+  <cellXfs count="840">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -31243,52 +31802,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="781" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="782" fillId="1356" borderId="1394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="783" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1394" fillId="1356" fontId="782" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="783" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="784" fillId="1359" borderId="1398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1398" fillId="1359" fontId="784" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="785" fillId="1362" borderId="1402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1402" fillId="1362" fontId="785" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="786" fillId="1365" borderId="1402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1402" fillId="1365" fontId="786" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="787" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="787" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="788" fillId="1368" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1368" fontId="788" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="789" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="790" fillId="1371" borderId="1406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="791" fillId="1374" borderId="1410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="792" fillId="1377" borderId="1414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="793" fillId="1377" borderId="1414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="794" fillId="1365" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="795" fillId="1380" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="796" fillId="1365" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="797" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="789" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1406" fillId="1371" fontId="790" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1410" fillId="1374" fontId="791" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1414" fillId="1377" fontId="792" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1414" fillId="1377" fontId="793" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1365" fontId="794" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1380" fontId="795" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1365" fontId="796" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="797" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="798" fillId="1383" borderId="1422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="799" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="800" fillId="1386" borderId="1426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="801" fillId="1389" borderId="1430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="802" fillId="1392" borderId="1430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="803" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="804" fillId="1395" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="805" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="806" fillId="1398" borderId="1434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="807" fillId="1401" borderId="1438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="808" fillId="1404" borderId="1442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="809" fillId="1404" borderId="1442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="810" fillId="1392" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="811" fillId="1407" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="812" fillId="1392" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="813" fillId="1410" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -31613,7 +32220,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -33305,126 +33912,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>153</v>
+        <v>559</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>390</v>
+        <v>153</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>154</v>
+        <v>560</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>155</v>
+        <v>390</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>489</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>168</v>
+        <v>489</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>49</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>172</v>
+        <v>49</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -28,28 +28,29 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25568" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26096" uniqueCount="568">
   <si>
     <t>jira</t>
   </si>
@@ -1747,6 +1748,27 @@
   </si>
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
   </si>
 </sst>
 </file>
@@ -1754,7 +1776,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="814" x14ac:knownFonts="1">
+  <fonts count="830" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6885,8 +6907,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1411">
+  <fills count="1441">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14878,8 +15001,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1443">
+  <borders count="1471">
     <border>
       <left/>
       <right/>
@@ -16529,6 +16822,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -29360,7 +29935,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="840">
+  <cellXfs count="856">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -31850,52 +32425,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="797" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="798" fillId="1383" borderId="1422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="799" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1422" fillId="1383" fontId="798" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="799" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="800" fillId="1386" borderId="1426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1426" fillId="1386" fontId="800" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="801" fillId="1389" borderId="1430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1430" fillId="1389" fontId="801" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="802" fillId="1392" borderId="1430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1430" fillId="1392" fontId="802" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="803" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="803" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="804" fillId="1395" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1395" fontId="804" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="805" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="806" fillId="1398" borderId="1434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="807" fillId="1401" borderId="1438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="808" fillId="1404" borderId="1442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="809" fillId="1404" borderId="1442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="810" fillId="1392" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="811" fillId="1407" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="812" fillId="1392" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="813" fillId="1410" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="805" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1434" fillId="1398" fontId="806" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1438" fillId="1401" fontId="807" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1442" fillId="1404" fontId="808" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1442" fillId="1404" fontId="809" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1392" fontId="810" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1407" fontId="811" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1392" fontId="812" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1410" fontId="813" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="814" fillId="1413" borderId="1450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="815" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="816" fillId="1416" borderId="1454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="817" fillId="1419" borderId="1458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="818" fillId="1422" borderId="1458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="819" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="820" fillId="1425" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="821" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="822" fillId="1428" borderId="1462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="823" fillId="1431" borderId="1466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="824" fillId="1434" borderId="1470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="825" fillId="1434" borderId="1470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="826" fillId="1422" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="827" fillId="1437" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="828" fillId="1422" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="829" fillId="1440" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -32220,7 +32843,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -32272,51 +32895,54 @@
         <v>26</v>
       </c>
       <c r="N1" t="s">
+        <v>561</v>
+      </c>
+      <c r="O1" t="s">
         <v>526</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>200</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>244</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>56</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>442</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>455</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>456</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>364</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>438</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>57</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>59</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>457</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>232</v>
       </c>
     </row>
@@ -32361,51 +32987,54 @@
         <v>461</v>
       </c>
       <c r="N2" t="s">
+        <v>562</v>
+      </c>
+      <c r="O2" t="s">
         <v>529</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>462</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>463</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>258</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>222</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>443</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>467</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>468</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>388</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>439</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>100</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>175</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>180</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>187</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>476</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>540</v>
       </c>
     </row>
@@ -32450,45 +33079,48 @@
         <v>89</v>
       </c>
       <c r="N3" t="s">
+        <v>563</v>
+      </c>
+      <c r="O3" t="s">
         <v>530</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>464</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>245</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>223</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>444</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>469</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>389</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>440</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>101</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>176</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>181</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>371</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>188</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>233</v>
       </c>
     </row>
@@ -32530,45 +33162,48 @@
         <v>27</v>
       </c>
       <c r="N4" t="s">
+        <v>564</v>
+      </c>
+      <c r="O4" t="s">
         <v>531</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>246</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>224</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>445</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>470</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>365</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>441</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>359</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>177</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>182</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>188</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>477</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>234</v>
       </c>
     </row>
@@ -32603,40 +33238,43 @@
       <c r="M5" t="s">
         <v>90</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q5" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>247</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>225</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>446</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>471</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>366</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>360</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>178</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>183</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>189</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>478</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>235</v>
       </c>
     </row>
@@ -32668,37 +33306,40 @@
       <c r="M6" t="s">
         <v>31</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q6" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>248</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>399</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>447</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>368</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>102</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>490</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>184</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>190</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>479</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>236</v>
       </c>
     </row>
@@ -32724,37 +33365,40 @@
       <c r="M7" t="s">
         <v>320</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q7" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>249</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>466</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>448</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>367</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>103</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>491</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>185</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>191</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>480</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>237</v>
       </c>
     </row>
@@ -32780,34 +33424,34 @@
       <c r="M8" t="s">
         <v>36</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>94</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>250</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>449</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>369</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>104</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>179</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>186</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>192</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>481</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>238</v>
       </c>
     </row>
@@ -32833,25 +33477,25 @@
       <c r="M9" t="s">
         <v>37</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>95</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>251</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>450</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>370</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>214</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>193</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>239</v>
       </c>
     </row>
@@ -32874,22 +33518,22 @@
       <c r="M10" t="s">
         <v>38</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>465</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>252</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>451</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>262</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>194</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -32912,19 +33556,19 @@
       <c r="M11" t="s">
         <v>521</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>96</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>253</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>263</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>264</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>541</v>
       </c>
     </row>
@@ -32947,19 +33591,19 @@
       <c r="M12" t="s">
         <v>486</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>43</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>254</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>105</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>195</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>542</v>
       </c>
     </row>
@@ -32982,25 +33626,25 @@
       <c r="M13" t="s">
         <v>522</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>97</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>259</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>331</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>196</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="E14" t="s">
         <v>39</v>
@@ -33017,25 +33661,25 @@
       <c r="M14" t="s">
         <v>41</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>98</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>255</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>106</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>197</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>200</v>
+        <v>526</v>
       </c>
       <c r="E15" t="s">
         <v>62</v>
@@ -33049,25 +33693,25 @@
       <c r="M15" t="s">
         <v>42</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>549</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>256</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>107</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>198</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="E16" t="s">
         <v>392</v>
@@ -33081,25 +33725,25 @@
       <c r="M16" t="s">
         <v>45</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>550</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>257</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>78</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>199</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>244</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
         <v>393</v>
@@ -33110,19 +33754,19 @@
       <c r="K17" t="s">
         <v>85</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>551</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>511</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>244</v>
       </c>
       <c r="E18" t="s">
         <v>458</v>
@@ -33133,16 +33777,16 @@
       <c r="K18" t="s">
         <v>503</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>108</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>442</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
         <v>63</v>
@@ -33153,16 +33797,16 @@
       <c r="K19" t="s">
         <v>86</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>109</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="E20" t="s">
         <v>64</v>
@@ -33173,16 +33817,16 @@
       <c r="K20" t="s">
         <v>87</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>110</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E21" t="s">
         <v>261</v>
@@ -33193,16 +33837,16 @@
       <c r="K21" t="s">
         <v>387</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>111</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>364</v>
+        <v>456</v>
       </c>
       <c r="E22" t="s">
         <v>65</v>
@@ -33213,13 +33857,13 @@
       <c r="K22" t="s">
         <v>520</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>438</v>
+        <v>364</v>
       </c>
       <c r="E23" t="s">
         <v>326</v>
@@ -33230,13 +33874,13 @@
       <c r="K23" t="s">
         <v>46</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>438</v>
       </c>
       <c r="E24" t="s">
         <v>66</v>
@@ -33247,13 +33891,13 @@
       <c r="K24" t="s">
         <v>433</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" t="s">
         <v>495</v>
@@ -33264,13 +33908,13 @@
       <c r="K25" t="s">
         <v>88</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
         <v>230</v>
@@ -33281,13 +33925,13 @@
       <c r="K26" t="s">
         <v>485</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
         <v>231</v>
@@ -33298,13 +33942,13 @@
       <c r="K27" t="s">
         <v>47</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>457</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
         <v>518</v>
@@ -33315,13 +33959,13 @@
       <c r="K28" t="s">
         <v>48</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>232</v>
+        <v>457</v>
       </c>
       <c r="E29" t="s">
         <v>519</v>
@@ -33329,18 +33973,21 @@
       <c r="G29" t="s">
         <v>289</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>232</v>
+      </c>
       <c r="E30" t="s">
         <v>459</v>
       </c>
       <c r="G30" t="s">
         <v>221</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>119</v>
       </c>
     </row>
@@ -33351,7 +33998,7 @@
       <c r="G31" t="s">
         <v>280</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>120</v>
       </c>
     </row>
@@ -33362,7 +34009,7 @@
       <c r="G32" t="s">
         <v>290</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>121</v>
       </c>
     </row>
@@ -33373,7 +34020,7 @@
       <c r="G33" t="s">
         <v>557</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>122</v>
       </c>
     </row>
@@ -33384,7 +34031,7 @@
       <c r="G34" t="s">
         <v>265</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>123</v>
       </c>
     </row>
@@ -33395,7 +34042,7 @@
       <c r="G35" t="s">
         <v>335</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>215</v>
       </c>
     </row>
@@ -33406,7 +34053,7 @@
       <c r="G36" t="s">
         <v>312</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>124</v>
       </c>
     </row>
@@ -33417,7 +34064,7 @@
       <c r="G37" t="s">
         <v>266</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>343</v>
       </c>
     </row>
@@ -33428,7 +34075,7 @@
       <c r="G38" t="s">
         <v>313</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>472</v>
       </c>
     </row>
@@ -33436,7 +34083,7 @@
       <c r="G39" t="s">
         <v>272</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>434</v>
       </c>
     </row>
@@ -33444,7 +34091,7 @@
       <c r="G40" t="s">
         <v>81</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>125</v>
       </c>
     </row>
@@ -33452,7 +34099,7 @@
       <c r="G41" t="s">
         <v>217</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>126</v>
       </c>
     </row>
@@ -33460,7 +34107,7 @@
       <c r="G42" t="s">
         <v>294</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>127</v>
       </c>
     </row>
@@ -33468,7 +34115,7 @@
       <c r="G43" t="s">
         <v>305</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>128</v>
       </c>
     </row>
@@ -33476,7 +34123,7 @@
       <c r="G44" t="s">
         <v>306</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>129</v>
       </c>
     </row>
@@ -33484,7 +34131,7 @@
       <c r="G45" t="s">
         <v>348</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>130</v>
       </c>
     </row>
@@ -33492,7 +34139,7 @@
       <c r="G46" t="s">
         <v>347</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>487</v>
       </c>
     </row>
@@ -33500,7 +34147,7 @@
       <c r="G47" t="s">
         <v>216</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>218</v>
       </c>
     </row>
@@ -33508,7 +34155,7 @@
       <c r="G48" t="s">
         <v>325</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>80</v>
       </c>
     </row>
@@ -33516,7 +34163,7 @@
       <c r="G49" t="s">
         <v>344</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>131</v>
       </c>
     </row>
@@ -33524,7 +34171,7 @@
       <c r="G50" t="s">
         <v>375</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>132</v>
       </c>
     </row>
@@ -33532,7 +34179,7 @@
       <c r="G51" t="s">
         <v>307</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>133</v>
       </c>
     </row>
@@ -33540,7 +34187,7 @@
       <c r="G52" t="s">
         <v>361</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>533</v>
       </c>
     </row>
@@ -33548,7 +34195,7 @@
       <c r="G53" t="s">
         <v>336</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>513</v>
       </c>
     </row>
@@ -33556,7 +34203,7 @@
       <c r="G54" t="s">
         <v>273</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>134</v>
       </c>
     </row>
@@ -33564,7 +34211,7 @@
       <c r="G55" t="s">
         <v>297</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>351</v>
       </c>
     </row>
@@ -33572,7 +34219,7 @@
       <c r="G56" t="s">
         <v>298</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>506</v>
       </c>
     </row>
@@ -33580,7 +34227,7 @@
       <c r="G57" t="s">
         <v>299</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>135</v>
       </c>
     </row>
@@ -33588,7 +34235,7 @@
       <c r="G58" t="s">
         <v>308</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>136</v>
       </c>
     </row>
@@ -33596,7 +34243,7 @@
       <c r="G59" t="s">
         <v>317</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>137</v>
       </c>
     </row>
@@ -33604,7 +34251,7 @@
       <c r="G60" t="s">
         <v>342</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>138</v>
       </c>
     </row>
@@ -33612,7 +34259,7 @@
       <c r="G61" t="s">
         <v>314</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>139</v>
       </c>
     </row>
@@ -33620,7 +34267,7 @@
       <c r="G62" t="s">
         <v>315</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>140</v>
       </c>
     </row>
@@ -33628,7 +34275,7 @@
       <c r="G63" t="s">
         <v>376</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>141</v>
       </c>
     </row>
@@ -33636,7 +34283,7 @@
       <c r="G64" t="s">
         <v>377</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>483</v>
       </c>
     </row>
@@ -33644,7 +34291,7 @@
       <c r="G65" t="s">
         <v>350</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>523</v>
       </c>
     </row>
@@ -33652,7 +34299,7 @@
       <c r="G66" t="s">
         <v>318</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>219</v>
       </c>
     </row>
@@ -33660,7 +34307,7 @@
       <c r="G67" t="s">
         <v>274</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>396</v>
       </c>
     </row>
@@ -33668,7 +34315,7 @@
       <c r="G68" t="s">
         <v>358</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>488</v>
       </c>
     </row>
@@ -33676,7 +34323,7 @@
       <c r="G69" t="s">
         <v>319</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>142</v>
       </c>
     </row>
@@ -33684,7 +34331,7 @@
       <c r="G70" t="s">
         <v>452</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>143</v>
       </c>
     </row>
@@ -33692,7 +34339,7 @@
       <c r="G71" t="s">
         <v>309</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>144</v>
       </c>
     </row>
@@ -33700,7 +34347,7 @@
       <c r="G72" t="s">
         <v>453</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>145</v>
       </c>
     </row>
@@ -33708,7 +34355,7 @@
       <c r="G73" t="s">
         <v>267</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>202</v>
       </c>
     </row>
@@ -33716,7 +34363,7 @@
       <c r="G74" t="s">
         <v>558</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>203</v>
       </c>
     </row>
@@ -33724,7 +34371,7 @@
       <c r="G75" t="s">
         <v>349</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>501</v>
       </c>
     </row>
@@ -33732,7 +34379,7 @@
       <c r="G76" t="s">
         <v>285</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>517</v>
       </c>
     </row>
@@ -33740,7 +34387,7 @@
       <c r="G77" t="s">
         <v>291</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>146</v>
       </c>
     </row>
@@ -33748,7 +34395,7 @@
       <c r="G78" t="s">
         <v>296</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>147</v>
       </c>
     </row>
@@ -33756,7 +34403,7 @@
       <c r="G79" t="s">
         <v>460</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>148</v>
       </c>
     </row>
@@ -33764,7 +34411,7 @@
       <c r="G80" t="s">
         <v>337</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>545</v>
       </c>
     </row>
@@ -33772,7 +34419,7 @@
       <c r="G81" t="s">
         <v>275</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>149</v>
       </c>
     </row>
@@ -33780,7 +34427,7 @@
       <c r="G82" t="s">
         <v>286</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>150</v>
       </c>
     </row>
@@ -33788,7 +34435,7 @@
       <c r="G83" t="s">
         <v>292</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>204</v>
       </c>
     </row>
@@ -33796,7 +34443,7 @@
       <c r="G84" t="s">
         <v>281</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>534</v>
       </c>
     </row>
@@ -33804,7 +34451,7 @@
       <c r="G85" t="s">
         <v>276</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>205</v>
       </c>
     </row>
@@ -33812,7 +34459,7 @@
       <c r="G86" t="s">
         <v>293</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>500</v>
       </c>
     </row>
@@ -33820,7 +34467,7 @@
       <c r="G87" t="s">
         <v>277</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>206</v>
       </c>
     </row>
@@ -33828,7 +34475,7 @@
       <c r="G88" t="s">
         <v>278</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>207</v>
       </c>
     </row>
@@ -33836,7 +34483,7 @@
       <c r="G89" t="s">
         <v>310</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>220</v>
       </c>
     </row>
@@ -33844,7 +34491,7 @@
       <c r="G90" t="s">
         <v>316</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>151</v>
       </c>
     </row>
@@ -33852,7 +34499,7 @@
       <c r="G91" t="s">
         <v>300</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>208</v>
       </c>
     </row>
@@ -33860,7 +34507,7 @@
       <c r="G92" t="s">
         <v>345</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>474</v>
       </c>
     </row>
@@ -33868,7 +34515,7 @@
       <c r="G93" t="s">
         <v>282</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>482</v>
       </c>
     </row>
@@ -33876,172 +34523,172 @@
       <c r="G94" t="s">
         <v>283</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -25,7 +25,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -50,7 +50,7 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26096" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27159" uniqueCount="572">
   <si>
     <t>jira</t>
   </si>
@@ -1769,6 +1769,18 @@
   </si>
   <si>
     <t>runSQLs(var,sqls)</t>
+  </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
 </sst>
 </file>
@@ -1776,7 +1788,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="830" x14ac:knownFonts="1">
+  <fonts count="862" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7008,8 +7020,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1441">
+  <fills count="1501">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15171,8 +15385,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1471">
+  <borders count="1527">
     <border>
       <left/>
       <right/>
@@ -16822,6 +17376,570 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -29935,7 +31053,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="856">
+  <cellXfs count="888">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -32473,52 +33591,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1410" fontId="813" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="814" fillId="1413" borderId="1450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="815" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1450" fillId="1413" fontId="814" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="815" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="816" fillId="1416" borderId="1454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1454" fillId="1416" fontId="816" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="817" fillId="1419" borderId="1458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1458" fillId="1419" fontId="817" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="818" fillId="1422" borderId="1458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1458" fillId="1422" fontId="818" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="819" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="819" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="820" fillId="1425" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1425" fontId="820" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="821" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="822" fillId="1428" borderId="1462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="823" fillId="1431" borderId="1466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="824" fillId="1434" borderId="1470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="825" fillId="1434" borderId="1470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="826" fillId="1422" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="827" fillId="1437" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="828" fillId="1422" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="829" fillId="1440" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="821" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1462" fillId="1428" fontId="822" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1466" fillId="1431" fontId="823" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1470" fillId="1434" fontId="824" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1470" fillId="1434" fontId="825" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1422" fontId="826" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1437" fontId="827" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1422" fontId="828" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1440" fontId="829" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1478" fillId="1443" fontId="830" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="831" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1482" fillId="1446" fontId="832" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1486" fillId="1449" fontId="833" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1486" fillId="1452" fontId="834" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="835" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1455" fontId="836" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="837" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1490" fillId="1458" fontId="838" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1494" fillId="1461" fontId="839" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1498" fillId="1464" fontId="840" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1498" fillId="1464" fontId="841" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1452" fontId="842" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1467" fontId="843" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1452" fontId="844" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1470" fontId="845" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="846" fillId="1473" borderId="1506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="847" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="848" fillId="1476" borderId="1510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="849" fillId="1479" borderId="1514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="850" fillId="1482" borderId="1514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="851" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="852" fillId="1485" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="853" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="854" fillId="1488" borderId="1518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="855" fillId="1491" borderId="1522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="856" fillId="1494" borderId="1526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="857" fillId="1494" borderId="1526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="858" fillId="1482" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="859" fillId="1497" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="860" fillId="1482" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="861" fillId="1500" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -33239,7 +34453,7 @@
         <v>90</v>
       </c>
       <c r="N5" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="Q5" t="s">
         <v>32</v>
@@ -33307,7 +34521,7 @@
         <v>31</v>
       </c>
       <c r="N6" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="Q6" t="s">
         <v>33</v>
@@ -33366,7 +34580,7 @@
         <v>320</v>
       </c>
       <c r="N7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="Q7" t="s">
         <v>35</v>
@@ -33424,6 +34638,9 @@
       <c r="M8" t="s">
         <v>36</v>
       </c>
+      <c r="N8" t="s">
+        <v>565</v>
+      </c>
       <c r="Q8" t="s">
         <v>94</v>
       </c>
@@ -33477,6 +34694,9 @@
       <c r="M9" t="s">
         <v>37</v>
       </c>
+      <c r="N9" t="s">
+        <v>566</v>
+      </c>
       <c r="Q9" t="s">
         <v>95</v>
       </c>
@@ -33518,6 +34738,9 @@
       <c r="M10" t="s">
         <v>38</v>
       </c>
+      <c r="N10" t="s">
+        <v>567</v>
+      </c>
       <c r="Q10" t="s">
         <v>465</v>
       </c>
@@ -33906,7 +35129,7 @@
         <v>79</v>
       </c>
       <c r="K25" t="s">
-        <v>88</v>
+        <v>571</v>
       </c>
       <c r="Y25" t="s">
         <v>115</v>
@@ -33923,7 +35146,7 @@
         <v>287</v>
       </c>
       <c r="K26" t="s">
-        <v>485</v>
+        <v>88</v>
       </c>
       <c r="Y26" t="s">
         <v>116</v>
@@ -33940,7 +35163,7 @@
         <v>271</v>
       </c>
       <c r="K27" t="s">
-        <v>47</v>
+        <v>485</v>
       </c>
       <c r="Y27" t="s">
         <v>117</v>
@@ -33957,7 +35180,7 @@
         <v>288</v>
       </c>
       <c r="K28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y28" t="s">
         <v>332</v>
@@ -33972,6 +35195,9 @@
       </c>
       <c r="G29" t="s">
         <v>289</v>
+      </c>
+      <c r="K29" t="s">
+        <v>48</v>
       </c>
       <c r="Y29" t="s">
         <v>118</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -49,8 +49,8 @@
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27159" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27694" uniqueCount="576">
   <si>
     <t>jira</t>
   </si>
@@ -1781,6 +1781,18 @@
   </si>
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
 </sst>
 </file>
@@ -1788,7 +1800,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="862" x14ac:knownFonts="1">
+  <fonts count="878" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7222,8 +7234,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1501">
+  <fills count="1531">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15725,8 +15838,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1527">
+  <borders count="1555">
     <border>
       <left/>
       <right/>
@@ -17376,6 +17659,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -31053,7 +31618,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="888">
+  <cellXfs count="904">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -33687,52 +34252,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1470" fontId="845" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="846" fillId="1473" borderId="1506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="847" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1506" fillId="1473" fontId="846" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="847" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="848" fillId="1476" borderId="1510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1510" fillId="1476" fontId="848" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="849" fillId="1479" borderId="1514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1514" fillId="1479" fontId="849" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="850" fillId="1482" borderId="1514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1514" fillId="1482" fontId="850" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="851" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="851" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="852" fillId="1485" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1485" fontId="852" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="853" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="854" fillId="1488" borderId="1518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="855" fillId="1491" borderId="1522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="856" fillId="1494" borderId="1526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="857" fillId="1494" borderId="1526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="858" fillId="1482" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="859" fillId="1497" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="860" fillId="1482" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="861" fillId="1500" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="853" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1518" fillId="1488" fontId="854" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1522" fillId="1491" fontId="855" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1526" fillId="1494" fontId="856" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1526" fillId="1494" fontId="857" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1482" fontId="858" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1497" fontId="859" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1482" fontId="860" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1500" fontId="861" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="862" fillId="1503" borderId="1534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="863" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="864" fillId="1506" borderId="1538" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="865" fillId="1509" borderId="1542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="866" fillId="1512" borderId="1542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="867" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="868" fillId="1515" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="869" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="870" fillId="1518" borderId="1546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="871" fillId="1521" borderId="1550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="872" fillId="1524" borderId="1554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="873" fillId="1524" borderId="1554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="874" fillId="1512" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="875" fillId="1527" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="876" fillId="1512" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="877" fillId="1530" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -34263,7 +34876,7 @@
         <v>509</v>
       </c>
       <c r="D3" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
       <c r="E3" t="s">
         <v>504</v>
@@ -34346,7 +34959,7 @@
         <v>381</v>
       </c>
       <c r="D4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -34429,7 +35042,7 @@
         <v>382</v>
       </c>
       <c r="D5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E5" t="s">
         <v>505</v>
@@ -34453,7 +35066,7 @@
         <v>90</v>
       </c>
       <c r="N5" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="Q5" t="s">
         <v>32</v>
@@ -34499,6 +35112,9 @@
       <c r="B6" t="s">
         <v>383</v>
       </c>
+      <c r="D6" t="s">
+        <v>539</v>
+      </c>
       <c r="E6" t="s">
         <v>29</v>
       </c>
@@ -34521,7 +35137,7 @@
         <v>31</v>
       </c>
       <c r="N6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="Q6" t="s">
         <v>33</v>
@@ -34580,7 +35196,7 @@
         <v>320</v>
       </c>
       <c r="N7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="Q7" t="s">
         <v>35</v>
@@ -34639,7 +35255,7 @@
         <v>36</v>
       </c>
       <c r="N8" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="Q8" t="s">
         <v>94</v>
@@ -34695,7 +35311,7 @@
         <v>37</v>
       </c>
       <c r="N9" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="Q9" t="s">
         <v>95</v>
@@ -34739,7 +35355,7 @@
         <v>38</v>
       </c>
       <c r="N10" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="Q10" t="s">
         <v>465</v>
@@ -34779,6 +35395,9 @@
       <c r="M11" t="s">
         <v>521</v>
       </c>
+      <c r="N11" t="s">
+        <v>566</v>
+      </c>
       <c r="Q11" t="s">
         <v>96</v>
       </c>
@@ -34814,6 +35433,9 @@
       <c r="M12" t="s">
         <v>486</v>
       </c>
+      <c r="N12" t="s">
+        <v>567</v>
+      </c>
       <c r="Q12" t="s">
         <v>43</v>
       </c>
@@ -35129,7 +35751,7 @@
         <v>79</v>
       </c>
       <c r="K25" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="Y25" t="s">
         <v>115</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -23,7 +23,7 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
@@ -37,7 +37,7 @@
     <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27694" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28231" uniqueCount="578">
   <si>
     <t>jira</t>
   </si>
@@ -1793,6 +1793,12 @@
   </si>
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1800,7 +1806,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="878" x14ac:knownFonts="1">
+  <fonts count="894" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7335,8 +7341,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1531">
+  <fills count="1561">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16008,8 +16115,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1555">
+  <borders count="1583">
     <border>
       <left/>
       <right/>
@@ -17659,6 +17936,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -31618,7 +32177,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="904">
+  <cellXfs count="920">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -34300,52 +34859,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1500" fontId="861" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="862" fillId="1503" borderId="1534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="863" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1534" fillId="1503" fontId="862" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="863" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="864" fillId="1506" borderId="1538" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1538" fillId="1506" fontId="864" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="865" fillId="1509" borderId="1542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1542" fillId="1509" fontId="865" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="866" fillId="1512" borderId="1542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1542" fillId="1512" fontId="866" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="867" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="867" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="868" fillId="1515" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1515" fontId="868" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="869" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="870" fillId="1518" borderId="1546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="871" fillId="1521" borderId="1550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="872" fillId="1524" borderId="1554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="873" fillId="1524" borderId="1554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="874" fillId="1512" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="875" fillId="1527" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="876" fillId="1512" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="877" fillId="1530" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="869" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1546" fillId="1518" fontId="870" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1550" fillId="1521" fontId="871" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1554" fillId="1524" fontId="872" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1554" fillId="1524" fontId="873" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1512" fontId="874" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1527" fontId="875" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1512" fontId="876" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1530" fontId="877" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="878" fillId="1533" borderId="1562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="879" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="880" fillId="1536" borderId="1566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="881" fillId="1539" borderId="1570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="882" fillId="1542" borderId="1570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="883" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="884" fillId="1545" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="885" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="886" fillId="1548" borderId="1574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="887" fillId="1551" borderId="1578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="888" fillId="1554" borderId="1582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="889" fillId="1554" borderId="1582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="890" fillId="1542" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="891" fillId="1557" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="892" fillId="1542" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="893" fillId="1560" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -34670,7 +35277,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE128"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -35056,6 +35663,9 @@
       <c r="H5" t="s">
         <v>502</v>
       </c>
+      <c r="I5" t="s">
+        <v>576</v>
+      </c>
       <c r="J5" t="s">
         <v>356</v>
       </c>
@@ -35932,7 +36542,7 @@
         <v>272</v>
       </c>
       <c r="Y39" t="s">
-        <v>434</v>
+        <v>577</v>
       </c>
     </row>
     <row r="40">
@@ -35940,7 +36550,7 @@
         <v>81</v>
       </c>
       <c r="Y40" t="s">
-        <v>125</v>
+        <v>434</v>
       </c>
     </row>
     <row r="41">
@@ -35948,7 +36558,7 @@
         <v>217</v>
       </c>
       <c r="Y41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42">
@@ -35956,7 +36566,7 @@
         <v>294</v>
       </c>
       <c r="Y42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43">
@@ -35964,7 +36574,7 @@
         <v>305</v>
       </c>
       <c r="Y43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44">
@@ -35972,7 +36582,7 @@
         <v>306</v>
       </c>
       <c r="Y44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45">
@@ -35980,7 +36590,7 @@
         <v>348</v>
       </c>
       <c r="Y45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46">
@@ -35988,7 +36598,7 @@
         <v>347</v>
       </c>
       <c r="Y46" t="s">
-        <v>487</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47">
@@ -35996,7 +36606,7 @@
         <v>216</v>
       </c>
       <c r="Y47" t="s">
-        <v>218</v>
+        <v>487</v>
       </c>
     </row>
     <row r="48">
@@ -36004,7 +36614,7 @@
         <v>325</v>
       </c>
       <c r="Y48" t="s">
-        <v>80</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49">
@@ -36012,7 +36622,7 @@
         <v>344</v>
       </c>
       <c r="Y49" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50">
@@ -36020,7 +36630,7 @@
         <v>375</v>
       </c>
       <c r="Y50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51">
@@ -36028,7 +36638,7 @@
         <v>307</v>
       </c>
       <c r="Y51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52">
@@ -36036,7 +36646,7 @@
         <v>361</v>
       </c>
       <c r="Y52" t="s">
-        <v>533</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53">
@@ -36044,7 +36654,7 @@
         <v>336</v>
       </c>
       <c r="Y53" t="s">
-        <v>513</v>
+        <v>533</v>
       </c>
     </row>
     <row r="54">
@@ -36052,7 +36662,7 @@
         <v>273</v>
       </c>
       <c r="Y54" t="s">
-        <v>134</v>
+        <v>513</v>
       </c>
     </row>
     <row r="55">
@@ -36060,7 +36670,7 @@
         <v>297</v>
       </c>
       <c r="Y55" t="s">
-        <v>351</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56">
@@ -36068,7 +36678,7 @@
         <v>298</v>
       </c>
       <c r="Y56" t="s">
-        <v>506</v>
+        <v>351</v>
       </c>
     </row>
     <row r="57">
@@ -36076,7 +36686,7 @@
         <v>299</v>
       </c>
       <c r="Y57" t="s">
-        <v>135</v>
+        <v>506</v>
       </c>
     </row>
     <row r="58">
@@ -36084,7 +36694,7 @@
         <v>308</v>
       </c>
       <c r="Y58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59">
@@ -36092,7 +36702,7 @@
         <v>317</v>
       </c>
       <c r="Y59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60">
@@ -36100,7 +36710,7 @@
         <v>342</v>
       </c>
       <c r="Y60" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61">
@@ -36108,7 +36718,7 @@
         <v>314</v>
       </c>
       <c r="Y61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62">
@@ -36116,7 +36726,7 @@
         <v>315</v>
       </c>
       <c r="Y62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63">
@@ -36124,7 +36734,7 @@
         <v>376</v>
       </c>
       <c r="Y63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64">
@@ -36132,7 +36742,7 @@
         <v>377</v>
       </c>
       <c r="Y64" t="s">
-        <v>483</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65">
@@ -36140,7 +36750,7 @@
         <v>350</v>
       </c>
       <c r="Y65" t="s">
-        <v>523</v>
+        <v>483</v>
       </c>
     </row>
     <row r="66">
@@ -36148,7 +36758,7 @@
         <v>318</v>
       </c>
       <c r="Y66" t="s">
-        <v>219</v>
+        <v>523</v>
       </c>
     </row>
     <row r="67">
@@ -36156,7 +36766,7 @@
         <v>274</v>
       </c>
       <c r="Y67" t="s">
-        <v>396</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68">
@@ -36164,7 +36774,7 @@
         <v>358</v>
       </c>
       <c r="Y68" t="s">
-        <v>488</v>
+        <v>396</v>
       </c>
     </row>
     <row r="69">
@@ -36172,7 +36782,7 @@
         <v>319</v>
       </c>
       <c r="Y69" t="s">
-        <v>142</v>
+        <v>488</v>
       </c>
     </row>
     <row r="70">
@@ -36180,7 +36790,7 @@
         <v>452</v>
       </c>
       <c r="Y70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71">
@@ -36188,7 +36798,7 @@
         <v>309</v>
       </c>
       <c r="Y71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72">
@@ -36196,7 +36806,7 @@
         <v>453</v>
       </c>
       <c r="Y72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73">
@@ -36204,7 +36814,7 @@
         <v>267</v>
       </c>
       <c r="Y73" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74">
@@ -36212,7 +36822,7 @@
         <v>558</v>
       </c>
       <c r="Y74" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75">
@@ -36220,7 +36830,7 @@
         <v>349</v>
       </c>
       <c r="Y75" t="s">
-        <v>501</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76">
@@ -36228,7 +36838,7 @@
         <v>285</v>
       </c>
       <c r="Y76" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
     </row>
     <row r="77">
@@ -36236,7 +36846,7 @@
         <v>291</v>
       </c>
       <c r="Y77" t="s">
-        <v>146</v>
+        <v>517</v>
       </c>
     </row>
     <row r="78">
@@ -36244,7 +36854,7 @@
         <v>296</v>
       </c>
       <c r="Y78" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79">
@@ -36252,7 +36862,7 @@
         <v>460</v>
       </c>
       <c r="Y79" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80">
@@ -36260,7 +36870,7 @@
         <v>337</v>
       </c>
       <c r="Y80" t="s">
-        <v>545</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81">
@@ -36268,7 +36878,7 @@
         <v>275</v>
       </c>
       <c r="Y81" t="s">
-        <v>149</v>
+        <v>545</v>
       </c>
     </row>
     <row r="82">
@@ -36276,7 +36886,7 @@
         <v>286</v>
       </c>
       <c r="Y82" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83">
@@ -36284,7 +36894,7 @@
         <v>292</v>
       </c>
       <c r="Y83" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84">
@@ -36292,7 +36902,7 @@
         <v>281</v>
       </c>
       <c r="Y84" t="s">
-        <v>534</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85">
@@ -36300,7 +36910,7 @@
         <v>276</v>
       </c>
       <c r="Y85" t="s">
-        <v>205</v>
+        <v>534</v>
       </c>
     </row>
     <row r="86">
@@ -36308,7 +36918,7 @@
         <v>293</v>
       </c>
       <c r="Y86" t="s">
-        <v>500</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87">
@@ -36316,7 +36926,7 @@
         <v>277</v>
       </c>
       <c r="Y87" t="s">
-        <v>206</v>
+        <v>500</v>
       </c>
     </row>
     <row r="88">
@@ -36324,7 +36934,7 @@
         <v>278</v>
       </c>
       <c r="Y88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89">
@@ -36332,7 +36942,7 @@
         <v>310</v>
       </c>
       <c r="Y89" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90">
@@ -36340,7 +36950,7 @@
         <v>316</v>
       </c>
       <c r="Y90" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
     </row>
     <row r="91">
@@ -36348,7 +36958,7 @@
         <v>300</v>
       </c>
       <c r="Y91" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92">
@@ -36356,7 +36966,7 @@
         <v>345</v>
       </c>
       <c r="Y92" t="s">
-        <v>474</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93">
@@ -36364,7 +36974,7 @@
         <v>282</v>
       </c>
       <c r="Y93" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="94">
@@ -36372,171 +36982,176 @@
         <v>283</v>
       </c>
       <c r="Y94" t="s">
-        <v>209</v>
+        <v>482</v>
       </c>
     </row>
     <row r="95">
       <c r="Y95" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>556</v>
+        <v>213</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>153</v>
+        <v>559</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>560</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>390</v>
+        <v>560</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>154</v>
+        <v>390</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>489</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>167</v>
+        <v>489</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>171</v>
+        <v>49</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Y128" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -21,13 +21,13 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -37,11 +37,11 @@
     <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="redis">'#system'!$T$2:$T$10</definedName>
     <definedName name="sms">'#system'!$U$2:$U$2</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28231" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28778" uniqueCount="589">
   <si>
     <t>jira</t>
   </si>
@@ -1799,6 +1799,39 @@
   </si>
   <si>
     <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
   </si>
 </sst>
 </file>
@@ -1806,7 +1839,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="894" x14ac:knownFonts="1">
+  <fonts count="910" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7442,8 +7475,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1561">
+  <fills count="1588">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16285,8 +16419,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1583">
+  <borders count="1615">
     <border>
       <left/>
       <right/>
@@ -31992,6 +32279,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -32177,7 +32790,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="920">
+  <cellXfs count="936">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -34907,52 +35520,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1530" fontId="877" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="878" fillId="1533" borderId="1562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="879" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1562" fillId="1533" fontId="878" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="879" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="880" fillId="1536" borderId="1566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1566" fillId="1536" fontId="880" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="881" fillId="1539" borderId="1570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1570" fillId="1539" fontId="881" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="882" fillId="1542" borderId="1570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1570" fillId="1542" fontId="882" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="883" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="883" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="884" fillId="1545" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1545" fontId="884" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="885" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="886" fillId="1548" borderId="1574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="887" fillId="1551" borderId="1578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="888" fillId="1554" borderId="1582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="889" fillId="1554" borderId="1582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="890" fillId="1542" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="891" fillId="1557" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="892" fillId="1542" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="893" fillId="1560" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="885" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1574" fillId="1548" fontId="886" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1578" fillId="1551" fontId="887" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1582" fillId="1554" fontId="888" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1582" fillId="1554" fontId="889" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1542" fontId="890" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1557" fontId="891" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1542" fontId="892" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1560" fontId="893" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="894" fillId="1563" borderId="1590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="895" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="896" fillId="1566" borderId="1594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="897" fillId="1569" borderId="1598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="898" fillId="1572" borderId="1602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="899" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="900" fillId="1575" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="901" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="902" fillId="1578" borderId="1606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="903" fillId="1569" borderId="1610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="904" fillId="1581" borderId="1614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="905" fillId="1581" borderId="1614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="906" fillId="1572" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="907" fillId="1584" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="908" fillId="1572" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="909" fillId="1587" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -35277,7 +35938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE128"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -35799,6 +36460,9 @@
       <c r="H7" t="s">
         <v>493</v>
       </c>
+      <c r="J7" t="s">
+        <v>580</v>
+      </c>
       <c r="K7" t="s">
         <v>18</v>
       </c>
@@ -35839,7 +36503,7 @@
         <v>480</v>
       </c>
       <c r="AD7" t="s">
-        <v>237</v>
+        <v>583</v>
       </c>
     </row>
     <row r="8">
@@ -35895,7 +36559,7 @@
         <v>481</v>
       </c>
       <c r="AD8" t="s">
-        <v>238</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9">
@@ -35942,7 +36606,7 @@
         <v>193</v>
       </c>
       <c r="AD9" t="s">
-        <v>239</v>
+        <v>585</v>
       </c>
     </row>
     <row r="10">
@@ -35983,7 +36647,7 @@
         <v>194</v>
       </c>
       <c r="AD10" t="s">
-        <v>524</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11">
@@ -36021,7 +36685,7 @@
         <v>264</v>
       </c>
       <c r="AD11" t="s">
-        <v>541</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12">
@@ -36041,7 +36705,7 @@
         <v>397</v>
       </c>
       <c r="M12" t="s">
-        <v>486</v>
+        <v>581</v>
       </c>
       <c r="N12" t="s">
         <v>567</v>
@@ -36059,7 +36723,7 @@
         <v>195</v>
       </c>
       <c r="AD12" t="s">
-        <v>542</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13">
@@ -36079,7 +36743,7 @@
         <v>19</v>
       </c>
       <c r="M13" t="s">
-        <v>522</v>
+        <v>486</v>
       </c>
       <c r="Q13" t="s">
         <v>97</v>
@@ -36094,7 +36758,7 @@
         <v>196</v>
       </c>
       <c r="AD13" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14">
@@ -36114,7 +36778,7 @@
         <v>44</v>
       </c>
       <c r="M14" t="s">
-        <v>41</v>
+        <v>522</v>
       </c>
       <c r="Q14" t="s">
         <v>98</v>
@@ -36129,7 +36793,7 @@
         <v>197</v>
       </c>
       <c r="AD14" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15">
@@ -36146,7 +36810,7 @@
         <v>555</v>
       </c>
       <c r="M15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q15" t="s">
         <v>549</v>
@@ -36161,7 +36825,7 @@
         <v>198</v>
       </c>
       <c r="AD15" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
     </row>
     <row r="16">
@@ -36178,7 +36842,7 @@
         <v>84</v>
       </c>
       <c r="M16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q16" t="s">
         <v>550</v>
@@ -36193,7 +36857,7 @@
         <v>199</v>
       </c>
       <c r="AD16" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="17">
@@ -36209,6 +36873,9 @@
       <c r="K17" t="s">
         <v>85</v>
       </c>
+      <c r="M17" t="s">
+        <v>45</v>
+      </c>
       <c r="Y17" t="s">
         <v>551</v>
       </c>
@@ -36216,7 +36883,7 @@
         <v>511</v>
       </c>
       <c r="AD17" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="18">
@@ -36236,7 +36903,7 @@
         <v>108</v>
       </c>
       <c r="AD18" t="s">
-        <v>548</v>
+        <v>525</v>
       </c>
     </row>
     <row r="19">
@@ -36256,7 +36923,7 @@
         <v>109</v>
       </c>
       <c r="AD19" t="s">
-        <v>240</v>
+        <v>543</v>
       </c>
     </row>
     <row r="20">
@@ -36276,7 +36943,7 @@
         <v>110</v>
       </c>
       <c r="AD20" t="s">
-        <v>241</v>
+        <v>544</v>
       </c>
     </row>
     <row r="21">
@@ -36296,7 +36963,7 @@
         <v>111</v>
       </c>
       <c r="AD21" t="s">
-        <v>242</v>
+        <v>548</v>
       </c>
     </row>
     <row r="22">
@@ -36315,6 +36982,9 @@
       <c r="Y22" t="s">
         <v>532</v>
       </c>
+      <c r="AD22" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -36332,6 +37002,9 @@
       <c r="Y23" t="s">
         <v>113</v>
       </c>
+      <c r="AD23" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -36349,6 +37022,9 @@
       <c r="Y24" t="s">
         <v>114</v>
       </c>
+      <c r="AD24" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -36366,6 +37042,9 @@
       <c r="Y25" t="s">
         <v>115</v>
       </c>
+      <c r="AD25" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -36383,6 +37062,9 @@
       <c r="Y26" t="s">
         <v>116</v>
       </c>
+      <c r="AD26" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -36400,6 +37082,9 @@
       <c r="Y27" t="s">
         <v>117</v>
       </c>
+      <c r="AD27" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -36630,7 +37315,7 @@
         <v>375</v>
       </c>
       <c r="Y50" t="s">
-        <v>131</v>
+        <v>582</v>
       </c>
     </row>
     <row r="51">
@@ -36638,7 +37323,7 @@
         <v>307</v>
       </c>
       <c r="Y51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52">
@@ -36646,7 +37331,7 @@
         <v>361</v>
       </c>
       <c r="Y52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53">
@@ -36654,7 +37339,7 @@
         <v>336</v>
       </c>
       <c r="Y53" t="s">
-        <v>533</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54">
@@ -36662,7 +37347,7 @@
         <v>273</v>
       </c>
       <c r="Y54" t="s">
-        <v>513</v>
+        <v>533</v>
       </c>
     </row>
     <row r="55">
@@ -36670,7 +37355,7 @@
         <v>297</v>
       </c>
       <c r="Y55" t="s">
-        <v>134</v>
+        <v>513</v>
       </c>
     </row>
     <row r="56">
@@ -36678,7 +37363,7 @@
         <v>298</v>
       </c>
       <c r="Y56" t="s">
-        <v>351</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57">
@@ -36686,7 +37371,7 @@
         <v>299</v>
       </c>
       <c r="Y57" t="s">
-        <v>506</v>
+        <v>351</v>
       </c>
     </row>
     <row r="58">
@@ -36694,7 +37379,7 @@
         <v>308</v>
       </c>
       <c r="Y58" t="s">
-        <v>135</v>
+        <v>506</v>
       </c>
     </row>
     <row r="59">
@@ -36702,7 +37387,7 @@
         <v>317</v>
       </c>
       <c r="Y59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60">
@@ -36710,7 +37395,7 @@
         <v>342</v>
       </c>
       <c r="Y60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61">
@@ -36718,7 +37403,7 @@
         <v>314</v>
       </c>
       <c r="Y61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62">
@@ -36726,7 +37411,7 @@
         <v>315</v>
       </c>
       <c r="Y62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63">
@@ -36734,7 +37419,7 @@
         <v>376</v>
       </c>
       <c r="Y63" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64">
@@ -36742,7 +37427,7 @@
         <v>377</v>
       </c>
       <c r="Y64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65">
@@ -36750,7 +37435,7 @@
         <v>350</v>
       </c>
       <c r="Y65" t="s">
-        <v>483</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66">
@@ -36758,7 +37443,7 @@
         <v>318</v>
       </c>
       <c r="Y66" t="s">
-        <v>523</v>
+        <v>483</v>
       </c>
     </row>
     <row r="67">
@@ -36766,15 +37451,15 @@
         <v>274</v>
       </c>
       <c r="Y67" t="s">
-        <v>219</v>
+        <v>523</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>358</v>
+        <v>578</v>
       </c>
       <c r="Y68" t="s">
-        <v>396</v>
+        <v>219</v>
       </c>
     </row>
     <row r="69">
@@ -36782,7 +37467,7 @@
         <v>319</v>
       </c>
       <c r="Y69" t="s">
-        <v>488</v>
+        <v>396</v>
       </c>
     </row>
     <row r="70">
@@ -36790,7 +37475,7 @@
         <v>452</v>
       </c>
       <c r="Y70" t="s">
-        <v>142</v>
+        <v>488</v>
       </c>
     </row>
     <row r="71">
@@ -36798,7 +37483,7 @@
         <v>309</v>
       </c>
       <c r="Y71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72">
@@ -36806,7 +37491,7 @@
         <v>453</v>
       </c>
       <c r="Y72" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73">
@@ -36814,7 +37499,7 @@
         <v>267</v>
       </c>
       <c r="Y73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74">
@@ -36822,7 +37507,7 @@
         <v>558</v>
       </c>
       <c r="Y74" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75">
@@ -36830,7 +37515,7 @@
         <v>349</v>
       </c>
       <c r="Y75" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76">
@@ -36838,7 +37523,7 @@
         <v>285</v>
       </c>
       <c r="Y76" t="s">
-        <v>501</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77">
@@ -36846,7 +37531,7 @@
         <v>291</v>
       </c>
       <c r="Y77" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
     </row>
     <row r="78">
@@ -36854,7 +37539,7 @@
         <v>296</v>
       </c>
       <c r="Y78" t="s">
-        <v>146</v>
+        <v>517</v>
       </c>
     </row>
     <row r="79">
@@ -36862,7 +37547,7 @@
         <v>460</v>
       </c>
       <c r="Y79" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80">
@@ -36870,7 +37555,7 @@
         <v>337</v>
       </c>
       <c r="Y80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81">
@@ -36878,7 +37563,7 @@
         <v>275</v>
       </c>
       <c r="Y81" t="s">
-        <v>545</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82">
@@ -36886,7 +37571,7 @@
         <v>286</v>
       </c>
       <c r="Y82" t="s">
-        <v>149</v>
+        <v>545</v>
       </c>
     </row>
     <row r="83">
@@ -36894,7 +37579,7 @@
         <v>292</v>
       </c>
       <c r="Y83" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84">
@@ -36902,256 +37587,264 @@
         <v>281</v>
       </c>
       <c r="Y84" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>276</v>
+        <v>579</v>
       </c>
       <c r="Y85" t="s">
-        <v>534</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="Y86" t="s">
-        <v>205</v>
+        <v>534</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="Y87" t="s">
-        <v>500</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Y88" t="s">
-        <v>206</v>
+        <v>500</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="Y89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="Y90" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="Y91" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="Y92" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>282</v>
+        <v>345</v>
       </c>
       <c r="Y93" t="s">
-        <v>474</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
         <v>283</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Y95" t="s">
         <v>482</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>556</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>153</v>
+        <v>559</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>560</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>390</v>
+        <v>560</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>154</v>
+        <v>390</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>489</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>167</v>
+        <v>489</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>171</v>
+        <v>49</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Y129" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -36,21 +36,22 @@
     <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
     <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="redis">'#system'!$T$2:$T$10</definedName>
     <definedName name="sms">'#system'!$U$2:$U$2</definedName>
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28778" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29329" uniqueCount="592">
   <si>
     <t>jira</t>
   </si>
@@ -1832,6 +1833,15 @@
   </si>
   <si>
     <t>storeSoapFaultString(var,xml)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
   </si>
 </sst>
 </file>
@@ -1839,7 +1849,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="910" x14ac:knownFonts="1">
+  <fonts count="926" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7576,8 +7586,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1588">
+  <fills count="1615">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16572,8 +16683,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1615">
+  <borders count="1647">
     <border>
       <left/>
       <right/>
@@ -32279,6 +32543,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -32790,7 +33380,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="936">
+  <cellXfs count="952">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -35568,52 +36158,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1560" fontId="893" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="894" fillId="1563" borderId="1590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="895" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1590" fillId="1563" fontId="894" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="895" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="896" fillId="1566" borderId="1594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1594" fillId="1566" fontId="896" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="897" fillId="1569" borderId="1598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1598" fillId="1569" fontId="897" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="898" fillId="1572" borderId="1602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1602" fillId="1572" fontId="898" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="899" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="899" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="900" fillId="1575" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1575" fontId="900" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="901" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="902" fillId="1578" borderId="1606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="903" fillId="1569" borderId="1610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="904" fillId="1581" borderId="1614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="905" fillId="1581" borderId="1614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="906" fillId="1572" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="907" fillId="1584" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="908" fillId="1572" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="909" fillId="1587" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="901" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1606" fillId="1578" fontId="902" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1610" fillId="1569" fontId="903" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1614" fillId="1581" fontId="904" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1614" fillId="1581" fontId="905" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1572" fontId="906" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1584" fontId="907" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1572" fontId="908" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1587" fontId="909" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="910" fillId="1590" borderId="1622" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="911" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="912" fillId="1593" borderId="1626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="913" fillId="1596" borderId="1630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="914" fillId="1599" borderId="1634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="915" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="916" fillId="1602" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="917" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="918" fillId="1605" borderId="1638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="919" fillId="1596" borderId="1642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="920" fillId="1608" borderId="1646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="921" fillId="1608" borderId="1646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="922" fillId="1599" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="923" fillId="1611" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="924" fillId="1599" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="925" fillId="1614" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -35938,7 +36576,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -36023,21 +36661,24 @@
         <v>438</v>
       </c>
       <c r="Y1" t="s">
+        <v>589</v>
+      </c>
+      <c r="Z1" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>59</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>60</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>457</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>232</v>
       </c>
     </row>
@@ -36115,21 +36756,24 @@
         <v>439</v>
       </c>
       <c r="Y2" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z2" t="s">
         <v>100</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>175</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>180</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>187</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>476</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>540</v>
       </c>
     </row>
@@ -36200,22 +36844,22 @@
       <c r="X3" t="s">
         <v>440</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>101</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>176</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>181</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>371</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>188</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>233</v>
       </c>
     </row>
@@ -36283,22 +36927,22 @@
       <c r="X4" t="s">
         <v>441</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>359</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>177</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>182</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>188</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>477</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>234</v>
       </c>
     </row>
@@ -36357,22 +37001,22 @@
       <c r="W5" t="s">
         <v>366</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>360</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>178</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>183</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>189</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>478</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>235</v>
       </c>
     </row>
@@ -36425,22 +37069,22 @@
       <c r="W6" t="s">
         <v>368</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>102</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>490</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>184</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>190</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>479</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>236</v>
       </c>
     </row>
@@ -36487,22 +37131,22 @@
       <c r="W7" t="s">
         <v>367</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>103</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>491</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>185</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>191</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>480</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>583</v>
       </c>
     </row>
@@ -36543,22 +37187,22 @@
       <c r="W8" t="s">
         <v>369</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>104</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>179</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>186</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>192</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>481</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>584</v>
       </c>
     </row>
@@ -36599,13 +37243,13 @@
       <c r="W9" t="s">
         <v>370</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>214</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>193</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>585</v>
       </c>
     </row>
@@ -36640,13 +37284,13 @@
       <c r="T10" t="s">
         <v>451</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>262</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>194</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>237</v>
       </c>
     </row>
@@ -36678,13 +37322,13 @@
       <c r="R11" t="s">
         <v>253</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>263</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>264</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>238</v>
       </c>
     </row>
@@ -36716,13 +37360,13 @@
       <c r="R12" t="s">
         <v>254</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>105</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>195</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>239</v>
       </c>
     </row>
@@ -36751,13 +37395,13 @@
       <c r="R13" t="s">
         <v>259</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>331</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>196</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>524</v>
       </c>
     </row>
@@ -36786,13 +37430,13 @@
       <c r="R14" t="s">
         <v>255</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>106</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>197</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>541</v>
       </c>
     </row>
@@ -36818,13 +37462,13 @@
       <c r="R15" t="s">
         <v>256</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>107</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>198</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>542</v>
       </c>
     </row>
@@ -36850,13 +37494,13 @@
       <c r="R16" t="s">
         <v>257</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>78</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>199</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>546</v>
       </c>
     </row>
@@ -36876,13 +37520,13 @@
       <c r="M17" t="s">
         <v>45</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>551</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>511</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>547</v>
       </c>
     </row>
@@ -36899,10 +37543,10 @@
       <c r="K18" t="s">
         <v>503</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>108</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>525</v>
       </c>
     </row>
@@ -36919,10 +37563,10 @@
       <c r="K19" t="s">
         <v>86</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>109</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>543</v>
       </c>
     </row>
@@ -36939,10 +37583,10 @@
       <c r="K20" t="s">
         <v>87</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>110</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>544</v>
       </c>
     </row>
@@ -36959,10 +37603,10 @@
       <c r="K21" t="s">
         <v>387</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>111</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>548</v>
       </c>
     </row>
@@ -36971,7 +37615,7 @@
         <v>456</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>590</v>
       </c>
       <c r="G22" t="s">
         <v>304</v>
@@ -36979,10 +37623,10 @@
       <c r="K22" t="s">
         <v>520</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>532</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>240</v>
       </c>
     </row>
@@ -36991,7 +37635,7 @@
         <v>364</v>
       </c>
       <c r="E23" t="s">
-        <v>326</v>
+        <v>65</v>
       </c>
       <c r="G23" t="s">
         <v>295</v>
@@ -36999,10 +37643,10 @@
       <c r="K23" t="s">
         <v>46</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>113</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>586</v>
       </c>
     </row>
@@ -37011,7 +37655,7 @@
         <v>438</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>326</v>
       </c>
       <c r="G24" t="s">
         <v>284</v>
@@ -37019,19 +37663,19 @@
       <c r="K24" t="s">
         <v>433</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>114</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>589</v>
       </c>
       <c r="E25" t="s">
-        <v>495</v>
+        <v>66</v>
       </c>
       <c r="G25" t="s">
         <v>79</v>
@@ -37039,19 +37683,19 @@
       <c r="K25" t="s">
         <v>573</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>115</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>230</v>
+        <v>495</v>
       </c>
       <c r="G26" t="s">
         <v>287</v>
@@ -37059,19 +37703,19 @@
       <c r="K26" t="s">
         <v>88</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>116</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G27" t="s">
         <v>271</v>
@@ -37079,19 +37723,19 @@
       <c r="K27" t="s">
         <v>485</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>117</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>518</v>
+        <v>231</v>
       </c>
       <c r="G28" t="s">
         <v>288</v>
@@ -37099,16 +37743,16 @@
       <c r="K28" t="s">
         <v>47</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>457</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G29" t="s">
         <v>289</v>
@@ -37116,117 +37760,123 @@
       <c r="K29" t="s">
         <v>48</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>232</v>
+        <v>457</v>
       </c>
       <c r="E30" t="s">
-        <v>459</v>
+        <v>519</v>
       </c>
       <c r="G30" t="s">
         <v>221</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>232</v>
+      </c>
       <c r="E31" t="s">
-        <v>67</v>
+        <v>459</v>
       </c>
       <c r="G31" t="s">
         <v>280</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G32" t="s">
         <v>290</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G33" t="s">
         <v>557</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G34" t="s">
         <v>265</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G35" t="s">
         <v>335</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G36" t="s">
         <v>312</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G37" t="s">
         <v>266</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G38" t="s">
         <v>313</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="39">
+      <c r="E39" t="s">
+        <v>74</v>
+      </c>
       <c r="G39" t="s">
         <v>272</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>577</v>
       </c>
     </row>
@@ -37234,7 +37884,7 @@
       <c r="G40" t="s">
         <v>81</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>434</v>
       </c>
     </row>
@@ -37242,7 +37892,7 @@
       <c r="G41" t="s">
         <v>217</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Z41" t="s">
         <v>125</v>
       </c>
     </row>
@@ -37250,7 +37900,7 @@
       <c r="G42" t="s">
         <v>294</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>126</v>
       </c>
     </row>
@@ -37258,7 +37908,7 @@
       <c r="G43" t="s">
         <v>305</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>127</v>
       </c>
     </row>
@@ -37266,7 +37916,7 @@
       <c r="G44" t="s">
         <v>306</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>128</v>
       </c>
     </row>
@@ -37274,7 +37924,7 @@
       <c r="G45" t="s">
         <v>348</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>129</v>
       </c>
     </row>
@@ -37282,7 +37932,7 @@
       <c r="G46" t="s">
         <v>347</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>130</v>
       </c>
     </row>
@@ -37290,7 +37940,7 @@
       <c r="G47" t="s">
         <v>216</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>487</v>
       </c>
     </row>
@@ -37298,7 +37948,7 @@
       <c r="G48" t="s">
         <v>325</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>218</v>
       </c>
     </row>
@@ -37306,7 +37956,7 @@
       <c r="G49" t="s">
         <v>344</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>80</v>
       </c>
     </row>
@@ -37314,7 +37964,7 @@
       <c r="G50" t="s">
         <v>375</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>582</v>
       </c>
     </row>
@@ -37322,7 +37972,7 @@
       <c r="G51" t="s">
         <v>307</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>131</v>
       </c>
     </row>
@@ -37330,7 +37980,7 @@
       <c r="G52" t="s">
         <v>361</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>132</v>
       </c>
     </row>
@@ -37338,7 +37988,7 @@
       <c r="G53" t="s">
         <v>336</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>133</v>
       </c>
     </row>
@@ -37346,7 +37996,7 @@
       <c r="G54" t="s">
         <v>273</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>533</v>
       </c>
     </row>
@@ -37354,7 +38004,7 @@
       <c r="G55" t="s">
         <v>297</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>513</v>
       </c>
     </row>
@@ -37362,7 +38012,7 @@
       <c r="G56" t="s">
         <v>298</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>134</v>
       </c>
     </row>
@@ -37370,7 +38020,7 @@
       <c r="G57" t="s">
         <v>299</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>351</v>
       </c>
     </row>
@@ -37378,7 +38028,7 @@
       <c r="G58" t="s">
         <v>308</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>506</v>
       </c>
     </row>
@@ -37386,7 +38036,7 @@
       <c r="G59" t="s">
         <v>317</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>135</v>
       </c>
     </row>
@@ -37394,7 +38044,7 @@
       <c r="G60" t="s">
         <v>342</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>136</v>
       </c>
     </row>
@@ -37402,7 +38052,7 @@
       <c r="G61" t="s">
         <v>314</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>137</v>
       </c>
     </row>
@@ -37410,7 +38060,7 @@
       <c r="G62" t="s">
         <v>315</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>138</v>
       </c>
     </row>
@@ -37418,7 +38068,7 @@
       <c r="G63" t="s">
         <v>376</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>139</v>
       </c>
     </row>
@@ -37426,7 +38076,7 @@
       <c r="G64" t="s">
         <v>377</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>140</v>
       </c>
     </row>
@@ -37434,7 +38084,7 @@
       <c r="G65" t="s">
         <v>350</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>141</v>
       </c>
     </row>
@@ -37442,7 +38092,7 @@
       <c r="G66" t="s">
         <v>318</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>483</v>
       </c>
     </row>
@@ -37450,7 +38100,7 @@
       <c r="G67" t="s">
         <v>274</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>523</v>
       </c>
     </row>
@@ -37458,7 +38108,7 @@
       <c r="G68" t="s">
         <v>578</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>219</v>
       </c>
     </row>
@@ -37466,7 +38116,7 @@
       <c r="G69" t="s">
         <v>319</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>396</v>
       </c>
     </row>
@@ -37474,7 +38124,7 @@
       <c r="G70" t="s">
         <v>452</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>488</v>
       </c>
     </row>
@@ -37482,7 +38132,7 @@
       <c r="G71" t="s">
         <v>309</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>142</v>
       </c>
     </row>
@@ -37490,7 +38140,7 @@
       <c r="G72" t="s">
         <v>453</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>143</v>
       </c>
     </row>
@@ -37498,7 +38148,7 @@
       <c r="G73" t="s">
         <v>267</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>144</v>
       </c>
     </row>
@@ -37506,7 +38156,7 @@
       <c r="G74" t="s">
         <v>558</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>145</v>
       </c>
     </row>
@@ -37514,7 +38164,7 @@
       <c r="G75" t="s">
         <v>349</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>202</v>
       </c>
     </row>
@@ -37522,7 +38172,7 @@
       <c r="G76" t="s">
         <v>285</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>203</v>
       </c>
     </row>
@@ -37530,7 +38180,7 @@
       <c r="G77" t="s">
         <v>291</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>501</v>
       </c>
     </row>
@@ -37538,7 +38188,7 @@
       <c r="G78" t="s">
         <v>296</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>517</v>
       </c>
     </row>
@@ -37546,7 +38196,7 @@
       <c r="G79" t="s">
         <v>460</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>146</v>
       </c>
     </row>
@@ -37554,7 +38204,7 @@
       <c r="G80" t="s">
         <v>337</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>147</v>
       </c>
     </row>
@@ -37562,7 +38212,7 @@
       <c r="G81" t="s">
         <v>275</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>148</v>
       </c>
     </row>
@@ -37570,7 +38220,7 @@
       <c r="G82" t="s">
         <v>286</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>545</v>
       </c>
     </row>
@@ -37578,7 +38228,7 @@
       <c r="G83" t="s">
         <v>292</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>149</v>
       </c>
     </row>
@@ -37586,7 +38236,7 @@
       <c r="G84" t="s">
         <v>281</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>150</v>
       </c>
     </row>
@@ -37594,7 +38244,7 @@
       <c r="G85" t="s">
         <v>579</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>204</v>
       </c>
     </row>
@@ -37602,7 +38252,7 @@
       <c r="G86" t="s">
         <v>276</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>534</v>
       </c>
     </row>
@@ -37610,7 +38260,7 @@
       <c r="G87" t="s">
         <v>293</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>205</v>
       </c>
     </row>
@@ -37618,7 +38268,7 @@
       <c r="G88" t="s">
         <v>277</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>500</v>
       </c>
     </row>
@@ -37626,7 +38276,7 @@
       <c r="G89" t="s">
         <v>278</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>206</v>
       </c>
     </row>
@@ -37634,7 +38284,7 @@
       <c r="G90" t="s">
         <v>310</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>207</v>
       </c>
     </row>
@@ -37642,7 +38292,7 @@
       <c r="G91" t="s">
         <v>316</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>220</v>
       </c>
     </row>
@@ -37650,7 +38300,7 @@
       <c r="G92" t="s">
         <v>300</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>151</v>
       </c>
     </row>
@@ -37658,7 +38308,7 @@
       <c r="G93" t="s">
         <v>345</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>208</v>
       </c>
     </row>
@@ -37666,7 +38316,7 @@
       <c r="G94" t="s">
         <v>282</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>474</v>
       </c>
     </row>
@@ -37674,177 +38324,177 @@
       <c r="G95" t="s">
         <v>283</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="96">
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="97">
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="98">
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="108">
-      <c r="Y108" t="s">
+      <c r="Z108" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="109">
-      <c r="Y109" t="s">
+      <c r="Z109" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="110">
-      <c r="Y110" t="s">
+      <c r="Z110" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="111">
-      <c r="Y111" t="s">
+      <c r="Z111" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="112">
-      <c r="Y112" t="s">
+      <c r="Z112" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="113">
-      <c r="Y113" t="s">
+      <c r="Z113" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="114">
-      <c r="Y114" t="s">
+      <c r="Z114" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="115">
-      <c r="Y115" t="s">
+      <c r="Z115" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="116">
-      <c r="Y116" t="s">
+      <c r="Z116" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="117">
-      <c r="Y117" t="s">
+      <c r="Z117" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="118">
-      <c r="Y118" t="s">
+      <c r="Z118" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="119">
-      <c r="Y119" t="s">
+      <c r="Z119" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="120">
-      <c r="Y120" t="s">
+      <c r="Z120" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="121">
-      <c r="Y121" t="s">
+      <c r="Z121" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="122">
-      <c r="Y122" t="s">
+      <c r="Z122" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="123">
-      <c r="Y123" t="s">
+      <c r="Z123" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="124">
-      <c r="Y124" t="s">
+      <c r="Z124" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="125">
-      <c r="Y125" t="s">
+      <c r="Z125" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="126">
-      <c r="Y126" t="s">
+      <c r="Z126" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="127">
-      <c r="Y127" t="s">
+      <c r="Z127" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="128">
-      <c r="Y128" t="s">
+      <c r="Z128" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="129">
-      <c r="Y129" t="s">
+      <c r="Z129" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -21,7 +21,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29329" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29882" uniqueCount="594">
   <si>
     <t>jira</t>
   </si>
@@ -1842,6 +1842,12 @@
   </si>
   <si>
     <t>spellCheck(var,profile,text)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
 </sst>
 </file>
@@ -1849,7 +1855,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="926" x14ac:knownFonts="1">
+  <fonts count="942" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7687,8 +7693,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1615">
+  <fills count="1642">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16836,8 +16943,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1647">
+  <borders count="1679">
     <border>
       <left/>
       <right/>
@@ -32543,6 +32803,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -33380,7 +33966,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="952">
+  <cellXfs count="968">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -36206,52 +36792,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1587" fontId="909" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="910" fillId="1590" borderId="1622" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="911" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1622" fillId="1590" fontId="910" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="911" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="912" fillId="1593" borderId="1626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1626" fillId="1593" fontId="912" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="913" fillId="1596" borderId="1630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1630" fillId="1596" fontId="913" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="914" fillId="1599" borderId="1634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1634" fillId="1599" fontId="914" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="915" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="915" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="916" fillId="1602" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1602" fontId="916" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="917" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="918" fillId="1605" borderId="1638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="919" fillId="1596" borderId="1642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="920" fillId="1608" borderId="1646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="921" fillId="1608" borderId="1646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="922" fillId="1599" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="923" fillId="1611" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="924" fillId="1599" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="925" fillId="1614" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="917" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1638" fillId="1605" fontId="918" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1642" fillId="1596" fontId="919" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1646" fillId="1608" fontId="920" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1646" fillId="1608" fontId="921" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1599" fontId="922" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1611" fontId="923" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1599" fontId="924" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1614" fontId="925" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="926" fillId="1617" borderId="1654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="927" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="928" fillId="1620" borderId="1658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="929" fillId="1623" borderId="1662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="930" fillId="1626" borderId="1666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="931" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="932" fillId="1629" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="933" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="934" fillId="1632" borderId="1670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="935" fillId="1623" borderId="1674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="936" fillId="1635" borderId="1678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="937" fillId="1635" borderId="1678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="938" fillId="1626" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="939" fillId="1638" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="940" fillId="1626" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="941" fillId="1641" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -37898,7 +38532,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>294</v>
+        <v>592</v>
       </c>
       <c r="Z42" t="s">
         <v>126</v>
@@ -37906,7 +38540,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="Z43" t="s">
         <v>127</v>
@@ -37914,7 +38548,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Z44" t="s">
         <v>128</v>
@@ -37922,7 +38556,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>348</v>
+        <v>306</v>
       </c>
       <c r="Z45" t="s">
         <v>129</v>
@@ -37930,7 +38564,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Z46" t="s">
         <v>130</v>
@@ -37938,7 +38572,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>216</v>
+        <v>347</v>
       </c>
       <c r="Z47" t="s">
         <v>487</v>
@@ -37946,7 +38580,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>325</v>
+        <v>216</v>
       </c>
       <c r="Z48" t="s">
         <v>218</v>
@@ -37954,7 +38588,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="Z49" t="s">
         <v>80</v>
@@ -37962,7 +38596,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="Z50" t="s">
         <v>582</v>
@@ -37970,7 +38604,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>307</v>
+        <v>375</v>
       </c>
       <c r="Z51" t="s">
         <v>131</v>
@@ -37978,7 +38612,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="Z52" t="s">
         <v>132</v>
@@ -37986,7 +38620,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="Z53" t="s">
         <v>133</v>
@@ -37994,7 +38628,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>273</v>
+        <v>336</v>
       </c>
       <c r="Z54" t="s">
         <v>533</v>
@@ -38002,7 +38636,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="Z55" t="s">
         <v>513</v>
@@ -38010,7 +38644,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Z56" t="s">
         <v>134</v>
@@ -38018,7 +38652,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Z57" t="s">
         <v>351</v>
@@ -38026,7 +38660,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>308</v>
+        <v>593</v>
       </c>
       <c r="Z58" t="s">
         <v>506</v>
@@ -38034,7 +38668,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="Z59" t="s">
         <v>135</v>
@@ -38042,7 +38676,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="Z60" t="s">
         <v>136</v>
@@ -38050,7 +38684,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Z61" t="s">
         <v>137</v>
@@ -38058,7 +38692,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="Z62" t="s">
         <v>138</v>
@@ -38066,7 +38700,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>376</v>
+        <v>314</v>
       </c>
       <c r="Z63" t="s">
         <v>139</v>
@@ -38074,7 +38708,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>377</v>
+        <v>315</v>
       </c>
       <c r="Z64" t="s">
         <v>140</v>
@@ -38082,7 +38716,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="Z65" t="s">
         <v>141</v>
@@ -38090,7 +38724,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>318</v>
+        <v>377</v>
       </c>
       <c r="Z66" t="s">
         <v>483</v>
@@ -38098,7 +38732,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>274</v>
+        <v>350</v>
       </c>
       <c r="Z67" t="s">
         <v>523</v>
@@ -38106,7 +38740,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>578</v>
+        <v>318</v>
       </c>
       <c r="Z68" t="s">
         <v>219</v>
@@ -38114,7 +38748,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>319</v>
+        <v>274</v>
       </c>
       <c r="Z69" t="s">
         <v>396</v>
@@ -38122,7 +38756,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>452</v>
+        <v>578</v>
       </c>
       <c r="Z70" t="s">
         <v>488</v>
@@ -38130,7 +38764,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="Z71" t="s">
         <v>142</v>
@@ -38138,7 +38772,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Z72" t="s">
         <v>143</v>
@@ -38146,7 +38780,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="Z73" t="s">
         <v>144</v>
@@ -38154,7 +38788,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>558</v>
+        <v>453</v>
       </c>
       <c r="Z74" t="s">
         <v>145</v>
@@ -38162,7 +38796,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>349</v>
+        <v>267</v>
       </c>
       <c r="Z75" t="s">
         <v>202</v>
@@ -38170,7 +38804,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>285</v>
+        <v>558</v>
       </c>
       <c r="Z76" t="s">
         <v>203</v>
@@ -38178,7 +38812,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>291</v>
+        <v>349</v>
       </c>
       <c r="Z77" t="s">
         <v>501</v>
@@ -38186,7 +38820,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="Z78" t="s">
         <v>517</v>
@@ -38194,7 +38828,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>460</v>
+        <v>291</v>
       </c>
       <c r="Z79" t="s">
         <v>146</v>
@@ -38202,7 +38836,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>337</v>
+        <v>296</v>
       </c>
       <c r="Z80" t="s">
         <v>147</v>
@@ -38210,7 +38844,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>275</v>
+        <v>460</v>
       </c>
       <c r="Z81" t="s">
         <v>148</v>
@@ -38218,7 +38852,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>286</v>
+        <v>337</v>
       </c>
       <c r="Z82" t="s">
         <v>545</v>
@@ -38226,7 +38860,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="Z83" t="s">
         <v>149</v>
@@ -38234,7 +38868,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Z84" t="s">
         <v>150</v>
@@ -38242,7 +38876,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>579</v>
+        <v>292</v>
       </c>
       <c r="Z85" t="s">
         <v>204</v>
@@ -38250,7 +38884,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Z86" t="s">
         <v>534</v>
@@ -38258,7 +38892,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>293</v>
+        <v>579</v>
       </c>
       <c r="Z87" t="s">
         <v>205</v>
@@ -38266,7 +38900,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Z88" t="s">
         <v>500</v>
@@ -38274,7 +38908,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="Z89" t="s">
         <v>206</v>
@@ -38282,7 +38916,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="Z90" t="s">
         <v>207</v>
@@ -38290,7 +38924,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="Z91" t="s">
         <v>220</v>
@@ -38298,7 +38932,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="Z92" t="s">
         <v>151</v>
@@ -38306,7 +38940,7 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="Z93" t="s">
         <v>208</v>
@@ -38314,7 +38948,7 @@
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="Z94" t="s">
         <v>474</v>
@@ -38322,18 +38956,24 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>283</v>
+        <v>345</v>
       </c>
       <c r="Z95" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="96">
+      <c r="G96" t="s">
+        <v>282</v>
+      </c>
       <c r="Z96" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="97">
+      <c r="G97" t="s">
+        <v>283</v>
+      </c>
       <c r="Z97" t="s">
         <v>210</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -27,7 +27,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -36,17 +36,17 @@
     <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
     <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="redis">'#system'!$T$2:$T$10</definedName>
     <definedName name="sms">'#system'!$U$2:$U$2</definedName>
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29882" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30433" uniqueCount="595">
   <si>
     <t>jira</t>
   </si>
@@ -1848,6 +1848,9 @@
   </si>
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
   </si>
 </sst>
 </file>
@@ -1855,7 +1858,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="942" x14ac:knownFonts="1">
+  <fonts count="958" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7794,8 +7797,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1642">
+  <fills count="1669">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -17096,8 +17200,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1679">
+  <borders count="1711">
     <border>
       <left/>
       <right/>
@@ -32803,6 +33060,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -33966,7 +34549,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="968">
+  <cellXfs count="984">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -36840,52 +37423,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1614" fontId="925" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="926" fillId="1617" borderId="1654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="927" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1654" fillId="1617" fontId="926" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="927" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="928" fillId="1620" borderId="1658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1658" fillId="1620" fontId="928" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="929" fillId="1623" borderId="1662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1662" fillId="1623" fontId="929" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="930" fillId="1626" borderId="1666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1666" fillId="1626" fontId="930" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="931" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="931" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="932" fillId="1629" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1629" fontId="932" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="933" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="934" fillId="1632" borderId="1670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="935" fillId="1623" borderId="1674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="936" fillId="1635" borderId="1678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="937" fillId="1635" borderId="1678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="938" fillId="1626" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="939" fillId="1638" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="940" fillId="1626" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="941" fillId="1641" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="933" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1670" fillId="1632" fontId="934" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1674" fillId="1623" fontId="935" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1678" fillId="1635" fontId="936" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1678" fillId="1635" fontId="937" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1626" fontId="938" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1638" fontId="939" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1626" fontId="940" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1641" fontId="941" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="942" fillId="1644" borderId="1686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="943" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="944" fillId="1647" borderId="1690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="945" fillId="1650" borderId="1694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="946" fillId="1653" borderId="1698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="947" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="948" fillId="1656" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="949" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="950" fillId="1659" borderId="1702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="951" fillId="1650" borderId="1706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="952" fillId="1662" borderId="1710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="953" fillId="1662" borderId="1710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="954" fillId="1653" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="955" fillId="1665" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="956" fillId="1653" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="957" fillId="1668" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -37210,7 +37841,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -37295,24 +37926,21 @@
         <v>438</v>
       </c>
       <c r="Y1" t="s">
-        <v>589</v>
+        <v>57</v>
       </c>
       <c r="Z1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC1" t="s">
-        <v>60</v>
+        <v>457</v>
       </c>
       <c r="AD1" t="s">
-        <v>457</v>
-      </c>
-      <c r="AE1" t="s">
         <v>232</v>
       </c>
     </row>
@@ -37390,24 +38018,21 @@
         <v>439</v>
       </c>
       <c r="Y2" t="s">
-        <v>591</v>
+        <v>100</v>
       </c>
       <c r="Z2" t="s">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="AA2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AB2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AC2" t="s">
-        <v>187</v>
+        <v>476</v>
       </c>
       <c r="AD2" t="s">
-        <v>476</v>
-      </c>
-      <c r="AE2" t="s">
         <v>540</v>
       </c>
     </row>
@@ -37478,22 +38103,22 @@
       <c r="X3" t="s">
         <v>440</v>
       </c>
+      <c r="Y3" t="s">
+        <v>101</v>
+      </c>
       <c r="Z3" t="s">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="AA3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AB3" t="s">
-        <v>181</v>
+        <v>371</v>
       </c>
       <c r="AC3" t="s">
-        <v>371</v>
+        <v>188</v>
       </c>
       <c r="AD3" t="s">
-        <v>188</v>
-      </c>
-      <c r="AE3" t="s">
         <v>233</v>
       </c>
     </row>
@@ -37561,22 +38186,22 @@
       <c r="X4" t="s">
         <v>441</v>
       </c>
+      <c r="Y4" t="s">
+        <v>359</v>
+      </c>
       <c r="Z4" t="s">
-        <v>359</v>
+        <v>177</v>
       </c>
       <c r="AA4" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AB4" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AC4" t="s">
-        <v>188</v>
+        <v>477</v>
       </c>
       <c r="AD4" t="s">
-        <v>477</v>
-      </c>
-      <c r="AE4" t="s">
         <v>234</v>
       </c>
     </row>
@@ -37635,22 +38260,22 @@
       <c r="W5" t="s">
         <v>366</v>
       </c>
+      <c r="Y5" t="s">
+        <v>360</v>
+      </c>
       <c r="Z5" t="s">
-        <v>360</v>
+        <v>178</v>
       </c>
       <c r="AA5" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AB5" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AC5" t="s">
-        <v>189</v>
+        <v>478</v>
       </c>
       <c r="AD5" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE5" t="s">
         <v>235</v>
       </c>
     </row>
@@ -37703,22 +38328,22 @@
       <c r="W6" t="s">
         <v>368</v>
       </c>
+      <c r="Y6" t="s">
+        <v>102</v>
+      </c>
       <c r="Z6" t="s">
-        <v>102</v>
+        <v>490</v>
       </c>
       <c r="AA6" t="s">
-        <v>490</v>
+        <v>184</v>
       </c>
       <c r="AB6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AC6" t="s">
-        <v>190</v>
+        <v>479</v>
       </c>
       <c r="AD6" t="s">
-        <v>479</v>
-      </c>
-      <c r="AE6" t="s">
         <v>236</v>
       </c>
     </row>
@@ -37765,22 +38390,22 @@
       <c r="W7" t="s">
         <v>367</v>
       </c>
+      <c r="Y7" t="s">
+        <v>103</v>
+      </c>
       <c r="Z7" t="s">
-        <v>103</v>
+        <v>491</v>
       </c>
       <c r="AA7" t="s">
-        <v>491</v>
+        <v>185</v>
       </c>
       <c r="AB7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="AC7" t="s">
-        <v>191</v>
+        <v>480</v>
       </c>
       <c r="AD7" t="s">
-        <v>480</v>
-      </c>
-      <c r="AE7" t="s">
         <v>583</v>
       </c>
     </row>
@@ -37821,22 +38446,22 @@
       <c r="W8" t="s">
         <v>369</v>
       </c>
+      <c r="Y8" t="s">
+        <v>104</v>
+      </c>
       <c r="Z8" t="s">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="AA8" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="AB8" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="AC8" t="s">
-        <v>192</v>
+        <v>481</v>
       </c>
       <c r="AD8" t="s">
-        <v>481</v>
-      </c>
-      <c r="AE8" t="s">
         <v>584</v>
       </c>
     </row>
@@ -37877,13 +38502,13 @@
       <c r="W9" t="s">
         <v>370</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>214</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>193</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>585</v>
       </c>
     </row>
@@ -37918,13 +38543,13 @@
       <c r="T10" t="s">
         <v>451</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>262</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>194</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>237</v>
       </c>
     </row>
@@ -37956,13 +38581,13 @@
       <c r="R11" t="s">
         <v>253</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>263</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>264</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>238</v>
       </c>
     </row>
@@ -37994,13 +38619,13 @@
       <c r="R12" t="s">
         <v>254</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>105</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>195</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>239</v>
       </c>
     </row>
@@ -38029,13 +38654,13 @@
       <c r="R13" t="s">
         <v>259</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>331</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>196</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>524</v>
       </c>
     </row>
@@ -38064,13 +38689,13 @@
       <c r="R14" t="s">
         <v>255</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>106</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>197</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>541</v>
       </c>
     </row>
@@ -38096,13 +38721,13 @@
       <c r="R15" t="s">
         <v>256</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>107</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>198</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>542</v>
       </c>
     </row>
@@ -38120,7 +38745,7 @@
         <v>84</v>
       </c>
       <c r="M16" t="s">
-        <v>42</v>
+        <v>594</v>
       </c>
       <c r="Q16" t="s">
         <v>550</v>
@@ -38128,13 +38753,13 @@
       <c r="R16" t="s">
         <v>257</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>78</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>199</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>546</v>
       </c>
     </row>
@@ -38152,15 +38777,15 @@
         <v>85</v>
       </c>
       <c r="M17" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y17" t="s">
         <v>551</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>511</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>547</v>
       </c>
     </row>
@@ -38177,10 +38802,13 @@
       <c r="K18" t="s">
         <v>503</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y18" t="s">
         <v>108</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>525</v>
       </c>
     </row>
@@ -38197,10 +38825,10 @@
       <c r="K19" t="s">
         <v>86</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>109</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>543</v>
       </c>
     </row>
@@ -38217,10 +38845,10 @@
       <c r="K20" t="s">
         <v>87</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>110</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>544</v>
       </c>
     </row>
@@ -38237,10 +38865,10 @@
       <c r="K21" t="s">
         <v>387</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>111</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>548</v>
       </c>
     </row>
@@ -38257,10 +38885,10 @@
       <c r="K22" t="s">
         <v>520</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>532</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>240</v>
       </c>
     </row>
@@ -38277,10 +38905,10 @@
       <c r="K23" t="s">
         <v>46</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>113</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>586</v>
       </c>
     </row>
@@ -38297,16 +38925,16 @@
       <c r="K24" t="s">
         <v>433</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>114</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>589</v>
+        <v>57</v>
       </c>
       <c r="E25" t="s">
         <v>66</v>
@@ -38317,16 +38945,16 @@
       <c r="K25" t="s">
         <v>573</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>115</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
         <v>495</v>
@@ -38337,16 +38965,16 @@
       <c r="K26" t="s">
         <v>88</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>116</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
         <v>230</v>
@@ -38357,16 +38985,16 @@
       <c r="K27" t="s">
         <v>485</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>117</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
         <v>231</v>
@@ -38377,13 +39005,13 @@
       <c r="K28" t="s">
         <v>47</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>457</v>
       </c>
       <c r="E29" t="s">
         <v>518</v>
@@ -38394,13 +39022,13 @@
       <c r="K29" t="s">
         <v>48</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>457</v>
+        <v>232</v>
       </c>
       <c r="E30" t="s">
         <v>519</v>
@@ -38408,21 +39036,18 @@
       <c r="G30" t="s">
         <v>221</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>232</v>
-      </c>
       <c r="E31" t="s">
         <v>459</v>
       </c>
       <c r="G31" t="s">
         <v>280</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>120</v>
       </c>
     </row>
@@ -38433,7 +39058,7 @@
       <c r="G32" t="s">
         <v>290</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>121</v>
       </c>
     </row>
@@ -38444,7 +39069,7 @@
       <c r="G33" t="s">
         <v>557</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>122</v>
       </c>
     </row>
@@ -38455,7 +39080,7 @@
       <c r="G34" t="s">
         <v>265</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>123</v>
       </c>
     </row>
@@ -38466,7 +39091,7 @@
       <c r="G35" t="s">
         <v>335</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>215</v>
       </c>
     </row>
@@ -38477,7 +39102,7 @@
       <c r="G36" t="s">
         <v>312</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>124</v>
       </c>
     </row>
@@ -38488,7 +39113,7 @@
       <c r="G37" t="s">
         <v>266</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>343</v>
       </c>
     </row>
@@ -38499,7 +39124,7 @@
       <c r="G38" t="s">
         <v>313</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>472</v>
       </c>
     </row>
@@ -38510,7 +39135,7 @@
       <c r="G39" t="s">
         <v>272</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>577</v>
       </c>
     </row>
@@ -38518,7 +39143,7 @@
       <c r="G40" t="s">
         <v>81</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>434</v>
       </c>
     </row>
@@ -38526,7 +39151,7 @@
       <c r="G41" t="s">
         <v>217</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>125</v>
       </c>
     </row>
@@ -38534,7 +39159,7 @@
       <c r="G42" t="s">
         <v>592</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>126</v>
       </c>
     </row>
@@ -38542,7 +39167,7 @@
       <c r="G43" t="s">
         <v>294</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>127</v>
       </c>
     </row>
@@ -38550,7 +39175,7 @@
       <c r="G44" t="s">
         <v>305</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>128</v>
       </c>
     </row>
@@ -38558,7 +39183,7 @@
       <c r="G45" t="s">
         <v>306</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>129</v>
       </c>
     </row>
@@ -38566,7 +39191,7 @@
       <c r="G46" t="s">
         <v>348</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>130</v>
       </c>
     </row>
@@ -38574,7 +39199,7 @@
       <c r="G47" t="s">
         <v>347</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>487</v>
       </c>
     </row>
@@ -38582,7 +39207,7 @@
       <c r="G48" t="s">
         <v>216</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>218</v>
       </c>
     </row>
@@ -38590,7 +39215,7 @@
       <c r="G49" t="s">
         <v>325</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>80</v>
       </c>
     </row>
@@ -38598,7 +39223,7 @@
       <c r="G50" t="s">
         <v>344</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>582</v>
       </c>
     </row>
@@ -38606,7 +39231,7 @@
       <c r="G51" t="s">
         <v>375</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>131</v>
       </c>
     </row>
@@ -38614,7 +39239,7 @@
       <c r="G52" t="s">
         <v>307</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>132</v>
       </c>
     </row>
@@ -38622,7 +39247,7 @@
       <c r="G53" t="s">
         <v>361</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>133</v>
       </c>
     </row>
@@ -38630,7 +39255,7 @@
       <c r="G54" t="s">
         <v>336</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>533</v>
       </c>
     </row>
@@ -38638,7 +39263,7 @@
       <c r="G55" t="s">
         <v>273</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>513</v>
       </c>
     </row>
@@ -38646,7 +39271,7 @@
       <c r="G56" t="s">
         <v>297</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>134</v>
       </c>
     </row>
@@ -38654,7 +39279,7 @@
       <c r="G57" t="s">
         <v>298</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>351</v>
       </c>
     </row>
@@ -38662,7 +39287,7 @@
       <c r="G58" t="s">
         <v>593</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>506</v>
       </c>
     </row>
@@ -38670,7 +39295,7 @@
       <c r="G59" t="s">
         <v>299</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>135</v>
       </c>
     </row>
@@ -38678,7 +39303,7 @@
       <c r="G60" t="s">
         <v>308</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>136</v>
       </c>
     </row>
@@ -38686,7 +39311,7 @@
       <c r="G61" t="s">
         <v>317</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>137</v>
       </c>
     </row>
@@ -38694,7 +39319,7 @@
       <c r="G62" t="s">
         <v>342</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>138</v>
       </c>
     </row>
@@ -38702,7 +39327,7 @@
       <c r="G63" t="s">
         <v>314</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>139</v>
       </c>
     </row>
@@ -38710,7 +39335,7 @@
       <c r="G64" t="s">
         <v>315</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>140</v>
       </c>
     </row>
@@ -38718,7 +39343,7 @@
       <c r="G65" t="s">
         <v>376</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>141</v>
       </c>
     </row>
@@ -38726,7 +39351,7 @@
       <c r="G66" t="s">
         <v>377</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>483</v>
       </c>
     </row>
@@ -38734,7 +39359,7 @@
       <c r="G67" t="s">
         <v>350</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>523</v>
       </c>
     </row>
@@ -38742,7 +39367,7 @@
       <c r="G68" t="s">
         <v>318</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>219</v>
       </c>
     </row>
@@ -38750,7 +39375,7 @@
       <c r="G69" t="s">
         <v>274</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>396</v>
       </c>
     </row>
@@ -38758,7 +39383,7 @@
       <c r="G70" t="s">
         <v>578</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>488</v>
       </c>
     </row>
@@ -38766,7 +39391,7 @@
       <c r="G71" t="s">
         <v>319</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>142</v>
       </c>
     </row>
@@ -38774,7 +39399,7 @@
       <c r="G72" t="s">
         <v>452</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>143</v>
       </c>
     </row>
@@ -38782,7 +39407,7 @@
       <c r="G73" t="s">
         <v>309</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>144</v>
       </c>
     </row>
@@ -38790,7 +39415,7 @@
       <c r="G74" t="s">
         <v>453</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>145</v>
       </c>
     </row>
@@ -38798,7 +39423,7 @@
       <c r="G75" t="s">
         <v>267</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>202</v>
       </c>
     </row>
@@ -38806,7 +39431,7 @@
       <c r="G76" t="s">
         <v>558</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>203</v>
       </c>
     </row>
@@ -38814,7 +39439,7 @@
       <c r="G77" t="s">
         <v>349</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>501</v>
       </c>
     </row>
@@ -38822,7 +39447,7 @@
       <c r="G78" t="s">
         <v>285</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>517</v>
       </c>
     </row>
@@ -38830,7 +39455,7 @@
       <c r="G79" t="s">
         <v>291</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>146</v>
       </c>
     </row>
@@ -38838,7 +39463,7 @@
       <c r="G80" t="s">
         <v>296</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>147</v>
       </c>
     </row>
@@ -38846,7 +39471,7 @@
       <c r="G81" t="s">
         <v>460</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>148</v>
       </c>
     </row>
@@ -38854,7 +39479,7 @@
       <c r="G82" t="s">
         <v>337</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>545</v>
       </c>
     </row>
@@ -38862,7 +39487,7 @@
       <c r="G83" t="s">
         <v>275</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>149</v>
       </c>
     </row>
@@ -38870,7 +39495,7 @@
       <c r="G84" t="s">
         <v>286</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>150</v>
       </c>
     </row>
@@ -38878,7 +39503,7 @@
       <c r="G85" t="s">
         <v>292</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>204</v>
       </c>
     </row>
@@ -38886,7 +39511,7 @@
       <c r="G86" t="s">
         <v>281</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>534</v>
       </c>
     </row>
@@ -38894,7 +39519,7 @@
       <c r="G87" t="s">
         <v>579</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>205</v>
       </c>
     </row>
@@ -38902,7 +39527,7 @@
       <c r="G88" t="s">
         <v>276</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>500</v>
       </c>
     </row>
@@ -38910,7 +39535,7 @@
       <c r="G89" t="s">
         <v>293</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>206</v>
       </c>
     </row>
@@ -38918,7 +39543,7 @@
       <c r="G90" t="s">
         <v>277</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>207</v>
       </c>
     </row>
@@ -38926,7 +39551,7 @@
       <c r="G91" t="s">
         <v>278</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>220</v>
       </c>
     </row>
@@ -38934,7 +39559,7 @@
       <c r="G92" t="s">
         <v>310</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>151</v>
       </c>
     </row>
@@ -38942,7 +39567,7 @@
       <c r="G93" t="s">
         <v>316</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>208</v>
       </c>
     </row>
@@ -38950,7 +39575,7 @@
       <c r="G94" t="s">
         <v>300</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>474</v>
       </c>
     </row>
@@ -38958,7 +39583,7 @@
       <c r="G95" t="s">
         <v>345</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>482</v>
       </c>
     </row>
@@ -38966,7 +39591,7 @@
       <c r="G96" t="s">
         <v>282</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>209</v>
       </c>
     </row>
@@ -38974,167 +39599,167 @@
       <c r="G97" t="s">
         <v>283</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -37,7 +37,7 @@
     <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30433" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33204" uniqueCount="599">
   <si>
     <t>jira</t>
   </si>
@@ -1851,6 +1851,18 @@
   </si>
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>saveISTDivsAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1858,7 +1870,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="958" x14ac:knownFonts="1">
+  <fonts count="1038" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7898,8 +7910,513 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1669">
+  <fills count="1804">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -17353,8 +17870,773 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1711">
+  <borders count="1871">
     <border>
       <left/>
       <right/>
@@ -33060,6 +34342,1636 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -34549,7 +37461,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="984">
+  <cellXfs count="1064">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -37471,52 +40383,292 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1641" fontId="941" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="942" fillId="1644" borderId="1686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="943" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1686" fillId="1644" fontId="942" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="943" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="944" fillId="1647" borderId="1690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1690" fillId="1647" fontId="944" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="945" fillId="1650" borderId="1694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1694" fillId="1650" fontId="945" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="946" fillId="1653" borderId="1698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1698" fillId="1653" fontId="946" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="947" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="947" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="948" fillId="1656" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1656" fontId="948" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="949" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="950" fillId="1659" borderId="1702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="951" fillId="1650" borderId="1706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="952" fillId="1662" borderId="1710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="953" fillId="1662" borderId="1710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="954" fillId="1653" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="955" fillId="1665" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="956" fillId="1653" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="957" fillId="1668" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="949" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1702" fillId="1659" fontId="950" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1706" fillId="1650" fontId="951" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1710" fillId="1662" fontId="952" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1710" fillId="1662" fontId="953" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1653" fontId="954" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1665" fontId="955" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1653" fontId="956" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1668" fontId="957" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1718" fillId="1671" fontId="958" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="959" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1722" fillId="1674" fontId="960" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1726" fillId="1677" fontId="961" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1730" fillId="1680" fontId="962" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="963" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1683" fontId="964" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="965" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1734" fillId="1686" fontId="966" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1738" fillId="1677" fontId="967" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1742" fillId="1689" fontId="968" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1742" fillId="1689" fontId="969" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1680" fontId="970" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1692" fontId="971" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1680" fontId="972" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1695" fontId="973" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1750" fillId="1698" fontId="974" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="975" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1754" fillId="1701" fontId="976" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1758" fillId="1704" fontId="977" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1762" fillId="1707" fontId="978" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="979" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1710" fontId="980" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="981" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1766" fillId="1713" fontId="982" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1770" fillId="1704" fontId="983" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1774" fillId="1716" fontId="984" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1774" fillId="1716" fontId="985" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1707" fontId="986" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1719" fontId="987" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1707" fontId="988" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1722" fontId="989" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1782" fillId="1725" fontId="990" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="991" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1786" fillId="1728" fontId="992" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1790" fillId="1731" fontId="993" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1794" fillId="1734" fontId="994" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="995" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1737" fontId="996" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="997" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1798" fillId="1740" fontId="998" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1802" fillId="1731" fontId="999" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1806" fillId="1743" fontId="1000" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1806" fillId="1743" fontId="1001" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1734" fontId="1002" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1746" fontId="1003" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1734" fontId="1004" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1749" fontId="1005" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1814" fillId="1752" fontId="1006" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1007" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1818" fillId="1755" fontId="1008" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1822" fillId="1758" fontId="1009" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1826" fillId="1761" fontId="1010" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1011" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1764" fontId="1012" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1013" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1830" fillId="1767" fontId="1014" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1834" fillId="1758" fontId="1015" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1838" fillId="1770" fontId="1016" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1838" fillId="1770" fontId="1017" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1761" fontId="1018" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1773" fontId="1019" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1761" fontId="1020" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1776" fontId="1021" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1022" fillId="1779" borderId="1846" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1023" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1024" fillId="1782" borderId="1850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1025" fillId="1785" borderId="1854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1026" fillId="1788" borderId="1858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1027" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1028" fillId="1791" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1029" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1030" fillId="1794" borderId="1862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1031" fillId="1785" borderId="1866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1032" fillId="1797" borderId="1870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1033" fillId="1797" borderId="1870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1034" fillId="1788" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1035" fillId="1800" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1036" fillId="1788" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1037" fillId="1803" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -37841,7 +40993,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE133"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -38926,7 +42078,7 @@
         <v>433</v>
       </c>
       <c r="Y24" t="s">
-        <v>114</v>
+        <v>595</v>
       </c>
       <c r="AD24" t="s">
         <v>587</v>
@@ -38946,7 +42098,7 @@
         <v>573</v>
       </c>
       <c r="Y25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD25" t="s">
         <v>588</v>
@@ -38966,7 +42118,7 @@
         <v>88</v>
       </c>
       <c r="Y26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AD26" t="s">
         <v>241</v>
@@ -38986,7 +42138,7 @@
         <v>485</v>
       </c>
       <c r="Y27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AD27" t="s">
         <v>242</v>
@@ -39006,7 +42158,7 @@
         <v>47</v>
       </c>
       <c r="Y28" t="s">
-        <v>332</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29">
@@ -39023,7 +42175,7 @@
         <v>48</v>
       </c>
       <c r="Y29" t="s">
-        <v>118</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30">
@@ -39037,7 +42189,7 @@
         <v>221</v>
       </c>
       <c r="Y30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31">
@@ -39048,7 +42200,7 @@
         <v>280</v>
       </c>
       <c r="Y31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32">
@@ -39059,7 +42211,7 @@
         <v>290</v>
       </c>
       <c r="Y32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
@@ -39070,7 +42222,7 @@
         <v>557</v>
       </c>
       <c r="Y33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
@@ -39081,7 +42233,7 @@
         <v>265</v>
       </c>
       <c r="Y34" t="s">
-        <v>123</v>
+        <v>596</v>
       </c>
     </row>
     <row r="35">
@@ -39092,7 +42244,7 @@
         <v>335</v>
       </c>
       <c r="Y35" t="s">
-        <v>215</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36">
@@ -39103,7 +42255,7 @@
         <v>312</v>
       </c>
       <c r="Y36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37">
@@ -39114,7 +42266,7 @@
         <v>266</v>
       </c>
       <c r="Y37" t="s">
-        <v>343</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38">
@@ -39125,7 +42277,7 @@
         <v>313</v>
       </c>
       <c r="Y38" t="s">
-        <v>472</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39">
@@ -39136,7 +42288,7 @@
         <v>272</v>
       </c>
       <c r="Y39" t="s">
-        <v>577</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40">
@@ -39144,7 +42296,7 @@
         <v>81</v>
       </c>
       <c r="Y40" t="s">
-        <v>434</v>
+        <v>472</v>
       </c>
     </row>
     <row r="41">
@@ -39152,7 +42304,7 @@
         <v>217</v>
       </c>
       <c r="Y41" t="s">
-        <v>125</v>
+        <v>577</v>
       </c>
     </row>
     <row r="42">
@@ -39160,7 +42312,7 @@
         <v>592</v>
       </c>
       <c r="Y42" t="s">
-        <v>126</v>
+        <v>434</v>
       </c>
     </row>
     <row r="43">
@@ -39168,7 +42320,7 @@
         <v>294</v>
       </c>
       <c r="Y43" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44">
@@ -39176,7 +42328,7 @@
         <v>305</v>
       </c>
       <c r="Y44" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45">
@@ -39184,7 +42336,7 @@
         <v>306</v>
       </c>
       <c r="Y45" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46">
@@ -39192,7 +42344,7 @@
         <v>348</v>
       </c>
       <c r="Y46" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47">
@@ -39200,7 +42352,7 @@
         <v>347</v>
       </c>
       <c r="Y47" t="s">
-        <v>487</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48">
@@ -39208,7 +42360,7 @@
         <v>216</v>
       </c>
       <c r="Y48" t="s">
-        <v>218</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49">
@@ -39216,7 +42368,7 @@
         <v>325</v>
       </c>
       <c r="Y49" t="s">
-        <v>80</v>
+        <v>487</v>
       </c>
     </row>
     <row r="50">
@@ -39224,7 +42376,7 @@
         <v>344</v>
       </c>
       <c r="Y50" t="s">
-        <v>582</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51">
@@ -39232,7 +42384,7 @@
         <v>375</v>
       </c>
       <c r="Y51" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52">
@@ -39240,7 +42392,7 @@
         <v>307</v>
       </c>
       <c r="Y52" t="s">
-        <v>132</v>
+        <v>582</v>
       </c>
     </row>
     <row r="53">
@@ -39248,7 +42400,7 @@
         <v>361</v>
       </c>
       <c r="Y53" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54">
@@ -39256,7 +42408,7 @@
         <v>336</v>
       </c>
       <c r="Y54" t="s">
-        <v>533</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55">
@@ -39264,7 +42416,7 @@
         <v>273</v>
       </c>
       <c r="Y55" t="s">
-        <v>513</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56">
@@ -39272,7 +42424,7 @@
         <v>297</v>
       </c>
       <c r="Y56" t="s">
-        <v>134</v>
+        <v>533</v>
       </c>
     </row>
     <row r="57">
@@ -39280,7 +42432,7 @@
         <v>298</v>
       </c>
       <c r="Y57" t="s">
-        <v>351</v>
+        <v>513</v>
       </c>
     </row>
     <row r="58">
@@ -39288,7 +42440,7 @@
         <v>593</v>
       </c>
       <c r="Y58" t="s">
-        <v>506</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59">
@@ -39296,7 +42448,7 @@
         <v>299</v>
       </c>
       <c r="Y59" t="s">
-        <v>135</v>
+        <v>351</v>
       </c>
     </row>
     <row r="60">
@@ -39304,7 +42456,7 @@
         <v>308</v>
       </c>
       <c r="Y60" t="s">
-        <v>136</v>
+        <v>506</v>
       </c>
     </row>
     <row r="61">
@@ -39312,7 +42464,7 @@
         <v>317</v>
       </c>
       <c r="Y61" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62">
@@ -39320,7 +42472,7 @@
         <v>342</v>
       </c>
       <c r="Y62" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63">
@@ -39328,7 +42480,7 @@
         <v>314</v>
       </c>
       <c r="Y63" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64">
@@ -39336,7 +42488,7 @@
         <v>315</v>
       </c>
       <c r="Y64" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65">
@@ -39344,7 +42496,7 @@
         <v>376</v>
       </c>
       <c r="Y65" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66">
@@ -39352,7 +42504,7 @@
         <v>377</v>
       </c>
       <c r="Y66" t="s">
-        <v>483</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67">
@@ -39360,7 +42512,7 @@
         <v>350</v>
       </c>
       <c r="Y67" t="s">
-        <v>523</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68">
@@ -39368,7 +42520,7 @@
         <v>318</v>
       </c>
       <c r="Y68" t="s">
-        <v>219</v>
+        <v>483</v>
       </c>
     </row>
     <row r="69">
@@ -39376,7 +42528,7 @@
         <v>274</v>
       </c>
       <c r="Y69" t="s">
-        <v>396</v>
+        <v>523</v>
       </c>
     </row>
     <row r="70">
@@ -39384,7 +42536,7 @@
         <v>578</v>
       </c>
       <c r="Y70" t="s">
-        <v>488</v>
+        <v>219</v>
       </c>
     </row>
     <row r="71">
@@ -39392,7 +42544,7 @@
         <v>319</v>
       </c>
       <c r="Y71" t="s">
-        <v>142</v>
+        <v>396</v>
       </c>
     </row>
     <row r="72">
@@ -39400,7 +42552,7 @@
         <v>452</v>
       </c>
       <c r="Y72" t="s">
-        <v>143</v>
+        <v>488</v>
       </c>
     </row>
     <row r="73">
@@ -39408,7 +42560,7 @@
         <v>309</v>
       </c>
       <c r="Y73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74">
@@ -39416,7 +42568,7 @@
         <v>453</v>
       </c>
       <c r="Y74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75">
@@ -39424,7 +42576,7 @@
         <v>267</v>
       </c>
       <c r="Y75" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76">
@@ -39432,7 +42584,7 @@
         <v>558</v>
       </c>
       <c r="Y76" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77">
@@ -39440,7 +42592,7 @@
         <v>349</v>
       </c>
       <c r="Y77" t="s">
-        <v>501</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78">
@@ -39448,7 +42600,7 @@
         <v>285</v>
       </c>
       <c r="Y78" t="s">
-        <v>517</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79">
@@ -39456,7 +42608,7 @@
         <v>291</v>
       </c>
       <c r="Y79" t="s">
-        <v>146</v>
+        <v>501</v>
       </c>
     </row>
     <row r="80">
@@ -39464,7 +42616,7 @@
         <v>296</v>
       </c>
       <c r="Y80" t="s">
-        <v>147</v>
+        <v>517</v>
       </c>
     </row>
     <row r="81">
@@ -39472,7 +42624,7 @@
         <v>460</v>
       </c>
       <c r="Y81" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82">
@@ -39480,7 +42632,7 @@
         <v>337</v>
       </c>
       <c r="Y82" t="s">
-        <v>545</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83">
@@ -39488,7 +42640,7 @@
         <v>275</v>
       </c>
       <c r="Y83" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84">
@@ -39496,7 +42648,7 @@
         <v>286</v>
       </c>
       <c r="Y84" t="s">
-        <v>150</v>
+        <v>545</v>
       </c>
     </row>
     <row r="85">
@@ -39504,7 +42656,7 @@
         <v>292</v>
       </c>
       <c r="Y85" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86">
@@ -39512,7 +42664,7 @@
         <v>281</v>
       </c>
       <c r="Y86" t="s">
-        <v>534</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87">
@@ -39520,7 +42672,7 @@
         <v>579</v>
       </c>
       <c r="Y87" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88">
@@ -39528,7 +42680,7 @@
         <v>276</v>
       </c>
       <c r="Y88" t="s">
-        <v>500</v>
+        <v>534</v>
       </c>
     </row>
     <row r="89">
@@ -39536,7 +42688,7 @@
         <v>293</v>
       </c>
       <c r="Y89" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90">
@@ -39544,7 +42696,7 @@
         <v>277</v>
       </c>
       <c r="Y90" t="s">
-        <v>207</v>
+        <v>500</v>
       </c>
     </row>
     <row r="91">
@@ -39552,7 +42704,7 @@
         <v>278</v>
       </c>
       <c r="Y91" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92">
@@ -39560,7 +42712,7 @@
         <v>310</v>
       </c>
       <c r="Y92" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93">
@@ -39568,7 +42720,7 @@
         <v>316</v>
       </c>
       <c r="Y93" t="s">
-        <v>208</v>
+        <v>598</v>
       </c>
     </row>
     <row r="94">
@@ -39576,7 +42728,7 @@
         <v>300</v>
       </c>
       <c r="Y94" t="s">
-        <v>474</v>
+        <v>220</v>
       </c>
     </row>
     <row r="95">
@@ -39584,7 +42736,7 @@
         <v>345</v>
       </c>
       <c r="Y95" t="s">
-        <v>482</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96">
@@ -39592,7 +42744,7 @@
         <v>282</v>
       </c>
       <c r="Y96" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97">
@@ -39600,166 +42752,186 @@
         <v>283</v>
       </c>
       <c r="Y97" t="s">
-        <v>210</v>
+        <v>474</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>211</v>
+        <v>482</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>556</v>
+        <v>212</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>559</v>
+        <v>228</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>390</v>
+        <v>559</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>155</v>
+        <v>560</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>156</v>
+        <v>390</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>489</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>169</v>
+        <v>489</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>49</v>
+        <v>597</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -21,7 +21,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33204" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33760" uniqueCount="601">
   <si>
     <t>jira</t>
   </si>
@@ -1863,6 +1863,12 @@
   </si>
   <si>
     <t>saveISTDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1870,7 +1876,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1038" x14ac:knownFonts="1">
+  <fonts count="1054" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8415,8 +8421,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1804">
+  <fills count="1831">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -18635,8 +18742,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1871">
+  <borders count="1903">
     <border>
       <left/>
       <right/>
@@ -34342,6 +34602,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -37461,7 +38047,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1064">
+  <cellXfs count="1080">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -40623,52 +41209,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1776" fontId="1021" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1022" fillId="1779" borderId="1846" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1023" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1846" fillId="1779" fontId="1022" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1023" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1024" fillId="1782" borderId="1850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1850" fillId="1782" fontId="1024" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1025" fillId="1785" borderId="1854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1854" fillId="1785" fontId="1025" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1026" fillId="1788" borderId="1858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1858" fillId="1788" fontId="1026" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1027" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1027" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1028" fillId="1791" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1791" fontId="1028" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1029" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1030" fillId="1794" borderId="1862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1031" fillId="1785" borderId="1866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1032" fillId="1797" borderId="1870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1033" fillId="1797" borderId="1870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1034" fillId="1788" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1035" fillId="1800" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1036" fillId="1788" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1037" fillId="1803" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1029" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1862" fillId="1794" fontId="1030" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1866" fillId="1785" fontId="1031" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1870" fillId="1797" fontId="1032" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1870" fillId="1797" fontId="1033" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1788" fontId="1034" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1800" fontId="1035" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1788" fontId="1036" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1803" fontId="1037" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1038" fillId="1806" borderId="1878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1039" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1040" fillId="1809" borderId="1882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1041" fillId="1812" borderId="1886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1042" fillId="1815" borderId="1890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1043" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1044" fillId="1818" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1045" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1046" fillId="1821" borderId="1894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1047" fillId="1812" borderId="1898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1048" fillId="1824" borderId="1902" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1049" fillId="1824" borderId="1902" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1050" fillId="1815" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1051" fillId="1827" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1052" fillId="1815" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1053" fillId="1830" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -41374,7 +42008,7 @@
         <v>484</v>
       </c>
       <c r="G5" t="s">
-        <v>341</v>
+        <v>599</v>
       </c>
       <c r="H5" t="s">
         <v>502</v>
@@ -41448,7 +42082,7 @@
         <v>552</v>
       </c>
       <c r="G6" t="s">
-        <v>395</v>
+        <v>341</v>
       </c>
       <c r="H6" t="s">
         <v>494</v>
@@ -41510,7 +42144,7 @@
         <v>229</v>
       </c>
       <c r="G7" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="H7" t="s">
         <v>493</v>
@@ -41572,7 +42206,7 @@
         <v>323</v>
       </c>
       <c r="G8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H8" t="s">
         <v>333</v>
@@ -41628,7 +42262,7 @@
         <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>311</v>
+        <v>374</v>
       </c>
       <c r="H9" t="s">
         <v>334</v>
@@ -41672,7 +42306,7 @@
         <v>320</v>
       </c>
       <c r="G10" t="s">
-        <v>357</v>
+        <v>311</v>
       </c>
       <c r="H10" t="s">
         <v>498</v>
@@ -41713,7 +42347,7 @@
         <v>260</v>
       </c>
       <c r="G11" t="s">
-        <v>279</v>
+        <v>357</v>
       </c>
       <c r="H11" t="s">
         <v>327</v>
@@ -41751,7 +42385,7 @@
         <v>324</v>
       </c>
       <c r="G12" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="H12" t="s">
         <v>328</v>
@@ -41789,7 +42423,7 @@
         <v>346</v>
       </c>
       <c r="G13" t="s">
-        <v>321</v>
+        <v>268</v>
       </c>
       <c r="H13" t="s">
         <v>329</v>
@@ -41824,7 +42458,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>269</v>
+        <v>321</v>
       </c>
       <c r="H14" t="s">
         <v>330</v>
@@ -41859,7 +42493,7 @@
         <v>62</v>
       </c>
       <c r="G15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K15" t="s">
         <v>555</v>
@@ -41891,7 +42525,7 @@
         <v>392</v>
       </c>
       <c r="G16" t="s">
-        <v>322</v>
+        <v>270</v>
       </c>
       <c r="K16" t="s">
         <v>84</v>
@@ -41923,7 +42557,7 @@
         <v>393</v>
       </c>
       <c r="G17" t="s">
-        <v>92</v>
+        <v>322</v>
       </c>
       <c r="K17" t="s">
         <v>85</v>
@@ -41949,7 +42583,7 @@
         <v>458</v>
       </c>
       <c r="G18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K18" t="s">
         <v>503</v>
@@ -41972,7 +42606,7 @@
         <v>63</v>
       </c>
       <c r="G19" t="s">
-        <v>301</v>
+        <v>93</v>
       </c>
       <c r="K19" t="s">
         <v>86</v>
@@ -41992,7 +42626,7 @@
         <v>64</v>
       </c>
       <c r="G20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K20" t="s">
         <v>87</v>
@@ -42012,7 +42646,7 @@
         <v>261</v>
       </c>
       <c r="G21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K21" t="s">
         <v>387</v>
@@ -42032,7 +42666,7 @@
         <v>590</v>
       </c>
       <c r="G22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K22" t="s">
         <v>520</v>
@@ -42052,7 +42686,7 @@
         <v>65</v>
       </c>
       <c r="G23" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="K23" t="s">
         <v>46</v>
@@ -42072,7 +42706,7 @@
         <v>326</v>
       </c>
       <c r="G24" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="K24" t="s">
         <v>433</v>
@@ -42092,7 +42726,7 @@
         <v>66</v>
       </c>
       <c r="G25" t="s">
-        <v>79</v>
+        <v>284</v>
       </c>
       <c r="K25" t="s">
         <v>573</v>
@@ -42112,7 +42746,7 @@
         <v>495</v>
       </c>
       <c r="G26" t="s">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="K26" t="s">
         <v>88</v>
@@ -42132,7 +42766,7 @@
         <v>230</v>
       </c>
       <c r="G27" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="K27" t="s">
         <v>485</v>
@@ -42152,7 +42786,7 @@
         <v>231</v>
       </c>
       <c r="G28" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="K28" t="s">
         <v>47</v>
@@ -42169,7 +42803,7 @@
         <v>518</v>
       </c>
       <c r="G29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K29" t="s">
         <v>48</v>
@@ -42186,7 +42820,7 @@
         <v>519</v>
       </c>
       <c r="G30" t="s">
-        <v>221</v>
+        <v>289</v>
       </c>
       <c r="Y30" t="s">
         <v>118</v>
@@ -42197,7 +42831,7 @@
         <v>459</v>
       </c>
       <c r="G31" t="s">
-        <v>280</v>
+        <v>221</v>
       </c>
       <c r="Y31" t="s">
         <v>119</v>
@@ -42208,7 +42842,7 @@
         <v>67</v>
       </c>
       <c r="G32" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="Y32" t="s">
         <v>120</v>
@@ -42219,7 +42853,7 @@
         <v>68</v>
       </c>
       <c r="G33" t="s">
-        <v>557</v>
+        <v>290</v>
       </c>
       <c r="Y33" t="s">
         <v>121</v>
@@ -42230,7 +42864,7 @@
         <v>69</v>
       </c>
       <c r="G34" t="s">
-        <v>265</v>
+        <v>557</v>
       </c>
       <c r="Y34" t="s">
         <v>596</v>
@@ -42241,7 +42875,7 @@
         <v>70</v>
       </c>
       <c r="G35" t="s">
-        <v>335</v>
+        <v>265</v>
       </c>
       <c r="Y35" t="s">
         <v>122</v>
@@ -42252,7 +42886,7 @@
         <v>71</v>
       </c>
       <c r="G36" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="Y36" t="s">
         <v>123</v>
@@ -42263,7 +42897,7 @@
         <v>72</v>
       </c>
       <c r="G37" t="s">
-        <v>266</v>
+        <v>312</v>
       </c>
       <c r="Y37" t="s">
         <v>215</v>
@@ -42274,7 +42908,7 @@
         <v>73</v>
       </c>
       <c r="G38" t="s">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="Y38" t="s">
         <v>124</v>
@@ -42285,7 +42919,7 @@
         <v>74</v>
       </c>
       <c r="G39" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="Y39" t="s">
         <v>343</v>
@@ -42293,7 +42927,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>81</v>
+        <v>272</v>
       </c>
       <c r="Y40" t="s">
         <v>472</v>
@@ -42301,7 +42935,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="Y41" t="s">
         <v>577</v>
@@ -42309,7 +42943,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>592</v>
+        <v>217</v>
       </c>
       <c r="Y42" t="s">
         <v>434</v>
@@ -42317,7 +42951,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>294</v>
+        <v>592</v>
       </c>
       <c r="Y43" t="s">
         <v>125</v>
@@ -42325,7 +42959,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="Y44" t="s">
         <v>126</v>
@@ -42333,7 +42967,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y45" t="s">
         <v>127</v>
@@ -42341,7 +42975,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>348</v>
+        <v>306</v>
       </c>
       <c r="Y46" t="s">
         <v>128</v>
@@ -42349,7 +42983,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Y47" t="s">
         <v>129</v>
@@ -42357,7 +42991,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>216</v>
+        <v>347</v>
       </c>
       <c r="Y48" t="s">
         <v>130</v>
@@ -42365,7 +42999,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>325</v>
+        <v>216</v>
       </c>
       <c r="Y49" t="s">
         <v>487</v>
@@ -42373,7 +43007,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="Y50" t="s">
         <v>218</v>
@@ -42381,7 +43015,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="Y51" t="s">
         <v>80</v>
@@ -42389,7 +43023,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>307</v>
+        <v>375</v>
       </c>
       <c r="Y52" t="s">
         <v>582</v>
@@ -42397,7 +43031,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="Y53" t="s">
         <v>131</v>
@@ -42405,7 +43039,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="Y54" t="s">
         <v>132</v>
@@ -42413,7 +43047,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>273</v>
+        <v>336</v>
       </c>
       <c r="Y55" t="s">
         <v>133</v>
@@ -42421,7 +43055,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="Y56" t="s">
         <v>533</v>
@@ -42429,7 +43063,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Y57" t="s">
         <v>513</v>
@@ -42437,7 +43071,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>593</v>
+        <v>298</v>
       </c>
       <c r="Y58" t="s">
         <v>134</v>
@@ -42445,7 +43079,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>299</v>
+        <v>593</v>
       </c>
       <c r="Y59" t="s">
         <v>351</v>
@@ -42453,7 +43087,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="Y60" t="s">
         <v>506</v>
@@ -42461,7 +43095,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="Y61" t="s">
         <v>135</v>
@@ -42469,7 +43103,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="Y62" t="s">
         <v>136</v>
@@ -42477,7 +43111,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="Y63" t="s">
         <v>137</v>
@@ -42485,7 +43119,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Y64" t="s">
         <v>138</v>
@@ -42493,7 +43127,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>376</v>
+        <v>315</v>
       </c>
       <c r="Y65" t="s">
         <v>139</v>
@@ -42501,7 +43135,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Y66" t="s">
         <v>140</v>
@@ -42509,7 +43143,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="Y67" t="s">
         <v>141</v>
@@ -42517,7 +43151,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="Y68" t="s">
         <v>483</v>
@@ -42525,7 +43159,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>274</v>
+        <v>318</v>
       </c>
       <c r="Y69" t="s">
         <v>523</v>
@@ -42533,7 +43167,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>578</v>
+        <v>274</v>
       </c>
       <c r="Y70" t="s">
         <v>219</v>
@@ -42541,7 +43175,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>319</v>
+        <v>578</v>
       </c>
       <c r="Y71" t="s">
         <v>396</v>
@@ -42549,7 +43183,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>452</v>
+        <v>319</v>
       </c>
       <c r="Y72" t="s">
         <v>488</v>
@@ -42557,7 +43191,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>309</v>
+        <v>452</v>
       </c>
       <c r="Y73" t="s">
         <v>142</v>
@@ -42565,7 +43199,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>453</v>
+        <v>309</v>
       </c>
       <c r="Y74" t="s">
         <v>143</v>
@@ -42573,7 +43207,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>267</v>
+        <v>453</v>
       </c>
       <c r="Y75" t="s">
         <v>144</v>
@@ -42581,7 +43215,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>558</v>
+        <v>267</v>
       </c>
       <c r="Y76" t="s">
         <v>145</v>
@@ -42589,7 +43223,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>349</v>
+        <v>558</v>
       </c>
       <c r="Y77" t="s">
         <v>202</v>
@@ -42597,7 +43231,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>285</v>
+        <v>349</v>
       </c>
       <c r="Y78" t="s">
         <v>203</v>
@@ -42605,7 +43239,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="Y79" t="s">
         <v>501</v>
@@ -42613,7 +43247,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="Y80" t="s">
         <v>517</v>
@@ -42621,7 +43255,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>460</v>
+        <v>296</v>
       </c>
       <c r="Y81" t="s">
         <v>146</v>
@@ -42629,7 +43263,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>337</v>
+        <v>460</v>
       </c>
       <c r="Y82" t="s">
         <v>147</v>
@@ -42637,7 +43271,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>275</v>
+        <v>337</v>
       </c>
       <c r="Y83" t="s">
         <v>148</v>
@@ -42645,7 +43279,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="Y84" t="s">
         <v>545</v>
@@ -42653,7 +43287,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="Y85" t="s">
         <v>149</v>
@@ -42661,7 +43295,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="Y86" t="s">
         <v>150</v>
@@ -42669,7 +43303,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>579</v>
+        <v>281</v>
       </c>
       <c r="Y87" t="s">
         <v>204</v>
@@ -42677,7 +43311,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>276</v>
+        <v>579</v>
       </c>
       <c r="Y88" t="s">
         <v>534</v>
@@ -42685,7 +43319,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="Y89" t="s">
         <v>205</v>
@@ -42693,7 +43327,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="Y90" t="s">
         <v>500</v>
@@ -42701,7 +43335,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Y91" t="s">
         <v>206</v>
@@ -42709,7 +43343,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="Y92" t="s">
         <v>207</v>
@@ -42717,15 +43351,15 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="Y93" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="Y94" t="s">
         <v>220</v>
@@ -42733,7 +43367,7 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="Y95" t="s">
         <v>151</v>
@@ -42741,7 +43375,7 @@
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>282</v>
+        <v>345</v>
       </c>
       <c r="Y96" t="s">
         <v>208</v>
@@ -42749,13 +43383,16 @@
     </row>
     <row r="97">
       <c r="G97" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y97" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="98">
+      <c r="G98" t="s">
+        <v>283</v>
+      </c>
       <c r="Y98" t="s">
         <v>482</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -37,7 +37,7 @@
     <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33760" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34317" uniqueCount="602">
   <si>
     <t>jira</t>
   </si>
@@ -1869,6 +1869,9 @@
   </si>
   <si>
     <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1876,7 +1879,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1054" x14ac:knownFonts="1">
+  <fonts count="1070" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8522,8 +8525,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1831">
+  <fills count="1858">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -18895,8 +18999,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1903">
+  <borders count="1935">
     <border>
       <left/>
       <right/>
@@ -34602,6 +34859,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -38047,7 +38630,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1080">
+  <cellXfs count="1096">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -41257,52 +41840,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1803" fontId="1037" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1038" fillId="1806" borderId="1878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1039" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1878" fillId="1806" fontId="1038" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1039" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1040" fillId="1809" borderId="1882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1882" fillId="1809" fontId="1040" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1041" fillId="1812" borderId="1886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1886" fillId="1812" fontId="1041" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1042" fillId="1815" borderId="1890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1890" fillId="1815" fontId="1042" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1043" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1043" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1044" fillId="1818" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1818" fontId="1044" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1045" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1046" fillId="1821" borderId="1894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1047" fillId="1812" borderId="1898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1048" fillId="1824" borderId="1902" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1049" fillId="1824" borderId="1902" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1050" fillId="1815" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1051" fillId="1827" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1052" fillId="1815" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1053" fillId="1830" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1045" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1894" fillId="1821" fontId="1046" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1898" fillId="1812" fontId="1047" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1902" fillId="1824" fontId="1048" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1902" fillId="1824" fontId="1049" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1815" fontId="1050" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1827" fontId="1051" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1815" fontId="1052" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1830" fontId="1053" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1054" fillId="1833" borderId="1910" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1055" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1056" fillId="1836" borderId="1914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1057" fillId="1839" borderId="1918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1058" fillId="1842" borderId="1922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1059" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1060" fillId="1845" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1061" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1062" fillId="1848" borderId="1926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1063" fillId="1839" borderId="1930" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1064" fillId="1851" borderId="1934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1065" fillId="1851" borderId="1934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1066" fillId="1842" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1067" fillId="1854" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1068" fillId="1842" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1069" fillId="1857" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -41627,7 +42258,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE133"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -43362,7 +43993,7 @@
         <v>316</v>
       </c>
       <c r="Y94" t="s">
-        <v>220</v>
+        <v>601</v>
       </c>
     </row>
     <row r="95">
@@ -43370,7 +44001,7 @@
         <v>300</v>
       </c>
       <c r="Y95" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
     </row>
     <row r="96">
@@ -43378,7 +44009,7 @@
         <v>345</v>
       </c>
       <c r="Y96" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97">
@@ -43386,7 +44017,7 @@
         <v>282</v>
       </c>
       <c r="Y97" t="s">
-        <v>474</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98">
@@ -43394,181 +44025,186 @@
         <v>283</v>
       </c>
       <c r="Y98" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>209</v>
+        <v>482</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>556</v>
+        <v>213</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>153</v>
+        <v>559</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>560</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>390</v>
+        <v>560</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>154</v>
+        <v>390</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>489</v>
+        <v>166</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>167</v>
+        <v>489</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>597</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>168</v>
+        <v>597</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
     </row>
     <row r="130">
       <c r="Y130" t="s">
-        <v>171</v>
+        <v>49</v>
       </c>
     </row>
     <row r="131">
       <c r="Y131" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="132">
       <c r="Y132" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="133">
       <c r="Y133" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -17,41 +17,42 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34317" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34878" uniqueCount="608">
   <si>
     <t>jira</t>
   </si>
@@ -1872,6 +1873,24 @@
   </si>
   <si>
     <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
   </si>
 </sst>
 </file>
@@ -1879,7 +1898,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1070" x14ac:knownFonts="1">
+  <fonts count="1086" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8626,8 +8645,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1858">
+  <fills count="1885">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -19152,8 +19272,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1935">
+  <borders count="1967">
     <border>
       <left/>
       <right/>
@@ -34859,6 +35132,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -38630,7 +39229,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1096">
+  <cellXfs count="1112">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -41888,52 +42487,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1830" fontId="1053" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1054" fillId="1833" borderId="1910" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1055" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1910" fillId="1833" fontId="1054" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1055" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1056" fillId="1836" borderId="1914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1914" fillId="1836" fontId="1056" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1057" fillId="1839" borderId="1918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1918" fillId="1839" fontId="1057" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1058" fillId="1842" borderId="1922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1922" fillId="1842" fontId="1058" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1059" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1059" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1060" fillId="1845" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1845" fontId="1060" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1061" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1062" fillId="1848" borderId="1926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1063" fillId="1839" borderId="1930" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1064" fillId="1851" borderId="1934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1065" fillId="1851" borderId="1934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1066" fillId="1842" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1067" fillId="1854" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1068" fillId="1842" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1069" fillId="1857" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1061" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1926" fillId="1848" fontId="1062" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1930" fillId="1839" fontId="1063" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1934" fillId="1851" fontId="1064" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1934" fillId="1851" fontId="1065" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1842" fontId="1066" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1854" fontId="1067" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1842" fontId="1068" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1857" fontId="1069" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1070" fillId="1860" borderId="1942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1071" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1072" fillId="1863" borderId="1946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1073" fillId="1866" borderId="1950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1074" fillId="1869" borderId="1954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1075" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1076" fillId="1872" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1077" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1078" fillId="1875" borderId="1958" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1079" fillId="1866" borderId="1962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1080" fillId="1878" borderId="1966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1081" fillId="1878" borderId="1966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1082" fillId="1869" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1083" fillId="1881" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1084" fillId="1869" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1085" fillId="1884" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -42258,7 +42905,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -42283,81 +42930,84 @@
         <v>535</v>
       </c>
       <c r="E1" t="s">
+        <v>602</v>
+      </c>
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>352</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>338</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>561</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>526</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>200</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>55</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>244</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>56</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>442</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>455</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>456</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>364</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>438</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>59</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>60</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>457</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>232</v>
       </c>
     </row>
@@ -42375,81 +43025,84 @@
         <v>536</v>
       </c>
       <c r="E2" t="s">
+        <v>603</v>
+      </c>
+      <c r="F2" t="s">
         <v>61</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>75</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>77</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>496</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>82</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>516</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>320</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>391</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>461</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>562</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>529</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>462</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>463</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>258</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>222</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>443</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>467</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>468</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>388</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>439</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>100</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>175</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>180</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>187</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>476</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>540</v>
       </c>
     </row>
@@ -42466,76 +43119,76 @@
       <c r="D3" t="s">
         <v>572</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>504</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>372</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>91</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>52</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>527</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>354</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>346</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>339</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>89</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>563</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>530</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>464</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>245</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>223</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>444</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>469</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>389</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>440</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>101</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>176</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>181</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>371</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>188</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>233</v>
       </c>
     </row>
@@ -42549,82 +43202,82 @@
       <c r="D4" t="s">
         <v>537</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>76</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>394</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>497</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>528</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>355</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>243</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>340</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>27</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>564</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>531</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>28</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>246</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>224</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>445</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>470</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>365</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>441</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>359</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>177</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>182</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>188</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>477</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>602</v>
       </c>
       <c r="B5" t="s">
         <v>382</v>
@@ -42632,73 +43285,73 @@
       <c r="D5" t="s">
         <v>538</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>505</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>484</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>599</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>502</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>576</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>356</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>510</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>90</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>574</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>32</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>247</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>225</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>446</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>471</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>366</v>
       </c>
-      <c r="Y5" t="s">
-        <v>360</v>
-      </c>
       <c r="Z5" t="s">
+        <v>605</v>
+      </c>
+      <c r="AA5" t="s">
         <v>178</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>183</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>189</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>478</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>383</v>
@@ -42706,1505 +43359,1513 @@
       <c r="D6" t="s">
         <v>539</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>29</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>552</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>341</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>494</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>353</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>75</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>31</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>568</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>33</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>248</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>399</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>447</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>368</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>102</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>490</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>184</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>190</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>479</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
         <v>384</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>229</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>395</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>493</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>580</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>18</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>320</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>569</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>35</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>249</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>466</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>448</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>367</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>103</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>491</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>185</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>191</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>480</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>385</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>323</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>373</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>333</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>553</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>36</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>570</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>94</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>250</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>449</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>369</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>104</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>179</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>186</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>192</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>481</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>386</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>34</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>374</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>334</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>83</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>37</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>575</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>95</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>251</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>450</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>370</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>214</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>193</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>352</v>
-      </c>
-      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
         <v>320</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>311</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>498</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>40</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>38</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>565</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>465</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>252</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>451</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>262</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>194</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>260</v>
-      </c>
-      <c r="G11" t="s">
+        <v>352</v>
+      </c>
+      <c r="F11" t="s">
+        <v>604</v>
+      </c>
+      <c r="H11" t="s">
         <v>357</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>327</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>554</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>521</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>566</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>96</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>253</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>263</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>264</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>338</v>
-      </c>
-      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
         <v>324</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>279</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>328</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>397</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>581</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>567</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>43</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>254</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>105</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>195</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
+        <v>338</v>
+      </c>
+      <c r="F13" t="s">
         <v>346</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>268</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>329</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>19</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>486</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>97</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>259</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>331</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>196</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>561</v>
-      </c>
-      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>39</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>321</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>330</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>44</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>522</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>98</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>255</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>106</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>197</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>526</v>
-      </c>
-      <c r="E15" t="s">
+        <v>561</v>
+      </c>
+      <c r="F15" t="s">
         <v>62</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>269</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>555</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>41</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>549</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>256</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>107</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>198</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>200</v>
-      </c>
-      <c r="E16" t="s">
+        <v>526</v>
+      </c>
+      <c r="F16" t="s">
         <v>392</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>270</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>84</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>594</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>550</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>257</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>78</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>199</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" t="s">
         <v>393</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>322</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>85</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>42</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>551</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>511</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>244</v>
-      </c>
-      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
         <v>458</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>92</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>503</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>45</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>108</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" t="s">
+        <v>244</v>
+      </c>
+      <c r="F19" t="s">
         <v>63</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>93</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>86</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>109</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>442</v>
-      </c>
-      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
         <v>64</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>301</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>87</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>110</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>455</v>
-      </c>
-      <c r="E21" t="s">
+        <v>442</v>
+      </c>
+      <c r="F21" t="s">
         <v>261</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>302</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>387</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>111</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>456</v>
-      </c>
-      <c r="E22" t="s">
+        <v>455</v>
+      </c>
+      <c r="F22" t="s">
         <v>590</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>303</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>520</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>532</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>364</v>
-      </c>
-      <c r="E23" t="s">
+        <v>456</v>
+      </c>
+      <c r="F23" t="s">
         <v>65</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>304</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>46</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>113</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>438</v>
-      </c>
-      <c r="E24" t="s">
+        <v>364</v>
+      </c>
+      <c r="F24" t="s">
         <v>326</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>295</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>433</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>595</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" t="s">
+        <v>438</v>
+      </c>
+      <c r="F25" t="s">
         <v>66</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>284</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>573</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>114</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" t="s">
         <v>495</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>79</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>88</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>115</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" t="s">
         <v>230</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>287</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>485</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>116</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
         <v>231</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>271</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>47</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>457</v>
-      </c>
-      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" t="s">
         <v>518</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>288</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>48</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>457</v>
+      </c>
+      <c r="F30" t="s">
+        <v>519</v>
+      </c>
+      <c r="H30" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>232</v>
       </c>
-      <c r="E30" t="s">
-        <v>519</v>
-      </c>
-      <c r="G30" t="s">
-        <v>289</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>459</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>221</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>67</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>280</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>68</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>290</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>69</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>557</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="35">
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>70</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>265</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>71</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>335</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>72</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>312</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>73</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>266</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>74</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>313</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>272</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>81</v>
       </c>
-      <c r="Y41" t="s">
-        <v>577</v>
+      <c r="Z41" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>217</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>592</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>294</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>305</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>306</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>348</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>347</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>216</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>325</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>344</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>375</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>307</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>361</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>336</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>273</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>297</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>298</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>593</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>299</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>308</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>317</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>342</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>314</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>315</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>376</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>377</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>350</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>318</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>274</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>578</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>319</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>452</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>309</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>453</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>267</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>558</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>349</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>285</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>291</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>296</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>460</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>337</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>275</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>286</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>292</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>281</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>579</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>276</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>293</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>277</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>278</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>310</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>316</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>300</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>345</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>282</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>283</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34878" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35439" uniqueCount="608">
   <si>
     <t>jira</t>
   </si>
@@ -1898,7 +1898,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1086" x14ac:knownFonts="1">
+  <fonts count="1102" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8746,8 +8746,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1885">
+  <fills count="1912">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -19425,8 +19526,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1967">
+  <borders count="1999">
     <border>
       <left/>
       <right/>
@@ -35132,6 +35386,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -39229,7 +39809,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1112">
+  <cellXfs count="1128">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -42535,52 +43115,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1857" fontId="1069" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1070" fillId="1860" borderId="1942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1071" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1942" fillId="1860" fontId="1070" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1071" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1072" fillId="1863" borderId="1946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1946" fillId="1863" fontId="1072" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1073" fillId="1866" borderId="1950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1950" fillId="1866" fontId="1073" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1074" fillId="1869" borderId="1954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1954" fillId="1869" fontId="1074" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1075" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1075" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1076" fillId="1872" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1872" fontId="1076" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1077" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1078" fillId="1875" borderId="1958" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1079" fillId="1866" borderId="1962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1080" fillId="1878" borderId="1966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1081" fillId="1878" borderId="1966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1082" fillId="1869" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1083" fillId="1881" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1084" fillId="1869" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1085" fillId="1884" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1077" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1958" fillId="1875" fontId="1078" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1962" fillId="1866" fontId="1079" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1966" fillId="1878" fontId="1080" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1966" fillId="1878" fontId="1081" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1869" fontId="1082" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1881" fontId="1083" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1869" fontId="1084" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1884" fontId="1085" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1086" fillId="1887" borderId="1974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1087" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1088" fillId="1890" borderId="1978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1089" fillId="1893" borderId="1982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1090" fillId="1896" borderId="1986" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1091" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1092" fillId="1899" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1093" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1094" fillId="1902" borderId="1990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1095" fillId="1893" borderId="1994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1096" fillId="1905" borderId="1998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1097" fillId="1905" borderId="1998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1098" fillId="1896" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1099" fillId="1908" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1100" fillId="1896" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1101" fillId="1911" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35439" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36563" uniqueCount="610">
   <si>
     <t>jira</t>
   </si>
@@ -1891,6 +1891,12 @@
   </si>
   <si>
     <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
   </si>
 </sst>
 </file>
@@ -1898,7 +1904,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1102" x14ac:knownFonts="1">
+  <fonts count="1134" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8847,8 +8853,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1912">
+  <fills count="1966">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -19679,8 +19887,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1999">
+  <borders count="2063">
     <border>
       <left/>
       <right/>
@@ -35386,6 +35900,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -39809,7 +40975,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1128">
+  <cellXfs count="1160">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -43163,52 +44329,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1884" fontId="1085" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1086" fillId="1887" borderId="1974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1087" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1974" fillId="1887" fontId="1086" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1087" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1088" fillId="1890" borderId="1978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1978" fillId="1890" fontId="1088" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1089" fillId="1893" borderId="1982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1982" fillId="1893" fontId="1089" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1090" fillId="1896" borderId="1986" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1986" fillId="1896" fontId="1090" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1091" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1091" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1092" fillId="1899" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1899" fontId="1092" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1093" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1094" fillId="1902" borderId="1990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1095" fillId="1893" borderId="1994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1096" fillId="1905" borderId="1998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1097" fillId="1905" borderId="1998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1098" fillId="1896" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1099" fillId="1908" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1100" fillId="1896" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1101" fillId="1911" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1093" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1990" fillId="1902" fontId="1094" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1994" fillId="1893" fontId="1095" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1998" fillId="1905" fontId="1096" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1998" fillId="1905" fontId="1097" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1896" fontId="1098" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1908" fontId="1099" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1896" fontId="1100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1911" fontId="1101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2006" fillId="1914" fontId="1102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1103" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2010" fillId="1917" fontId="1104" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2014" fillId="1920" fontId="1105" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2018" fillId="1923" fontId="1106" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1107" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1926" fontId="1108" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1109" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2022" fillId="1929" fontId="1110" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2026" fillId="1920" fontId="1111" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2030" fillId="1932" fontId="1112" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2030" fillId="1932" fontId="1113" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1923" fontId="1114" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1935" fontId="1115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1923" fontId="1116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1938" fontId="1117" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1118" fillId="1941" borderId="2038" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1119" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1120" fillId="1944" borderId="2042" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1121" fillId="1947" borderId="2046" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1122" fillId="1950" borderId="2050" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1123" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1124" fillId="1953" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1125" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1126" fillId="1956" borderId="2054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1127" fillId="1947" borderId="2058" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1128" fillId="1959" borderId="2062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1129" fillId="1959" borderId="2062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1130" fillId="1950" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1131" fillId="1962" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1132" fillId="1950" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1133" fillId="1965" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -44492,7 +45754,7 @@
         <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>458</v>
+        <v>608</v>
       </c>
       <c r="H18" t="s">
         <v>92</v>
@@ -44515,7 +45777,7 @@
         <v>244</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>458</v>
       </c>
       <c r="H19" t="s">
         <v>93</v>
@@ -44535,7 +45797,7 @@
         <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H20" t="s">
         <v>301</v>
@@ -44555,13 +45817,13 @@
         <v>442</v>
       </c>
       <c r="F21" t="s">
-        <v>261</v>
+        <v>64</v>
       </c>
       <c r="H21" t="s">
         <v>302</v>
       </c>
       <c r="L21" t="s">
-        <v>387</v>
+        <v>609</v>
       </c>
       <c r="Z21" t="s">
         <v>111</v>
@@ -44575,7 +45837,7 @@
         <v>455</v>
       </c>
       <c r="F22" t="s">
-        <v>590</v>
+        <v>261</v>
       </c>
       <c r="H22" t="s">
         <v>303</v>
@@ -44595,7 +45857,7 @@
         <v>456</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>590</v>
       </c>
       <c r="H23" t="s">
         <v>304</v>
@@ -44615,7 +45877,7 @@
         <v>364</v>
       </c>
       <c r="F24" t="s">
-        <v>326</v>
+        <v>65</v>
       </c>
       <c r="H24" t="s">
         <v>295</v>
@@ -44635,7 +45897,7 @@
         <v>438</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>326</v>
       </c>
       <c r="H25" t="s">
         <v>284</v>
@@ -44655,7 +45917,7 @@
         <v>57</v>
       </c>
       <c r="F26" t="s">
-        <v>495</v>
+        <v>66</v>
       </c>
       <c r="H26" t="s">
         <v>79</v>
@@ -44675,7 +45937,7 @@
         <v>58</v>
       </c>
       <c r="F27" t="s">
-        <v>230</v>
+        <v>495</v>
       </c>
       <c r="H27" t="s">
         <v>287</v>
@@ -44695,7 +45957,7 @@
         <v>59</v>
       </c>
       <c r="F28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H28" t="s">
         <v>271</v>
@@ -44712,7 +45974,7 @@
         <v>60</v>
       </c>
       <c r="F29" t="s">
-        <v>518</v>
+        <v>231</v>
       </c>
       <c r="H29" t="s">
         <v>288</v>
@@ -44729,7 +45991,7 @@
         <v>457</v>
       </c>
       <c r="F30" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H30" t="s">
         <v>289</v>
@@ -44743,7 +46005,7 @@
         <v>232</v>
       </c>
       <c r="F31" t="s">
-        <v>459</v>
+        <v>519</v>
       </c>
       <c r="H31" t="s">
         <v>221</v>
@@ -44754,7 +46016,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>67</v>
+        <v>459</v>
       </c>
       <c r="H32" t="s">
         <v>280</v>
@@ -44765,7 +46027,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H33" t="s">
         <v>290</v>
@@ -44776,7 +46038,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H34" t="s">
         <v>557</v>
@@ -44787,7 +46049,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H35" t="s">
         <v>265</v>
@@ -44798,7 +46060,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H36" t="s">
         <v>335</v>
@@ -44809,7 +46071,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H37" t="s">
         <v>312</v>
@@ -44820,7 +46082,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H38" t="s">
         <v>266</v>
@@ -44831,7 +46093,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H39" t="s">
         <v>313</v>
@@ -44841,6 +46103,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>74</v>
+      </c>
       <c r="H40" t="s">
         <v>272</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -17,15 +17,15 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
@@ -37,7 +37,7 @@
     <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36563" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37128" uniqueCount="615">
   <si>
     <t>jira</t>
   </si>
@@ -1897,6 +1897,21 @@
   </si>
   <si>
     <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1904,7 +1919,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1134" x14ac:knownFonts="1">
+  <fonts count="1150" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9055,8 +9070,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1966">
+  <fills count="1993">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -20193,8 +20309,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2063">
+  <borders count="2095">
     <border>
       <left/>
       <right/>
@@ -35900,6 +36169,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -40975,7 +41570,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1160">
+  <cellXfs count="1176">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -44425,52 +45020,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1938" fontId="1117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1118" fillId="1941" borderId="2038" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1119" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2038" fillId="1941" fontId="1118" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1119" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1120" fillId="1944" borderId="2042" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2042" fillId="1944" fontId="1120" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1121" fillId="1947" borderId="2046" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2046" fillId="1947" fontId="1121" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1122" fillId="1950" borderId="2050" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2050" fillId="1950" fontId="1122" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1123" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1123" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1124" fillId="1953" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1953" fontId="1124" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1125" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1126" fillId="1956" borderId="2054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1127" fillId="1947" borderId="2058" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1128" fillId="1959" borderId="2062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1129" fillId="1959" borderId="2062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1130" fillId="1950" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1131" fillId="1962" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1132" fillId="1950" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1133" fillId="1965" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1125" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2054" fillId="1956" fontId="1126" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2058" fillId="1947" fontId="1127" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2062" fillId="1959" fontId="1128" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2062" fillId="1959" fontId="1129" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1950" fontId="1130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1962" fontId="1131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1950" fontId="1132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1965" fontId="1133" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1134" fillId="1968" borderId="2070" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1135" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1136" fillId="1971" borderId="2074" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1137" fillId="1974" borderId="2078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1138" fillId="1977" borderId="2082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1139" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1140" fillId="1980" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1141" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1142" fillId="1983" borderId="2086" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1143" fillId="1974" borderId="2090" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1144" fillId="1986" borderId="2094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1145" fillId="1986" borderId="2094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1146" fillId="1977" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1147" fillId="1989" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1148" fillId="1977" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1149" fillId="1992" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -44795,7 +45438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -45111,7 +45754,7 @@
         <v>355</v>
       </c>
       <c r="L4" t="s">
-        <v>243</v>
+        <v>611</v>
       </c>
       <c r="M4" t="s">
         <v>340</v>
@@ -45147,7 +45790,7 @@
         <v>441</v>
       </c>
       <c r="Z4" t="s">
-        <v>359</v>
+        <v>612</v>
       </c>
       <c r="AA4" t="s">
         <v>177</v>
@@ -45194,7 +45837,7 @@
         <v>356</v>
       </c>
       <c r="L5" t="s">
-        <v>510</v>
+        <v>243</v>
       </c>
       <c r="N5" t="s">
         <v>90</v>
@@ -45261,11 +45904,14 @@
       <c r="I6" t="s">
         <v>494</v>
       </c>
+      <c r="J6" t="s">
+        <v>610</v>
+      </c>
       <c r="K6" t="s">
         <v>353</v>
       </c>
       <c r="L6" t="s">
-        <v>75</v>
+        <v>510</v>
       </c>
       <c r="N6" t="s">
         <v>31</v>
@@ -45327,7 +45973,7 @@
         <v>580</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="N7" t="s">
         <v>320</v>
@@ -45386,7 +46032,7 @@
         <v>333</v>
       </c>
       <c r="L8" t="s">
-        <v>553</v>
+        <v>18</v>
       </c>
       <c r="N8" t="s">
         <v>36</v>
@@ -45442,7 +46088,7 @@
         <v>334</v>
       </c>
       <c r="L9" t="s">
-        <v>83</v>
+        <v>553</v>
       </c>
       <c r="N9" t="s">
         <v>37</v>
@@ -45486,7 +46132,7 @@
         <v>498</v>
       </c>
       <c r="L10" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="N10" t="s">
         <v>38</v>
@@ -45527,7 +46173,7 @@
         <v>327</v>
       </c>
       <c r="L11" t="s">
-        <v>554</v>
+        <v>40</v>
       </c>
       <c r="N11" t="s">
         <v>521</v>
@@ -45565,7 +46211,7 @@
         <v>328</v>
       </c>
       <c r="L12" t="s">
-        <v>397</v>
+        <v>554</v>
       </c>
       <c r="N12" t="s">
         <v>581</v>
@@ -45603,7 +46249,7 @@
         <v>329</v>
       </c>
       <c r="L13" t="s">
-        <v>19</v>
+        <v>397</v>
       </c>
       <c r="N13" t="s">
         <v>486</v>
@@ -45638,7 +46284,7 @@
         <v>330</v>
       </c>
       <c r="L14" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="N14" t="s">
         <v>522</v>
@@ -45670,7 +46316,7 @@
         <v>269</v>
       </c>
       <c r="L15" t="s">
-        <v>555</v>
+        <v>44</v>
       </c>
       <c r="N15" t="s">
         <v>41</v>
@@ -45702,7 +46348,7 @@
         <v>270</v>
       </c>
       <c r="L16" t="s">
-        <v>84</v>
+        <v>555</v>
       </c>
       <c r="N16" t="s">
         <v>594</v>
@@ -45734,7 +46380,7 @@
         <v>322</v>
       </c>
       <c r="L17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N17" t="s">
         <v>42</v>
@@ -45754,13 +46400,13 @@
         <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>608</v>
+        <v>458</v>
       </c>
       <c r="H18" t="s">
         <v>92</v>
       </c>
       <c r="L18" t="s">
-        <v>503</v>
+        <v>85</v>
       </c>
       <c r="N18" t="s">
         <v>45</v>
@@ -45777,13 +46423,13 @@
         <v>244</v>
       </c>
       <c r="F19" t="s">
-        <v>458</v>
+        <v>63</v>
       </c>
       <c r="H19" t="s">
         <v>93</v>
       </c>
       <c r="L19" t="s">
-        <v>86</v>
+        <v>503</v>
       </c>
       <c r="Z19" t="s">
         <v>109</v>
@@ -45797,13 +46443,13 @@
         <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H20" t="s">
         <v>301</v>
       </c>
       <c r="L20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Z20" t="s">
         <v>110</v>
@@ -45817,13 +46463,13 @@
         <v>442</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>261</v>
       </c>
       <c r="H21" t="s">
         <v>302</v>
       </c>
       <c r="L21" t="s">
-        <v>609</v>
+        <v>87</v>
       </c>
       <c r="Z21" t="s">
         <v>111</v>
@@ -45837,13 +46483,13 @@
         <v>455</v>
       </c>
       <c r="F22" t="s">
-        <v>261</v>
+        <v>590</v>
       </c>
       <c r="H22" t="s">
         <v>303</v>
       </c>
       <c r="L22" t="s">
-        <v>520</v>
+        <v>609</v>
       </c>
       <c r="Z22" t="s">
         <v>532</v>
@@ -45857,13 +46503,13 @@
         <v>456</v>
       </c>
       <c r="F23" t="s">
-        <v>590</v>
+        <v>65</v>
       </c>
       <c r="H23" t="s">
         <v>304</v>
       </c>
       <c r="L23" t="s">
-        <v>46</v>
+        <v>520</v>
       </c>
       <c r="Z23" t="s">
         <v>113</v>
@@ -45877,13 +46523,13 @@
         <v>364</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>326</v>
       </c>
       <c r="H24" t="s">
         <v>295</v>
       </c>
       <c r="L24" t="s">
-        <v>433</v>
+        <v>46</v>
       </c>
       <c r="Z24" t="s">
         <v>595</v>
@@ -45897,13 +46543,13 @@
         <v>438</v>
       </c>
       <c r="F25" t="s">
-        <v>326</v>
+        <v>66</v>
       </c>
       <c r="H25" t="s">
         <v>284</v>
       </c>
       <c r="L25" t="s">
-        <v>573</v>
+        <v>433</v>
       </c>
       <c r="Z25" t="s">
         <v>114</v>
@@ -45917,13 +46563,13 @@
         <v>57</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>495</v>
       </c>
       <c r="H26" t="s">
         <v>79</v>
       </c>
       <c r="L26" t="s">
-        <v>88</v>
+        <v>573</v>
       </c>
       <c r="Z26" t="s">
         <v>115</v>
@@ -45937,13 +46583,13 @@
         <v>58</v>
       </c>
       <c r="F27" t="s">
-        <v>495</v>
+        <v>230</v>
       </c>
       <c r="H27" t="s">
         <v>287</v>
       </c>
       <c r="L27" t="s">
-        <v>485</v>
+        <v>88</v>
       </c>
       <c r="Z27" t="s">
         <v>116</v>
@@ -45957,13 +46603,13 @@
         <v>59</v>
       </c>
       <c r="F28" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H28" t="s">
         <v>271</v>
       </c>
       <c r="L28" t="s">
-        <v>47</v>
+        <v>485</v>
       </c>
       <c r="Z28" t="s">
         <v>117</v>
@@ -45974,13 +46620,13 @@
         <v>60</v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>518</v>
       </c>
       <c r="H29" t="s">
         <v>288</v>
       </c>
       <c r="L29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z29" t="s">
         <v>332</v>
@@ -45991,10 +46637,13 @@
         <v>457</v>
       </c>
       <c r="F30" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H30" t="s">
         <v>289</v>
+      </c>
+      <c r="L30" t="s">
+        <v>48</v>
       </c>
       <c r="Z30" t="s">
         <v>118</v>
@@ -46005,7 +46654,7 @@
         <v>232</v>
       </c>
       <c r="F31" t="s">
-        <v>519</v>
+        <v>459</v>
       </c>
       <c r="H31" t="s">
         <v>221</v>
@@ -46016,7 +46665,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>459</v>
+        <v>67</v>
       </c>
       <c r="H32" t="s">
         <v>280</v>
@@ -46027,7 +46676,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H33" t="s">
         <v>290</v>
@@ -46038,7 +46687,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H34" t="s">
         <v>557</v>
@@ -46049,7 +46698,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H35" t="s">
         <v>265</v>
@@ -46060,7 +46709,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H36" t="s">
         <v>335</v>
@@ -46071,7 +46720,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H37" t="s">
         <v>312</v>
@@ -46082,7 +46731,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H38" t="s">
         <v>266</v>
@@ -46093,7 +46742,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H39" t="s">
         <v>313</v>
@@ -46103,9 +46752,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>74</v>
-      </c>
       <c r="H40" t="s">
         <v>272</v>
       </c>
@@ -46579,186 +47225,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>482</v>
+        <v>613</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>209</v>
+        <v>614</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>210</v>
+        <v>482</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>556</v>
+        <v>228</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>607</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>153</v>
+        <v>607</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>390</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>154</v>
+        <v>560</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>155</v>
+        <v>390</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>489</v>
+        <v>165</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>597</v>
+        <v>489</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>169</v>
+        <v>597</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>49</v>
+        <v>169</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>172</v>
+        <v>49</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_rdbms.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11103"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1FE308-8D25-7641-939C-69FE7C8369F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{AA1FE308-8D25-7641-939C-69FE7C8369F9}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="460" windowWidth="38400" windowHeight="35540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="35540" windowWidth="38400" xWindow="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Scenario" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="Scenario" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -48,7 +48,7 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="597">
   <si>
     <t>description</t>
   </si>
@@ -1864,13 +1864,17 @@
   </si>
   <si>
     <t>${result}</t>
+  </si>
+  <si>
+    <t>saveBrowserVersion(var)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1954,8 +1958,210 @@
       <name val="Consolas"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1974,8 +2180,314 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -2013,155 +2525,903 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="71">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="11" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="11" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="12" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="14" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="15" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="15" fontId="16" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="18" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="12" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="48" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="39" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -2225,7 +3485,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -2250,10 +3510,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2288,7 +3548,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2323,7 +3583,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2417,21 +3677,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2448,7 +3708,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2500,26 +3760,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE137"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF138"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2614,7 +3874,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>363</v>
       </c>
@@ -2709,7 +3969,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>446</v>
       </c>
@@ -2795,7 +4055,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>467</v>
       </c>
@@ -2878,7 +4138,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>538</v>
       </c>
@@ -2952,7 +4212,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3023,7 +4283,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -3085,7 +4345,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3141,7 +4401,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3188,7 +4448,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3229,7 +4489,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>342</v>
       </c>
@@ -3267,7 +4527,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3305,7 +4565,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>328</v>
       </c>
@@ -3340,7 +4600,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3375,7 +4635,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>498</v>
       </c>
@@ -3407,7 +4667,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>468</v>
       </c>
@@ -3439,7 +4699,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>192</v>
       </c>
@@ -3465,7 +4725,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -3488,7 +4748,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>235</v>
       </c>
@@ -3508,7 +4768,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -3528,7 +4788,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>387</v>
       </c>
@@ -3548,7 +4808,7 @@
